--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId2"/>
+    <sheet name="COMPRAS  ENERO  2023  " sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -175,6 +175,147 @@
   <si>
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A    ENERO          2 0 2 3</t>
   </si>
+  <si>
+    <t>DEBE  ZAVALETA</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>PAGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S A L D O </t>
+  </si>
+  <si>
+    <t># REMISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDO X PAGAR </t>
+  </si>
+  <si>
+    <t>REMISIONES             O B R A DO R       2 0 2 3</t>
+  </si>
+  <si>
+    <t>REMISIONES            CENTRAL          2 0 2 3</t>
+  </si>
+  <si>
+    <t>22015 D</t>
+  </si>
+  <si>
+    <t>21854 D</t>
+  </si>
+  <si>
+    <t>22106 D</t>
+  </si>
+  <si>
+    <t>22183 D</t>
+  </si>
+  <si>
+    <t>22278 D</t>
+  </si>
+  <si>
+    <t>22279 D</t>
+  </si>
+  <si>
+    <t>22471 D</t>
+  </si>
+  <si>
+    <t>22531 D</t>
+  </si>
+  <si>
+    <t>22568 D</t>
+  </si>
+  <si>
+    <t>22718 D</t>
+  </si>
+  <si>
+    <t>22760 D</t>
+  </si>
+  <si>
+    <t>22777 D</t>
+  </si>
+  <si>
+    <t>22883 D</t>
+  </si>
+  <si>
+    <t>22984 D</t>
+  </si>
+  <si>
+    <t>23001 D</t>
+  </si>
+  <si>
+    <t>23086 D</t>
+  </si>
+  <si>
+    <t>23156 D</t>
+  </si>
+  <si>
+    <t>23265 D</t>
+  </si>
+  <si>
+    <t>23424 D</t>
+  </si>
+  <si>
+    <t>23451 D</t>
+  </si>
+  <si>
+    <t>23467 D</t>
+  </si>
+  <si>
+    <t>23564 D</t>
+  </si>
+  <si>
+    <t>23696 D</t>
+  </si>
+  <si>
+    <t>23739 D</t>
+  </si>
+  <si>
+    <t>23888 D</t>
+  </si>
+  <si>
+    <t>23972 D</t>
+  </si>
+  <si>
+    <t>24147 D</t>
+  </si>
+  <si>
+    <t>24166 D</t>
+  </si>
+  <si>
+    <t>24216 D</t>
+  </si>
+  <si>
+    <t>24275 D</t>
+  </si>
+  <si>
+    <t>24331 D</t>
+  </si>
+  <si>
+    <t>24426 D</t>
+  </si>
+  <si>
+    <t>24592 D</t>
+  </si>
+  <si>
+    <t>24635 D</t>
+  </si>
+  <si>
+    <t>24827 D</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +329,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +637,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +749,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1337,16 +1552,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1354,9 +1817,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1369,12 +1829,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,12 +1844,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1404,18 +1852,6 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1427,14 +1863,8 @@
     <xf numFmtId="44" fontId="17" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,19 +2029,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1619,12 +2037,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="27" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1706,26 +2118,11 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1733,18 +2130,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1774,29 +2159,11 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="31" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1829,20 +2196,342 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="11" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="44" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="13" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="13" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="13" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="13" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="13" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2605,933 +3294,804 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="172" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="154" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="8"/>
-    <col min="6" max="6" width="15.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="228" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="15"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="H3" s="230" t="s">
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="309"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="289" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3445405.07</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="H4" s="33" t="s">
+      <c r="F4" s="292"/>
+      <c r="H4" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="I4" s="294"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41" t="s">
+      <c r="P4" s="311"/>
+      <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="42"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44">
-        <v>44894</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47">
-        <v>44894</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50">
-        <v>44894</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="54">
-        <v>0</v>
-      </c>
-      <c r="N5" s="55">
-        <v>0</v>
-      </c>
-      <c r="P5" s="56">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="42">
+        <v>0</v>
+      </c>
+      <c r="N5" s="43">
+        <v>0</v>
+      </c>
+      <c r="P5" s="44">
         <f>N5+M5+L5+I5+C5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="45">
         <f>P5-F5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="58">
+      <c r="R5" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
-        <v>44895</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="47">
-        <v>44895</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50">
-        <v>44895</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="54">
-        <v>0</v>
-      </c>
-      <c r="N6" s="55">
-        <v>0</v>
-      </c>
-      <c r="P6" s="61">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="42">
+        <v>0</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0</v>
+      </c>
+      <c r="P6" s="49">
         <f>N6+M6+L6+I6+C6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="45">
         <f t="shared" ref="Q6:Q47" si="0">P6-F6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="58">
+      <c r="R6" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44">
-        <v>44896</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="47">
-        <v>44896</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50">
-        <v>44896</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="54">
-        <v>0</v>
-      </c>
-      <c r="N7" s="55">
-        <v>0</v>
-      </c>
-      <c r="P7" s="61">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="42">
+        <v>0</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0</v>
+      </c>
+      <c r="P7" s="49">
         <f>N7+M7+L7+I7+C7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="58">
+      <c r="Q7" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44">
-        <v>44897</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="47">
-        <v>44897</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50">
-        <v>44897</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="54">
-        <v>0</v>
-      </c>
-      <c r="N8" s="55">
-        <v>0</v>
-      </c>
-      <c r="P8" s="61">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="42">
+        <v>0</v>
+      </c>
+      <c r="N8" s="43">
+        <v>0</v>
+      </c>
+      <c r="P8" s="49">
         <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="58">
+      <c r="Q8" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44">
-        <v>44898</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="47">
-        <v>44898</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50">
-        <v>44898</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="54">
-        <v>0</v>
-      </c>
-      <c r="N9" s="55">
-        <v>0</v>
-      </c>
-      <c r="P9" s="61">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0</v>
+      </c>
+      <c r="P9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="58">
+      <c r="Q9" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44">
-        <v>44899</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="47">
-        <v>44899</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50">
-        <v>44899</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="54">
-        <v>0</v>
-      </c>
-      <c r="N10" s="55">
-        <v>0</v>
-      </c>
-      <c r="P10" s="61">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="43">
+        <v>0</v>
+      </c>
+      <c r="P10" s="49">
         <f>N10+M10+L10+I10+C10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="58">
+      <c r="Q10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44">
-        <v>44900</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="47">
-        <v>44900</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50">
-        <v>44900</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="54">
-        <v>0</v>
-      </c>
-      <c r="N11" s="55">
-        <v>0</v>
-      </c>
-      <c r="P11" s="61">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="42">
+        <v>0</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0</v>
+      </c>
+      <c r="P11" s="49">
         <f t="shared" ref="P11:P47" si="2">N11+M11+L11+I11+C11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="58">
+      <c r="Q11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44">
-        <v>44901</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="47">
-        <v>44901</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50">
-        <v>44901</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="54">
-        <v>0</v>
-      </c>
-      <c r="N12" s="55">
-        <v>0</v>
-      </c>
-      <c r="O12" s="231"/>
-      <c r="P12" s="61">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="42">
+        <v>0</v>
+      </c>
+      <c r="N12" s="43">
+        <v>0</v>
+      </c>
+      <c r="O12" s="195"/>
+      <c r="P12" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="58">
+      <c r="Q12" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44">
-        <v>44902</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="47">
-        <v>44902</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50">
-        <v>44902</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="54">
-        <v>0</v>
-      </c>
-      <c r="N13" s="55">
-        <v>0</v>
-      </c>
-      <c r="O13" s="231"/>
-      <c r="P13" s="61">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="42">
+        <v>0</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0</v>
+      </c>
+      <c r="O13" s="195"/>
+      <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="58">
+      <c r="Q13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44">
-        <v>44903</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="47">
-        <v>44903</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50">
-        <v>44903</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="54">
-        <v>0</v>
-      </c>
-      <c r="N14" s="55">
-        <v>0</v>
-      </c>
-      <c r="O14" s="232"/>
-      <c r="P14" s="61">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="42">
+        <v>0</v>
+      </c>
+      <c r="N14" s="43">
+        <v>0</v>
+      </c>
+      <c r="O14" s="196"/>
+      <c r="P14" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="58">
+      <c r="Q14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44">
-        <v>44904</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="47">
-        <v>44904</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50">
-        <v>44904</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="54">
-        <v>0</v>
-      </c>
-      <c r="N15" s="55">
-        <v>0</v>
-      </c>
-      <c r="P15" s="61">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="42">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0</v>
+      </c>
+      <c r="P15" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="58">
+      <c r="Q15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44">
-        <v>44905</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="47">
-        <v>44905</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50">
-        <v>44905</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="54">
-        <v>0</v>
-      </c>
-      <c r="N16" s="55">
-        <v>0</v>
-      </c>
-      <c r="P16" s="61">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="42">
+        <v>0</v>
+      </c>
+      <c r="N16" s="43">
+        <v>0</v>
+      </c>
+      <c r="P16" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="58">
+      <c r="Q16" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44">
-        <v>44906</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="47">
-        <v>44906</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50">
-        <v>44906</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="54">
-        <v>0</v>
-      </c>
-      <c r="N17" s="55">
-        <v>0</v>
-      </c>
-      <c r="P17" s="61">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="42">
+        <v>0</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0</v>
+      </c>
+      <c r="P17" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="58">
+      <c r="Q17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44">
-        <v>44907</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="47">
-        <v>44907</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50">
-        <v>44907</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="54">
-        <v>0</v>
-      </c>
-      <c r="N18" s="55">
-        <v>0</v>
-      </c>
-      <c r="P18" s="61">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
+      <c r="N18" s="43">
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="58">
+      <c r="Q18" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44">
-        <v>44908</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="47">
-        <v>44908</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50">
-        <v>44908</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="54">
-        <v>0</v>
-      </c>
-      <c r="N19" s="55">
-        <v>0</v>
-      </c>
-      <c r="P19" s="61">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="42">
+        <v>0</v>
+      </c>
+      <c r="N19" s="43">
+        <v>0</v>
+      </c>
+      <c r="P19" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="58">
+      <c r="Q19" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44">
-        <v>44909</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="47">
-        <v>44909</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50">
-        <v>44909</v>
-      </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="54">
-        <v>0</v>
-      </c>
-      <c r="N20" s="55">
-        <v>0</v>
-      </c>
-      <c r="P20" s="61">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="42">
+        <v>0</v>
+      </c>
+      <c r="N20" s="43">
+        <v>0</v>
+      </c>
+      <c r="P20" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="58">
+      <c r="Q20" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44">
-        <v>44910</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="47">
-        <v>44910</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50">
-        <v>44910</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="54">
-        <v>0</v>
-      </c>
-      <c r="N21" s="55">
-        <v>0</v>
-      </c>
-      <c r="P21" s="61">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="42">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="P21" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="58">
+      <c r="Q21" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44">
-        <v>44911</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="47">
-        <v>44911</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50">
-        <v>44911</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="54">
-        <v>0</v>
-      </c>
-      <c r="N22" s="55">
-        <v>0</v>
-      </c>
-      <c r="P22" s="61">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="42">
+        <v>0</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0</v>
+      </c>
+      <c r="P22" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="58">
-        <v>0</v>
-      </c>
-      <c r="S22" s="77"/>
+      <c r="Q22" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="65"/>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44">
-        <v>44912</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="47">
-        <v>44912</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50">
-        <v>44912</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="54">
-        <v>0</v>
-      </c>
-      <c r="N23" s="55">
-        <v>0</v>
-      </c>
-      <c r="P23" s="61">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="42">
+        <v>0</v>
+      </c>
+      <c r="N23" s="43">
+        <v>0</v>
+      </c>
+      <c r="P23" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="58">
+      <c r="Q23" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44">
-        <v>44913</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="47">
-        <v>44913</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50">
-        <v>44913</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="54">
-        <v>0</v>
-      </c>
-      <c r="N24" s="55">
-        <v>0</v>
-      </c>
-      <c r="P24" s="61">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="42">
+        <v>0</v>
+      </c>
+      <c r="N24" s="43">
+        <v>0</v>
+      </c>
+      <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="58">
+      <c r="Q24" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44">
-        <v>44914</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="47">
-        <v>44914</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50">
-        <v>44914</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="54">
-        <v>0</v>
-      </c>
-      <c r="N25" s="55">
-        <v>0</v>
-      </c>
-      <c r="P25" s="83">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="42">
+        <v>0</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0</v>
+      </c>
+      <c r="P25" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="58">
+      <c r="Q25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44">
-        <v>44915</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="47">
-        <v>44915</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50">
-        <v>44915</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="54">
-        <v>0</v>
-      </c>
-      <c r="N26" s="55">
-        <v>0</v>
-      </c>
-      <c r="P26" s="83">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="42">
+        <v>0</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0</v>
+      </c>
+      <c r="P26" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="58">
+      <c r="Q26" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
         <v>0</v>
       </c>
       <c r="S26" t="s">
@@ -3539,298 +4099,250 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44">
-        <v>44916</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="47">
-        <v>44916</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50">
-        <v>44916</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="54">
-        <v>0</v>
-      </c>
-      <c r="N27" s="55">
-        <v>0</v>
-      </c>
-      <c r="P27" s="83">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="42">
+        <v>0</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0</v>
+      </c>
+      <c r="P27" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="58">
+      <c r="Q27" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44">
-        <v>44917</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="47">
-        <v>44917</v>
-      </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50">
-        <v>44917</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="54">
-        <v>0</v>
-      </c>
-      <c r="N28" s="55">
-        <v>0</v>
-      </c>
-      <c r="P28" s="83">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="42">
+        <v>0</v>
+      </c>
+      <c r="N28" s="43">
+        <v>0</v>
+      </c>
+      <c r="P28" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="58">
+      <c r="Q28" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44">
-        <v>44918</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="47">
-        <v>44918</v>
-      </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50">
-        <v>44918</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="54">
-        <v>0</v>
-      </c>
-      <c r="N29" s="55">
-        <v>0</v>
-      </c>
-      <c r="P29" s="83">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="42">
+        <v>0</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0</v>
+      </c>
+      <c r="P29" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="58">
+      <c r="Q29" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44">
-        <v>44919</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="47">
-        <v>44919</v>
-      </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50">
-        <v>44919</v>
-      </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="54">
-        <v>0</v>
-      </c>
-      <c r="N30" s="55">
-        <v>0</v>
-      </c>
-      <c r="P30" s="83">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="42">
+        <v>0</v>
+      </c>
+      <c r="N30" s="43">
+        <v>0</v>
+      </c>
+      <c r="P30" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="58">
+      <c r="Q30" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44">
-        <v>44920</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="47">
-        <v>44920</v>
-      </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50">
-        <v>44920</v>
-      </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="54">
-        <v>0</v>
-      </c>
-      <c r="N31" s="55">
-        <v>0</v>
-      </c>
-      <c r="P31" s="83">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="42">
+        <v>0</v>
+      </c>
+      <c r="N31" s="43">
+        <v>0</v>
+      </c>
+      <c r="P31" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="58">
+      <c r="Q31" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44">
-        <v>44921</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="47">
-        <v>44921</v>
-      </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50">
-        <v>44921</v>
-      </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="54">
-        <v>0</v>
-      </c>
-      <c r="N32" s="55">
-        <v>0</v>
-      </c>
-      <c r="P32" s="97">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="42">
+        <v>0</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0</v>
+      </c>
+      <c r="P32" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="58">
+      <c r="Q32" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44">
-        <v>44922</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="47">
-        <v>44922</v>
-      </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50">
-        <v>44922</v>
-      </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="54">
-        <v>0</v>
-      </c>
-      <c r="N33" s="55">
-        <v>0</v>
-      </c>
-      <c r="P33" s="83">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="42">
+        <v>0</v>
+      </c>
+      <c r="N33" s="43">
+        <v>0</v>
+      </c>
+      <c r="P33" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="58">
+      <c r="Q33" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44">
-        <v>44923</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="47">
-        <v>44923</v>
-      </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50">
-        <v>44923</v>
-      </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="54">
-        <v>0</v>
-      </c>
-      <c r="N34" s="55">
-        <v>0</v>
-      </c>
-      <c r="P34" s="83">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="42">
+        <v>0</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0</v>
+      </c>
+      <c r="P34" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="58">
+      <c r="Q34" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="46">
         <v>0</v>
       </c>
       <c r="S34" t="s">
@@ -3838,1316 +4350,1250 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44">
-        <v>44924</v>
-      </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="47">
-        <v>44924</v>
-      </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50">
-        <v>44924</v>
-      </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="54">
-        <v>0</v>
-      </c>
-      <c r="N35" s="55">
-        <v>0</v>
-      </c>
-      <c r="P35" s="83">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="42">
+        <v>0</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0</v>
+      </c>
+      <c r="P35" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="58">
+      <c r="Q35" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44">
-        <v>44925</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="47">
-        <v>44925</v>
-      </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="50">
-        <v>44925</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="55">
-        <v>0</v>
-      </c>
-      <c r="P36" s="83">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="42">
+        <v>0</v>
+      </c>
+      <c r="N36" s="43">
+        <v>0</v>
+      </c>
+      <c r="P36" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="58">
+      <c r="Q36" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44">
-        <v>44926</v>
-      </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="47">
-        <v>44926</v>
-      </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="50">
-        <v>44926</v>
-      </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="54">
-        <v>0</v>
-      </c>
-      <c r="N37" s="55">
-        <v>0</v>
-      </c>
-      <c r="P37" s="83">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="42">
+        <v>0</v>
+      </c>
+      <c r="N37" s="43">
+        <v>0</v>
+      </c>
+      <c r="P37" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="58">
+      <c r="Q37" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44">
-        <v>44927</v>
-      </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="47">
-        <v>44927</v>
-      </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="50">
-        <v>44927</v>
-      </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="54">
-        <v>0</v>
-      </c>
-      <c r="N38" s="55">
-        <v>0</v>
-      </c>
-      <c r="P38" s="83">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="42">
+        <v>0</v>
+      </c>
+      <c r="N38" s="43">
+        <v>0</v>
+      </c>
+      <c r="P38" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="58">
+      <c r="Q38" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44">
-        <v>44928</v>
-      </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="47">
-        <v>44928</v>
-      </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="50">
-        <v>44928</v>
-      </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="54">
-        <v>0</v>
-      </c>
-      <c r="N39" s="55">
-        <v>0</v>
-      </c>
-      <c r="P39" s="97">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="42">
+        <v>0</v>
+      </c>
+      <c r="N39" s="43">
+        <v>0</v>
+      </c>
+      <c r="P39" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="58">
+      <c r="Q39" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44">
-        <v>44929</v>
-      </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="47">
-        <v>44929</v>
-      </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50">
-        <v>44929</v>
-      </c>
-      <c r="I40" s="113"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="54">
-        <v>0</v>
-      </c>
-      <c r="N40" s="55">
-        <v>0</v>
-      </c>
-      <c r="P40" s="83">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="42">
+        <v>0</v>
+      </c>
+      <c r="N40" s="43">
+        <v>0</v>
+      </c>
+      <c r="P40" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="58">
+      <c r="Q40" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44">
-        <v>44930</v>
-      </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="47">
-        <v>44930</v>
-      </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50">
-        <v>44930</v>
-      </c>
-      <c r="I41" s="118"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="54">
-        <v>0</v>
-      </c>
-      <c r="N41" s="55">
-        <v>0</v>
-      </c>
-      <c r="P41" s="83">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="42">
+        <v>0</v>
+      </c>
+      <c r="N41" s="43">
+        <v>0</v>
+      </c>
+      <c r="P41" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="58">
+      <c r="Q41" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44">
-        <v>44931</v>
-      </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="47">
-        <v>44931</v>
-      </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50">
-        <v>44931</v>
-      </c>
-      <c r="I42" s="118"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="54">
-        <v>0</v>
-      </c>
-      <c r="N42" s="55">
-        <v>0</v>
-      </c>
-      <c r="P42" s="83">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="43">
+        <v>0</v>
+      </c>
+      <c r="P42" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="58">
+      <c r="Q42" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44">
-        <v>44932</v>
-      </c>
-      <c r="C43" s="108"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="47">
-        <v>44932</v>
-      </c>
-      <c r="F43" s="112"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50">
-        <v>44932</v>
-      </c>
-      <c r="I43" s="118"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="54">
-        <v>0</v>
-      </c>
-      <c r="N43" s="55">
-        <v>0</v>
-      </c>
-      <c r="P43" s="83">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="42">
+        <v>0</v>
+      </c>
+      <c r="N43" s="43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="58">
+      <c r="Q43" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44">
-        <v>44933</v>
-      </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="47">
-        <v>44933</v>
-      </c>
-      <c r="F44" s="112"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50">
-        <v>44933</v>
-      </c>
-      <c r="I44" s="118"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="54">
-        <v>0</v>
-      </c>
-      <c r="N44" s="55">
-        <v>0</v>
-      </c>
-      <c r="P44" s="83">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="42">
+        <v>0</v>
+      </c>
+      <c r="N44" s="43">
+        <v>0</v>
+      </c>
+      <c r="P44" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="58">
+      <c r="Q44" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44">
-        <v>44934</v>
-      </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="47">
-        <v>44934</v>
-      </c>
-      <c r="F45" s="112"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50">
-        <v>44934</v>
-      </c>
-      <c r="I45" s="118"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="54">
-        <v>0</v>
-      </c>
-      <c r="N45" s="55">
-        <v>0</v>
-      </c>
-      <c r="P45" s="83">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="42">
+        <v>0</v>
+      </c>
+      <c r="N45" s="43">
+        <v>0</v>
+      </c>
+      <c r="P45" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="58">
+      <c r="Q45" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="54">
-        <v>0</v>
-      </c>
-      <c r="N46" s="55">
-        <v>0</v>
-      </c>
-      <c r="P46" s="83">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="43">
+        <v>0</v>
+      </c>
+      <c r="P46" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="58">
+      <c r="Q46" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="114">
-        <v>0</v>
-      </c>
-      <c r="N47" s="115">
-        <v>0</v>
-      </c>
-      <c r="P47" s="83">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="102">
+        <v>0</v>
+      </c>
+      <c r="N47" s="103">
+        <v>0</v>
+      </c>
+      <c r="P47" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="58">
+      <c r="Q47" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="56"/>
-      <c r="P48" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="123">
-        <v>0</v>
-      </c>
-      <c r="R48" s="58">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="44"/>
+      <c r="P48" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="111">
+        <v>0</v>
+      </c>
+      <c r="R48" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="126">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="317">
         <f>SUM(M5:M40)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="126">
+      <c r="N49" s="317">
         <f>SUM(N5:N40)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="127">
+      <c r="P49" s="114">
         <f>SUM(P5:P40)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="128">
+      <c r="Q49" s="295">
         <f>SUM(Q5:Q40)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="58">
+      <c r="R49" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="131">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="318"/>
+      <c r="N50" s="318"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="296"/>
+      <c r="R50" s="115">
         <f>SUM(R5:R49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="23"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="23"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="134">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="297">
         <f>M49+N49</f>
         <v>0</v>
       </c>
-      <c r="N53" s="135"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="23"/>
+      <c r="N53" s="298"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="43"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="132"/>
-      <c r="N54" s="132"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="23"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="137"/>
-      <c r="L55" s="138"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="23"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="23"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="43"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="142"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="23"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="43"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="141"/>
-      <c r="K58" s="142"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="23"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="142"/>
-      <c r="L59" s="99"/>
-      <c r="M59" s="132"/>
-      <c r="N59" s="132"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="23"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="132"/>
-      <c r="N60" s="132"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="23"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="43"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="133"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="23"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="23"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="123"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="87"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="133"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="141"/>
-      <c r="K63" s="142"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="23"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="19"/>
     </row>
     <row r="64" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="141"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="23"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="123"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="19"/>
     </row>
     <row r="65" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="133"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="141"/>
-      <c r="K65" s="142"/>
-      <c r="L65" s="99"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="23"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="19"/>
     </row>
     <row r="66" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="141"/>
-      <c r="K66" s="142"/>
-      <c r="L66" s="99"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="23"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="116"/>
+      <c r="N66" s="116"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="19"/>
     </row>
     <row r="67" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="43"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="141"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="132"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="23"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="116"/>
+      <c r="N67" s="116"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="19"/>
     </row>
     <row r="68" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="43"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="99"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="23"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="19"/>
     </row>
     <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43"/>
-      <c r="B69" s="151"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="153"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="99"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="23"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="136"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43"/>
-      <c r="B70" s="155"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="56"/>
-      <c r="H70" s="158"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="23"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="87"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="19"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="43"/>
-      <c r="B71" s="155"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="56"/>
-      <c r="H71" s="158"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="99"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="23"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="44"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="136"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="19"/>
     </row>
     <row r="72" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="155"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="56"/>
-      <c r="H72" s="158"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="146"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="23"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="44"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="87"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="19"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="43"/>
-      <c r="B73" s="155"/>
-      <c r="C73" s="152"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="56"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="146"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="23"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="44"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="136"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="19"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="43"/>
-      <c r="B74" s="155"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="56"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="159"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="23"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="44"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="141"/>
+      <c r="K74" s="142"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="19"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="161" t="s">
+      <c r="B75" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="162">
+      <c r="C75" s="144">
         <f>SUM(C5:C68)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="163"/>
-      <c r="E75" s="164" t="s">
+      <c r="D75" s="145"/>
+      <c r="E75" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="165">
+      <c r="F75" s="147">
         <f>SUM(F5:F68)</f>
         <v>0</v>
       </c>
-      <c r="G75" s="166"/>
-      <c r="H75" s="164" t="s">
+      <c r="G75" s="148"/>
+      <c r="H75" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="167">
+      <c r="I75" s="149">
         <f>SUM(I5:I68)</f>
         <v>0</v>
       </c>
-      <c r="J75" s="168"/>
-      <c r="K75" s="169" t="s">
+      <c r="J75" s="150"/>
+      <c r="K75" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="170">
+      <c r="L75" s="152">
         <f>SUM(L5:L73)-L26</f>
         <v>0</v>
       </c>
-      <c r="M75" s="171"/>
-      <c r="N75" s="171"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="23"/>
+      <c r="M75" s="153"/>
+      <c r="N75" s="153"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="19"/>
     </row>
     <row r="76" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="23"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="19"/>
     </row>
     <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="173"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="2"/>
-      <c r="H77" s="175" t="s">
+      <c r="A77" s="155"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="1"/>
+      <c r="H77" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="176"/>
-      <c r="J77" s="177"/>
-      <c r="K77" s="178">
+      <c r="I77" s="300"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="301">
         <f>I75+L75</f>
         <v>0</v>
       </c>
-      <c r="L77" s="179"/>
-      <c r="M77" s="180"/>
-      <c r="N77" s="180"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="23"/>
+      <c r="L77" s="302"/>
+      <c r="M77" s="158"/>
+      <c r="N77" s="158"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="181" t="s">
+      <c r="D78" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="181"/>
-      <c r="F78" s="182">
+      <c r="E78" s="319"/>
+      <c r="F78" s="159">
         <f>F75-K77-C75</f>
         <v>0</v>
       </c>
-      <c r="I78" s="183"/>
-      <c r="J78" s="184"/>
+      <c r="I78" s="160"/>
+      <c r="J78" s="161"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="185" t="s">
+      <c r="D79" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="185"/>
-      <c r="F79" s="116">
-        <v>0</v>
-      </c>
-      <c r="I79" s="186" t="s">
+      <c r="E79" s="320"/>
+      <c r="F79" s="104">
+        <v>0</v>
+      </c>
+      <c r="I79" s="321" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="187"/>
-      <c r="K79" s="188">
+      <c r="J79" s="322"/>
+      <c r="K79" s="323">
         <f>F81+F82+F83</f>
         <v>0</v>
       </c>
-      <c r="L79" s="188"/>
-      <c r="M79" s="189"/>
-      <c r="N79" s="189"/>
-      <c r="O79" s="190"/>
-      <c r="P79" s="189"/>
-      <c r="Q79" s="189"/>
+      <c r="L79" s="323"/>
+      <c r="M79" s="162"/>
+      <c r="N79" s="162"/>
+      <c r="O79" s="163"/>
+      <c r="P79" s="162"/>
+      <c r="Q79" s="162"/>
     </row>
     <row r="80" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="191" t="s">
+      <c r="D80" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="192"/>
-      <c r="F80" s="193">
-        <v>0</v>
-      </c>
-      <c r="I80" s="194"/>
-      <c r="J80" s="195"/>
-      <c r="K80" s="196"/>
-      <c r="L80" s="197"/>
-      <c r="M80" s="189"/>
-      <c r="N80" s="189"/>
-      <c r="O80" s="190"/>
-      <c r="P80" s="189"/>
-      <c r="Q80" s="189"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="166">
+        <v>0</v>
+      </c>
+      <c r="I80" s="167"/>
+      <c r="J80" s="168"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="162"/>
+      <c r="N80" s="162"/>
+      <c r="O80" s="163"/>
+      <c r="P80" s="162"/>
+      <c r="Q80" s="162"/>
     </row>
     <row r="81" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="173" t="s">
+      <c r="E81" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="171">
+      <c r="F81" s="153">
         <f>SUM(F78:F80)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="198"/>
-      <c r="I81" s="199" t="s">
+      <c r="H81" s="171"/>
+      <c r="I81" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="200"/>
-      <c r="K81" s="201">
+      <c r="J81" s="173"/>
+      <c r="K81" s="324">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="188"/>
+      <c r="L81" s="323"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="202" t="s">
+      <c r="D82" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="173" t="s">
+      <c r="E82" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="116">
+      <c r="F82" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="203"/>
-      <c r="D83" s="204" t="s">
+      <c r="C83" s="175"/>
+      <c r="D83" s="312" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="205"/>
-      <c r="F83" s="206">
-        <v>0</v>
-      </c>
-      <c r="I83" s="207" t="s">
+      <c r="E83" s="313"/>
+      <c r="F83" s="176">
+        <v>0</v>
+      </c>
+      <c r="I83" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="208"/>
-      <c r="K83" s="209">
+      <c r="J83" s="315"/>
+      <c r="K83" s="316">
         <f>K79+K81</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L83" s="209"/>
+      <c r="L83" s="316"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C84" s="210"/>
-      <c r="D84" s="211"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="212"/>
-      <c r="J84" s="213"/>
+      <c r="C84" s="177"/>
+      <c r="D84" s="178"/>
+      <c r="E84" s="155"/>
+      <c r="F84" s="179"/>
+      <c r="J84" s="180"/>
     </row>
     <row r="85" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="214"/>
-      <c r="J85" s="214"/>
-      <c r="K85" s="215"/>
-      <c r="L85" s="216"/>
+      <c r="I85" s="181"/>
+      <c r="J85" s="181"/>
+      <c r="K85" s="182"/>
+      <c r="L85" s="183"/>
     </row>
     <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="217"/>
-      <c r="C86" s="218"/>
-      <c r="D86" s="219"/>
-      <c r="E86" s="56"/>
-      <c r="I86" s="214"/>
-      <c r="J86" s="214"/>
-      <c r="K86" s="215"/>
-      <c r="L86" s="216"/>
-      <c r="M86" s="220"/>
-      <c r="N86" s="173"/>
+      <c r="B86" s="184"/>
+      <c r="C86" s="185"/>
+      <c r="D86" s="186"/>
+      <c r="E86" s="44"/>
+      <c r="I86" s="181"/>
+      <c r="J86" s="181"/>
+      <c r="K86" s="182"/>
+      <c r="L86" s="183"/>
+      <c r="M86" s="187"/>
+      <c r="N86" s="155"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="217"/>
-      <c r="C87" s="221"/>
-      <c r="E87" s="56"/>
-      <c r="M87" s="220"/>
-      <c r="N87" s="173"/>
+      <c r="B87" s="184"/>
+      <c r="C87" s="188"/>
+      <c r="E87" s="44"/>
+      <c r="M87" s="187"/>
+      <c r="N87" s="155"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="217"/>
-      <c r="C88" s="221"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="222"/>
-      <c r="L88" s="223"/>
-      <c r="M88" s="2"/>
+      <c r="B88" s="184"/>
+      <c r="C88" s="188"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="189"/>
+      <c r="L88" s="190"/>
+      <c r="M88" s="1"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="217"/>
-      <c r="C89" s="221"/>
-      <c r="E89" s="56"/>
-      <c r="M89" s="2"/>
+      <c r="B89" s="184"/>
+      <c r="C89" s="188"/>
+      <c r="E89" s="44"/>
+      <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="217"/>
-      <c r="C90" s="221"/>
-      <c r="D90" s="224"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="225"/>
-      <c r="M90" s="2"/>
+      <c r="B90" s="184"/>
+      <c r="C90" s="188"/>
+      <c r="D90" s="191"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="192"/>
+      <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D91" s="224"/>
-      <c r="E91" s="226"/>
-      <c r="F91" s="56"/>
-      <c r="M91" s="2"/>
+      <c r="D91" s="191"/>
+      <c r="E91" s="193"/>
+      <c r="F91" s="44"/>
+      <c r="M91" s="1"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D92" s="224"/>
-      <c r="E92" s="226"/>
-      <c r="F92" s="56"/>
-      <c r="M92" s="2"/>
+      <c r="D92" s="191"/>
+      <c r="E92" s="193"/>
+      <c r="F92" s="44"/>
+      <c r="M92" s="1"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D93" s="224"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="56"/>
-      <c r="M93" s="2"/>
+      <c r="D93" s="191"/>
+      <c r="E93" s="193"/>
+      <c r="F93" s="44"/>
+      <c r="M93" s="1"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D94" s="224"/>
-      <c r="E94" s="226"/>
-      <c r="F94" s="56"/>
-      <c r="M94" s="2"/>
+      <c r="D94" s="191"/>
+      <c r="E94" s="193"/>
+      <c r="F94" s="44"/>
+      <c r="M94" s="1"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D95" s="224"/>
-      <c r="E95" s="226"/>
-      <c r="F95" s="56"/>
-      <c r="M95" s="2"/>
+      <c r="D95" s="191"/>
+      <c r="E95" s="193"/>
+      <c r="F95" s="44"/>
+      <c r="M95" s="1"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D96" s="224"/>
-      <c r="E96" s="226"/>
-      <c r="F96" s="56"/>
-      <c r="M96" s="2"/>
+      <c r="D96" s="191"/>
+      <c r="E96" s="193"/>
+      <c r="F96" s="44"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D97" s="224"/>
-      <c r="E97" s="226"/>
-      <c r="F97" s="56"/>
-      <c r="M97" s="2"/>
+      <c r="D97" s="191"/>
+      <c r="E97" s="193"/>
+      <c r="F97" s="44"/>
+      <c r="M97" s="1"/>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D98" s="224"/>
-      <c r="E98" s="226"/>
-      <c r="F98" s="56"/>
-      <c r="M98" s="2"/>
+      <c r="D98" s="191"/>
+      <c r="E98" s="193"/>
+      <c r="F98" s="44"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D99" s="224"/>
-      <c r="E99" s="226"/>
-      <c r="F99" s="56"/>
-      <c r="M99" s="2"/>
+      <c r="D99" s="191"/>
+      <c r="E99" s="193"/>
+      <c r="F99" s="44"/>
+      <c r="M99" s="1"/>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D100" s="224"/>
-      <c r="E100" s="226"/>
-      <c r="F100" s="56"/>
-      <c r="M100" s="2"/>
+      <c r="D100" s="191"/>
+      <c r="E100" s="193"/>
+      <c r="F100" s="44"/>
+      <c r="M100" s="1"/>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D101" s="224"/>
-      <c r="E101" s="226"/>
-      <c r="F101" s="56"/>
-      <c r="M101" s="2"/>
+      <c r="D101" s="191"/>
+      <c r="E101" s="193"/>
+      <c r="F101" s="44"/>
+      <c r="M101" s="1"/>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D102" s="224"/>
-      <c r="E102" s="226"/>
-      <c r="F102" s="56"/>
+      <c r="D102" s="191"/>
+      <c r="E102" s="193"/>
+      <c r="F102" s="44"/>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D103" s="224"/>
-      <c r="E103" s="227"/>
-      <c r="F103" s="225"/>
+      <c r="D103" s="191"/>
+      <c r="E103" s="194"/>
+      <c r="F103" s="192"/>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D104" s="224"/>
-      <c r="E104" s="227"/>
-      <c r="F104" s="225"/>
+      <c r="D104" s="191"/>
+      <c r="E104" s="194"/>
+      <c r="F104" s="192"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D105" s="224"/>
-      <c r="E105" s="227"/>
-      <c r="F105" s="225"/>
+      <c r="D105" s="191"/>
+      <c r="E105" s="194"/>
+      <c r="F105" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="I79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K81:L81"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5158,13 +5604,2205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="261" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="286" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="277" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="155" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="274" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="277" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="197" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="202" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="203"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="206" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="208" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="209" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="210" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="212" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="213" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="214" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="215" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="216" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="215" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="218">
+        <v>44924</v>
+      </c>
+      <c r="C3" s="219" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="220">
+        <v>8208</v>
+      </c>
+      <c r="E3" s="221"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="222">
+        <f>D3-F3</f>
+        <v>8208</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="225">
+        <v>44925</v>
+      </c>
+      <c r="C4" s="226" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="104">
+        <v>14274</v>
+      </c>
+      <c r="E4" s="227"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="228">
+        <f t="shared" ref="G4:G65" si="0">D4-F4</f>
+        <v>14274</v>
+      </c>
+      <c r="H4" s="229"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="230">
+        <f>N3+K4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="225">
+        <v>44926</v>
+      </c>
+      <c r="C5" s="226" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="104">
+        <v>53412.4</v>
+      </c>
+      <c r="E5" s="227"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="228">
+        <f t="shared" si="0"/>
+        <v>53412.4</v>
+      </c>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="230">
+        <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="225">
+        <v>44928</v>
+      </c>
+      <c r="C6" s="226" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="104">
+        <v>53055.3</v>
+      </c>
+      <c r="E6" s="227"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="228">
+        <f t="shared" si="0"/>
+        <v>53055.3</v>
+      </c>
+      <c r="I6" s="238"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="225">
+        <v>44929</v>
+      </c>
+      <c r="C7" s="226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="104">
+        <v>46137.599999999999</v>
+      </c>
+      <c r="E7" s="227"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="228">
+        <f t="shared" si="0"/>
+        <v>46137.599999999999</v>
+      </c>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="225">
+        <v>44929</v>
+      </c>
+      <c r="C8" s="226" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="104">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="227"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="228">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="225">
+        <v>44931</v>
+      </c>
+      <c r="C9" s="226" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="104">
+        <v>76020.600000000006</v>
+      </c>
+      <c r="E9" s="227"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="228">
+        <f t="shared" si="0"/>
+        <v>76020.600000000006</v>
+      </c>
+      <c r="I9" s="283"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="225">
+        <v>44931</v>
+      </c>
+      <c r="C10" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="104">
+        <v>13312</v>
+      </c>
+      <c r="E10" s="227"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="228">
+        <f t="shared" si="0"/>
+        <v>13312</v>
+      </c>
+      <c r="H10" s="229"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="225">
+        <v>44932</v>
+      </c>
+      <c r="C11" s="226" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="104">
+        <v>73262.490000000005</v>
+      </c>
+      <c r="E11" s="227"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="228">
+        <f t="shared" si="0"/>
+        <v>73262.490000000005</v>
+      </c>
+      <c r="I11" s="283"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="225">
+        <v>44933</v>
+      </c>
+      <c r="C12" s="226" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="104">
+        <v>16756.8</v>
+      </c>
+      <c r="E12" s="227"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="228">
+        <f t="shared" si="0"/>
+        <v>16756.8</v>
+      </c>
+      <c r="I12" s="283"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="225">
+        <v>44933</v>
+      </c>
+      <c r="C13" s="226" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="104">
+        <v>4893</v>
+      </c>
+      <c r="E13" s="227"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="228">
+        <f t="shared" si="0"/>
+        <v>4893</v>
+      </c>
+      <c r="I13" s="283"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="225">
+        <v>44933</v>
+      </c>
+      <c r="C14" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="104">
+        <v>10042.200000000001</v>
+      </c>
+      <c r="E14" s="227"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="228">
+        <f t="shared" si="0"/>
+        <v>10042.200000000001</v>
+      </c>
+      <c r="I14" s="283"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="225">
+        <v>44935</v>
+      </c>
+      <c r="C15" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="104">
+        <v>79966.960000000006</v>
+      </c>
+      <c r="E15" s="227"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="228">
+        <f t="shared" si="0"/>
+        <v>79966.960000000006</v>
+      </c>
+      <c r="I15" s="283"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="221"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="225">
+        <v>44936</v>
+      </c>
+      <c r="C16" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="104">
+        <v>77309.399999999994</v>
+      </c>
+      <c r="E16" s="227"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="228">
+        <f t="shared" si="0"/>
+        <v>77309.399999999994</v>
+      </c>
+      <c r="I16" s="283"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="221"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="225">
+        <v>44936</v>
+      </c>
+      <c r="C17" s="226" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="104">
+        <v>5629.6</v>
+      </c>
+      <c r="E17" s="227"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="228">
+        <f t="shared" si="0"/>
+        <v>5629.6</v>
+      </c>
+      <c r="I17" s="283"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="221"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="225">
+        <v>44937</v>
+      </c>
+      <c r="C18" s="226" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="104">
+        <v>135787.84</v>
+      </c>
+      <c r="E18" s="227"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="228">
+        <f t="shared" si="0"/>
+        <v>135787.84</v>
+      </c>
+      <c r="I18" s="283"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="225">
+        <v>44938</v>
+      </c>
+      <c r="C19" s="226" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="104">
+        <v>19678.25</v>
+      </c>
+      <c r="E19" s="227"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="228">
+        <f t="shared" si="0"/>
+        <v>19678.25</v>
+      </c>
+      <c r="I19" s="283"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="225">
+        <v>44939</v>
+      </c>
+      <c r="C20" s="226" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="104">
+        <v>53428.12</v>
+      </c>
+      <c r="E20" s="227"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="228">
+        <f t="shared" si="0"/>
+        <v>53428.12</v>
+      </c>
+      <c r="I20" s="283"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="221"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="225">
+        <v>44940</v>
+      </c>
+      <c r="C21" s="226" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="104">
+        <v>58795.82</v>
+      </c>
+      <c r="E21" s="227"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="228">
+        <f t="shared" si="0"/>
+        <v>58795.82</v>
+      </c>
+      <c r="I21" s="283"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="240"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="225">
+        <v>44940</v>
+      </c>
+      <c r="C22" s="226" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="104">
+        <v>5615.8</v>
+      </c>
+      <c r="E22" s="227"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="228">
+        <f t="shared" si="0"/>
+        <v>5615.8</v>
+      </c>
+      <c r="H22" s="235"/>
+      <c r="I22" s="283"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="225">
+        <v>44940</v>
+      </c>
+      <c r="C23" s="226" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="104">
+        <v>6690</v>
+      </c>
+      <c r="E23" s="227"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="228">
+        <f t="shared" si="0"/>
+        <v>6690</v>
+      </c>
+      <c r="H23" s="236"/>
+      <c r="I23" s="283"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="240"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="225">
+        <v>44942</v>
+      </c>
+      <c r="C24" s="226" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="104">
+        <v>22678.6</v>
+      </c>
+      <c r="E24" s="227"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="228">
+        <f t="shared" si="0"/>
+        <v>22678.6</v>
+      </c>
+      <c r="H24" s="236"/>
+      <c r="I24" s="283"/>
+      <c r="J24" s="288"/>
+      <c r="K24" s="240"/>
+      <c r="L24" s="227"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="225">
+        <v>44943</v>
+      </c>
+      <c r="C25" s="226" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="104">
+        <v>3581.3</v>
+      </c>
+      <c r="E25" s="227"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="228">
+        <f t="shared" si="0"/>
+        <v>3581.3</v>
+      </c>
+      <c r="H25" s="237"/>
+      <c r="I25" s="283"/>
+      <c r="J25" s="288"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="227"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="225">
+        <v>44944</v>
+      </c>
+      <c r="C26" s="226" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="104">
+        <v>102999.4</v>
+      </c>
+      <c r="E26" s="227"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="228">
+        <f t="shared" si="0"/>
+        <v>102999.4</v>
+      </c>
+      <c r="H26" s="237"/>
+      <c r="I26" s="283"/>
+      <c r="J26" s="288"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="225">
+        <v>44945</v>
+      </c>
+      <c r="C27" s="226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="104">
+        <v>64760.18</v>
+      </c>
+      <c r="E27" s="227"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="228">
+        <f t="shared" si="0"/>
+        <v>64760.18</v>
+      </c>
+      <c r="H27" s="237"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="227"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="225">
+        <v>44946</v>
+      </c>
+      <c r="C28" s="226" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="104">
+        <v>59473.8</v>
+      </c>
+      <c r="E28" s="227"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="228">
+        <f t="shared" si="0"/>
+        <v>59473.8</v>
+      </c>
+      <c r="H28" s="237"/>
+      <c r="I28" s="283"/>
+      <c r="J28" s="288"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="225">
+        <v>44947</v>
+      </c>
+      <c r="C29" s="226" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="104">
+        <v>110210.4</v>
+      </c>
+      <c r="E29" s="227"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="228">
+        <f t="shared" si="0"/>
+        <v>110210.4</v>
+      </c>
+      <c r="H29" s="237"/>
+      <c r="I29" s="283"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="227"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="225">
+        <v>44947</v>
+      </c>
+      <c r="C30" s="226" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="104">
+        <v>40856.28</v>
+      </c>
+      <c r="E30" s="227"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="228">
+        <f t="shared" si="0"/>
+        <v>40856.28</v>
+      </c>
+      <c r="H30" s="237"/>
+      <c r="I30" s="283"/>
+      <c r="J30" s="288"/>
+      <c r="K30" s="240"/>
+      <c r="L30" s="227"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="225">
+        <v>44949</v>
+      </c>
+      <c r="C31" s="226" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="104">
+        <v>109016.94</v>
+      </c>
+      <c r="E31" s="227"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="228">
+        <f t="shared" si="0"/>
+        <v>109016.94</v>
+      </c>
+      <c r="H31" s="236"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="227"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="225">
+        <v>44949</v>
+      </c>
+      <c r="C32" s="226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="104">
+        <v>40107.599999999999</v>
+      </c>
+      <c r="E32" s="227"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="228">
+        <f t="shared" si="0"/>
+        <v>40107.599999999999</v>
+      </c>
+      <c r="H32" s="236"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="227"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="225">
+        <v>44950</v>
+      </c>
+      <c r="C33" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="104">
+        <v>20728.580000000002</v>
+      </c>
+      <c r="E33" s="227"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="228">
+        <f t="shared" si="0"/>
+        <v>20728.580000000002</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="227"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="225">
+        <v>44951</v>
+      </c>
+      <c r="C34" s="226" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="104">
+        <v>87951</v>
+      </c>
+      <c r="E34" s="227"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="228">
+        <f t="shared" si="0"/>
+        <v>87951</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="225">
+        <v>44952</v>
+      </c>
+      <c r="C35" s="226" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="104">
+        <v>8081.8</v>
+      </c>
+      <c r="E35" s="227"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="228">
+        <f t="shared" si="0"/>
+        <v>8081.8</v>
+      </c>
+      <c r="I35" s="238"/>
+      <c r="J35" s="239"/>
+      <c r="K35" s="240"/>
+      <c r="L35" s="227"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="225">
+        <v>44953</v>
+      </c>
+      <c r="C36" s="226" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="104">
+        <v>14253.22</v>
+      </c>
+      <c r="E36" s="227"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="228">
+        <f t="shared" si="0"/>
+        <v>14253.22</v>
+      </c>
+      <c r="I36" s="325"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="327"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="225">
+        <v>44954</v>
+      </c>
+      <c r="C37" s="226" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="104">
+        <v>9786.4</v>
+      </c>
+      <c r="E37" s="227"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="228">
+        <f t="shared" si="0"/>
+        <v>9786.4</v>
+      </c>
+      <c r="I37" s="325"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="327"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="227"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="233"/>
+      <c r="L38" s="227"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="225"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="241"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="242"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="241"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="225"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="241"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="328" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="329"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="241"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="244"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="246"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="330"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="241"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="244"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="246"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="332"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="247"/>
+      <c r="C43" s="248"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="242"/>
+      <c r="J43" s="243"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="249"/>
+      <c r="C44" s="248"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="242"/>
+      <c r="J44" s="243"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="249"/>
+      <c r="C45" s="248"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="241"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="242"/>
+      <c r="J45" s="243"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="250"/>
+      <c r="C46" s="251"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="241"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="242"/>
+      <c r="J46" s="243"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="242"/>
+      <c r="C47" s="251"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="242"/>
+      <c r="J47" s="243"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="241"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="242"/>
+      <c r="C48" s="251"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="241"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="242"/>
+      <c r="J48" s="243"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="242"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="242"/>
+      <c r="J49" s="243"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="241"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="242"/>
+      <c r="C50" s="243"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="253"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="254"/>
+      <c r="J50" s="255"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="242"/>
+      <c r="C51" s="243"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="253"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="254"/>
+      <c r="J51" s="255"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="242"/>
+      <c r="C52" s="243"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="253"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="254"/>
+      <c r="J52" s="255"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="242"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="253"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="254"/>
+      <c r="J53" s="255"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="242"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="253"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="254"/>
+      <c r="J54" s="255"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="254"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="254"/>
+      <c r="J55" s="255"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="242"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="253"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="242"/>
+      <c r="J56" s="243"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="253"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="242"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="253"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="242"/>
+      <c r="J57" s="243"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="253"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="242"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="242"/>
+      <c r="J58" s="243"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="253"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="242"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="242"/>
+      <c r="J59" s="243"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="253"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="242"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="242"/>
+      <c r="J60" s="243"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="253"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="242"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="242"/>
+      <c r="J61" s="243"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="253"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="242"/>
+      <c r="C62" s="243"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="242"/>
+      <c r="J62" s="243"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="87"/>
+      <c r="N62" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="242"/>
+      <c r="C63" s="243"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="242"/>
+      <c r="J63" s="243"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="253"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="242"/>
+      <c r="C64" s="243"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="253"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="242"/>
+      <c r="J64" s="243"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="253"/>
+      <c r="M64" s="87"/>
+      <c r="N64" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="242"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="253"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="242"/>
+      <c r="J65" s="243"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="253"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="230">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="256"/>
+      <c r="C66" s="257"/>
+      <c r="D66" s="44">
+        <v>0</v>
+      </c>
+      <c r="E66" s="258"/>
+      <c r="F66" s="259"/>
+      <c r="G66" s="230">
+        <v>0</v>
+      </c>
+      <c r="I66" s="256"/>
+      <c r="J66" s="260"/>
+      <c r="K66" s="259">
+        <v>0</v>
+      </c>
+      <c r="L66" s="258"/>
+      <c r="M66" s="259"/>
+      <c r="N66" s="230"/>
+    </row>
+    <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="262"/>
+      <c r="D67" s="263">
+        <f>SUM(D3:D66)</f>
+        <v>1513561.68</v>
+      </c>
+      <c r="E67" s="264"/>
+      <c r="F67" s="265">
+        <f>SUM(F3:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="266">
+        <f>SUM(G3:G66)</f>
+        <v>1513561.68</v>
+      </c>
+      <c r="I67" s="334" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="335"/>
+      <c r="K67" s="267">
+        <f>SUM(K3:K66)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="268"/>
+      <c r="M67" s="269">
+        <f>SUM(M3:M66)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="266">
+        <f>N66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="270"/>
+      <c r="D68" s="271"/>
+      <c r="E68" s="272"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="338" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="336"/>
+      <c r="J68" s="337"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="272"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="273"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="272"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="339"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="272"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="275"/>
+      <c r="C70" s="276"/>
+      <c r="D70" s="111"/>
+      <c r="F70"/>
+      <c r="J70" s="278"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="275"/>
+      <c r="C71" s="276"/>
+      <c r="D71" s="111"/>
+      <c r="F71"/>
+      <c r="H71" s="236"/>
+      <c r="I71" s="279"/>
+      <c r="J71" s="280"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="281"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="278"/>
+      <c r="E72" s="282"/>
+      <c r="F72"/>
+      <c r="H72" s="236"/>
+      <c r="I72" s="283"/>
+      <c r="J72" s="284"/>
+      <c r="K72" s="285"/>
+      <c r="L72" s="285"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="278"/>
+      <c r="E73" s="282"/>
+      <c r="F73"/>
+      <c r="H73" s="236"/>
+      <c r="I73" s="283"/>
+      <c r="J73" s="284"/>
+      <c r="K73" s="285"/>
+      <c r="L73" s="285"/>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="278"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="282"/>
+      <c r="F74"/>
+      <c r="H74" s="236"/>
+      <c r="I74" s="283"/>
+      <c r="J74" s="284"/>
+      <c r="K74" s="285"/>
+      <c r="L74" s="285"/>
+      <c r="M74"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="278"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="282"/>
+      <c r="H75" s="236"/>
+      <c r="I75" s="236"/>
+      <c r="J75" s="236"/>
+      <c r="K75" s="236"/>
+      <c r="L75" s="281"/>
+      <c r="M75"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="278"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="282"/>
+      <c r="H76" s="236"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="236"/>
+      <c r="K76" s="236"/>
+      <c r="L76" s="281"/>
+      <c r="M76"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="278"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="282"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="278"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="282"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C79" s="278"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="282"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="278"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="282"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C81" s="274"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="282"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="274"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="282"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="274"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="282"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C84" s="274"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="282"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="274"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="282"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="274"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="282"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="274"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="282"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="274"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="282"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C89" s="274"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="282"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="274"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="282"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="274"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="282"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="274"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="282"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="274"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="282"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C94" s="274"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="282"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C95" s="274"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="282"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="274"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="282"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="274"/>
+      <c r="D97" s="192"/>
+      <c r="E97" s="282"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="274"/>
+      <c r="D98" s="192"/>
+      <c r="E98" s="282"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="274"/>
+      <c r="D99" s="192"/>
+      <c r="E99" s="282"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100" s="274"/>
+      <c r="D100" s="192"/>
+      <c r="E100" s="282"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101" s="274"/>
+      <c r="D101" s="192"/>
+      <c r="E101" s="282"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="274"/>
+      <c r="E102" s="282"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="274"/>
+      <c r="E103" s="282"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="274"/>
+      <c r="E104" s="282"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="274"/>
+      <c r="E105" s="282"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C106" s="274"/>
+      <c r="E106" s="282"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C107" s="274"/>
+      <c r="E107" s="282"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C108" s="274"/>
+      <c r="E108" s="282"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C109" s="274"/>
+      <c r="E109" s="282"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C110" s="274"/>
+      <c r="E110" s="282"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C111" s="274"/>
+      <c r="E111" s="282"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="274"/>
+      <c r="E112" s="282"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="274"/>
+      <c r="E113" s="282"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114" s="274"/>
+      <c r="E114" s="282"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C115" s="274"/>
+      <c r="E115" s="282"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C116" s="274"/>
+      <c r="E116" s="282"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="274"/>
+      <c r="E117" s="282"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="274"/>
+      <c r="E118" s="282"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="274"/>
+      <c r="E119" s="282"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="274"/>
+      <c r="E120" s="282"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="274"/>
+      <c r="E121" s="282"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C122" s="274"/>
+      <c r="E122" s="282"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C123" s="274"/>
+      <c r="E123" s="282"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I36:L37"/>
+    <mergeCell ref="I40:J42"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="G68:G69"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
@@ -2380,6 +2380,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2410,83 +2482,11 @@
     <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3326,23 +3326,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="307"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -3352,24 +3352,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="311"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="312"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="323" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="313" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3384,14 +3384,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="291" t="s">
+      <c r="E4" s="315" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="292"/>
-      <c r="H4" s="293" t="s">
+      <c r="F4" s="316"/>
+      <c r="H4" s="317" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="294"/>
+      <c r="I4" s="318"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -3401,11 +3401,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="324"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="290"/>
+      <c r="R4" s="314"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -4790,11 +4790,11 @@
       <c r="J49" s="76"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="317">
+      <c r="M49" s="294">
         <f>SUM(M5:M40)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="317">
+      <c r="N49" s="294">
         <f>SUM(N5:N40)</f>
         <v>0</v>
       </c>
@@ -4802,7 +4802,7 @@
         <f>SUM(P5:P40)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="295">
+      <c r="Q49" s="319">
         <f>SUM(Q5:Q40)</f>
         <v>0</v>
       </c>
@@ -4823,10 +4823,10 @@
       <c r="J50" s="90"/>
       <c r="K50" s="91"/>
       <c r="L50" s="92"/>
-      <c r="M50" s="318"/>
-      <c r="N50" s="318"/>
+      <c r="M50" s="295"/>
+      <c r="N50" s="295"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="296"/>
+      <c r="Q50" s="320"/>
       <c r="R50" s="115">
         <f>SUM(R5:R49)</f>
         <v>0</v>
@@ -4881,11 +4881,11 @@
       <c r="J53" s="76"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="297">
+      <c r="M53" s="321">
         <f>M49+N49</f>
         <v>0</v>
       </c>
-      <c r="N53" s="298"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -5310,26 +5310,26 @@
       <c r="A77" s="155"/>
       <c r="B77" s="156"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="299" t="s">
+      <c r="H77" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="300"/>
+      <c r="I77" s="303"/>
       <c r="J77" s="157"/>
-      <c r="K77" s="301">
+      <c r="K77" s="304">
         <f>I75+L75</f>
         <v>0</v>
       </c>
-      <c r="L77" s="302"/>
+      <c r="L77" s="305"/>
       <c r="M77" s="158"/>
       <c r="N77" s="158"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="319" t="s">
+      <c r="D78" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="319"/>
+      <c r="E78" s="296"/>
       <c r="F78" s="159">
         <f>F75-K77-C75</f>
         <v>0</v>
@@ -5338,22 +5338,22 @@
       <c r="J78" s="161"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="320" t="s">
+      <c r="D79" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="320"/>
+      <c r="E79" s="297"/>
       <c r="F79" s="104">
         <v>0</v>
       </c>
-      <c r="I79" s="321" t="s">
+      <c r="I79" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="322"/>
-      <c r="K79" s="323">
+      <c r="J79" s="299"/>
+      <c r="K79" s="300">
         <f>F81+F82+F83</f>
         <v>0</v>
       </c>
-      <c r="L79" s="323"/>
+      <c r="L79" s="300"/>
       <c r="M79" s="162"/>
       <c r="N79" s="162"/>
       <c r="O79" s="163"/>
@@ -5394,11 +5394,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="173"/>
-      <c r="K81" s="324">
+      <c r="K81" s="301">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="323"/>
+      <c r="L81" s="300"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="174" t="s">
@@ -5413,22 +5413,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="175"/>
-      <c r="D83" s="312" t="s">
+      <c r="D83" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="313"/>
+      <c r="E83" s="290"/>
       <c r="F83" s="176">
         <v>0</v>
       </c>
-      <c r="I83" s="314" t="s">
+      <c r="I83" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="315"/>
-      <c r="K83" s="316">
+      <c r="J83" s="292"/>
+      <c r="K83" s="293">
         <f>K79+K81</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L83" s="316"/>
+      <c r="L83" s="293"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="177"/>
@@ -5572,6 +5572,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -5584,16 +5594,6 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5609,7 +5609,7 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>24827 D</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO--CHORIZO-SALCHICHA</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2380,6 +2386,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2431,63 +2494,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2532,6 +2538,9 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3299,8 +3308,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3326,23 +3335,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="306"/>
-      <c r="C1" s="308" t="s">
+      <c r="B1" s="295"/>
+      <c r="C1" s="297" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="307"/>
+      <c r="B2" s="296"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -3352,24 +3361,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="310" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="311"/>
+      <c r="B3" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="300"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="312"/>
+      <c r="I3" s="301"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="323" t="s">
+      <c r="P3" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="313" t="s">
+      <c r="R3" s="302" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3384,14 +3393,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="315" t="s">
+      <c r="E4" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="316"/>
-      <c r="H4" s="317" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="318"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -3401,71 +3410,99 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="324"/>
+      <c r="P4" s="294"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="314"/>
+      <c r="R4" s="303"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="32">
+        <v>44935</v>
+      </c>
+      <c r="C5" s="33">
+        <v>11218</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="35">
+        <v>44935</v>
+      </c>
+      <c r="F5" s="36">
+        <v>127608</v>
+      </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="38">
+        <v>44935</v>
+      </c>
+      <c r="I5" s="39">
+        <v>2928</v>
+      </c>
       <c r="J5" s="40"/>
       <c r="K5" s="41"/>
       <c r="L5" s="13"/>
       <c r="M5" s="42">
-        <v>0</v>
+        <f>13000+79666+7446+12582</f>
+        <v>112694</v>
       </c>
       <c r="N5" s="43">
-        <v>0</v>
+        <v>31942</v>
       </c>
       <c r="P5" s="44">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>158782</v>
       </c>
       <c r="Q5" s="45">
-        <f>P5-F5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="340">
+        <v>31174</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="32">
+        <v>44936</v>
+      </c>
+      <c r="C6" s="33">
+        <v>22768</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="35">
+        <v>44936</v>
+      </c>
+      <c r="F6" s="36">
+        <v>111443</v>
+      </c>
       <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="38">
+        <v>44936</v>
+      </c>
+      <c r="I6" s="39">
+        <v>1614</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="48"/>
       <c r="L6" s="49"/>
       <c r="M6" s="42">
-        <v>0</v>
+        <v>34020</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>53042</v>
       </c>
       <c r="P6" s="49">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>111444</v>
       </c>
       <c r="Q6" s="45">
         <f t="shared" ref="Q6:Q47" si="0">P6-F6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="46">
         <v>0</v>
@@ -3473,13 +3510,19 @@
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32">
+        <v>44937</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="35"/>
+      <c r="E7" s="35">
+        <v>44937</v>
+      </c>
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="38">
+        <v>44937</v>
+      </c>
       <c r="I7" s="39"/>
       <c r="J7" s="40"/>
       <c r="K7" s="48"/>
@@ -3504,13 +3547,19 @@
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32">
+        <v>44938</v>
+      </c>
       <c r="C8" s="33"/>
       <c r="D8" s="51"/>
-      <c r="E8" s="35"/>
+      <c r="E8" s="35">
+        <v>44938</v>
+      </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="38">
+        <v>44938</v>
+      </c>
       <c r="I8" s="39"/>
       <c r="J8" s="52"/>
       <c r="K8" s="48"/>
@@ -3535,13 +3584,19 @@
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="32">
+        <v>44939</v>
+      </c>
       <c r="C9" s="33"/>
       <c r="D9" s="51"/>
-      <c r="E9" s="35"/>
+      <c r="E9" s="35">
+        <v>44939</v>
+      </c>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="38">
+        <v>44939</v>
+      </c>
       <c r="I9" s="39"/>
       <c r="J9" s="40"/>
       <c r="K9" s="53"/>
@@ -3566,13 +3621,19 @@
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32">
+        <v>44940</v>
+      </c>
       <c r="C10" s="33"/>
       <c r="D10" s="50"/>
-      <c r="E10" s="35"/>
+      <c r="E10" s="35">
+        <v>44940</v>
+      </c>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="38">
+        <v>44940</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
@@ -3597,13 +3658,19 @@
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32">
+        <v>44941</v>
+      </c>
       <c r="C11" s="33"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="35"/>
+      <c r="E11" s="35">
+        <v>44941</v>
+      </c>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="38">
+        <v>44941</v>
+      </c>
       <c r="I11" s="39"/>
       <c r="J11" s="52"/>
       <c r="K11" s="56"/>
@@ -3628,13 +3695,19 @@
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="32">
+        <v>44942</v>
+      </c>
       <c r="C12" s="33"/>
       <c r="D12" s="47"/>
-      <c r="E12" s="35"/>
+      <c r="E12" s="35">
+        <v>44942</v>
+      </c>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="38">
+        <v>44942</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
       <c r="K12" s="57"/>
@@ -3660,13 +3733,19 @@
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32">
+        <v>44943</v>
+      </c>
       <c r="C13" s="33"/>
       <c r="D13" s="51"/>
-      <c r="E13" s="35"/>
+      <c r="E13" s="35">
+        <v>44943</v>
+      </c>
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38">
+        <v>44943</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
       <c r="K13" s="126"/>
@@ -3692,13 +3771,19 @@
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="32">
+        <v>44944</v>
+      </c>
       <c r="C14" s="33"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="35"/>
+      <c r="E14" s="35">
+        <v>44944</v>
+      </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="38">
+        <v>44944</v>
+      </c>
       <c r="I14" s="39"/>
       <c r="J14" s="40"/>
       <c r="K14" s="48"/>
@@ -3724,13 +3809,19 @@
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="32">
+        <v>44945</v>
+      </c>
       <c r="C15" s="33"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="35"/>
+      <c r="E15" s="35">
+        <v>44945</v>
+      </c>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="38">
+        <v>44945</v>
+      </c>
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="48"/>
@@ -3755,13 +3846,19 @@
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32">
+        <v>44946</v>
+      </c>
       <c r="C16" s="33"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="35"/>
+      <c r="E16" s="35">
+        <v>44946</v>
+      </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="38">
+        <v>44946</v>
+      </c>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
       <c r="K16" s="57"/>
@@ -3786,13 +3883,19 @@
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32">
+        <v>44947</v>
+      </c>
       <c r="C17" s="33"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="35"/>
+      <c r="E17" s="35">
+        <v>44947</v>
+      </c>
       <c r="F17" s="36"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="38">
+        <v>44947</v>
+      </c>
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
       <c r="K17" s="48"/>
@@ -3817,13 +3920,19 @@
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32">
+        <v>44948</v>
+      </c>
       <c r="C18" s="33"/>
       <c r="D18" s="47"/>
-      <c r="E18" s="35"/>
+      <c r="E18" s="35">
+        <v>44948</v>
+      </c>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="38">
+        <v>44948</v>
+      </c>
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
@@ -3848,13 +3957,19 @@
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32">
+        <v>44949</v>
+      </c>
       <c r="C19" s="33"/>
       <c r="D19" s="47"/>
-      <c r="E19" s="35"/>
+      <c r="E19" s="35">
+        <v>44949</v>
+      </c>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="38">
+        <v>44949</v>
+      </c>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
       <c r="K19" s="59"/>
@@ -3879,13 +3994,19 @@
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="32">
+        <v>44950</v>
+      </c>
       <c r="C20" s="33"/>
       <c r="D20" s="47"/>
-      <c r="E20" s="35"/>
+      <c r="E20" s="35">
+        <v>44950</v>
+      </c>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="38">
+        <v>44950</v>
+      </c>
       <c r="I20" s="39"/>
       <c r="J20" s="40"/>
       <c r="K20" s="61"/>
@@ -3910,13 +4031,19 @@
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="32">
+        <v>44951</v>
+      </c>
       <c r="C21" s="33"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="35"/>
+      <c r="E21" s="35">
+        <v>44951</v>
+      </c>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="38">
+        <v>44951</v>
+      </c>
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
       <c r="K21" s="62"/>
@@ -3941,13 +4068,19 @@
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32">
+        <v>44952</v>
+      </c>
       <c r="C22" s="33"/>
       <c r="D22" s="47"/>
-      <c r="E22" s="35"/>
+      <c r="E22" s="35">
+        <v>44952</v>
+      </c>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="38">
+        <v>44952</v>
+      </c>
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
       <c r="K22" s="63"/>
@@ -3973,13 +4106,19 @@
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32">
+        <v>44953</v>
+      </c>
       <c r="C23" s="33"/>
       <c r="D23" s="47"/>
-      <c r="E23" s="35"/>
+      <c r="E23" s="35">
+        <v>44953</v>
+      </c>
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="38">
+        <v>44953</v>
+      </c>
       <c r="I23" s="39"/>
       <c r="J23" s="66"/>
       <c r="K23" s="67"/>
@@ -4004,13 +4143,19 @@
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="32">
+        <v>44954</v>
+      </c>
       <c r="C24" s="33"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="35"/>
+      <c r="E24" s="35">
+        <v>44954</v>
+      </c>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="38">
+        <v>44954</v>
+      </c>
       <c r="I24" s="39"/>
       <c r="J24" s="68"/>
       <c r="K24" s="67"/>
@@ -4035,13 +4180,19 @@
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="32">
+        <v>44955</v>
+      </c>
       <c r="C25" s="33"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="35"/>
+      <c r="E25" s="35">
+        <v>44955</v>
+      </c>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="38">
+        <v>44955</v>
+      </c>
       <c r="I25" s="39"/>
       <c r="J25" s="66"/>
       <c r="K25" s="48"/>
@@ -4066,13 +4217,19 @@
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="32">
+        <v>44956</v>
+      </c>
       <c r="C26" s="33"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="35"/>
+      <c r="E26" s="35">
+        <v>44956</v>
+      </c>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="38">
+        <v>44956</v>
+      </c>
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
       <c r="K26" s="72"/>
@@ -4100,13 +4257,19 @@
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="B27" s="32">
+        <v>44957</v>
+      </c>
       <c r="C27" s="33"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="35"/>
+      <c r="E27" s="35">
+        <v>44957</v>
+      </c>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="H27" s="38">
+        <v>44957</v>
+      </c>
       <c r="I27" s="39"/>
       <c r="J27" s="74"/>
       <c r="K27" s="75"/>
@@ -4131,13 +4294,19 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="32">
+        <v>44958</v>
+      </c>
       <c r="C28" s="33"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="35"/>
+      <c r="E28" s="35">
+        <v>44958</v>
+      </c>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
+      <c r="H28" s="38">
+        <v>44958</v>
+      </c>
       <c r="I28" s="39"/>
       <c r="J28" s="76"/>
       <c r="K28" s="77"/>
@@ -4162,13 +4331,19 @@
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="B29" s="32">
+        <v>44959</v>
+      </c>
       <c r="C29" s="33"/>
       <c r="D29" s="78"/>
-      <c r="E29" s="35"/>
+      <c r="E29" s="35">
+        <v>44959</v>
+      </c>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="H29" s="38">
+        <v>44959</v>
+      </c>
       <c r="I29" s="39"/>
       <c r="J29" s="79"/>
       <c r="K29" s="80"/>
@@ -4193,13 +4368,19 @@
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="32">
+        <v>44960</v>
+      </c>
       <c r="C30" s="33"/>
       <c r="D30" s="78"/>
-      <c r="E30" s="35"/>
+      <c r="E30" s="35">
+        <v>44960</v>
+      </c>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
+      <c r="H30" s="38">
+        <v>44960</v>
+      </c>
       <c r="I30" s="39"/>
       <c r="J30" s="76"/>
       <c r="K30" s="48"/>
@@ -4224,13 +4405,19 @@
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="32">
+        <v>44961</v>
+      </c>
       <c r="C31" s="33"/>
       <c r="D31" s="81"/>
-      <c r="E31" s="35"/>
+      <c r="E31" s="35">
+        <v>44961</v>
+      </c>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="H31" s="38">
+        <v>44961</v>
+      </c>
       <c r="I31" s="39"/>
       <c r="J31" s="76"/>
       <c r="K31" s="82"/>
@@ -4255,13 +4442,19 @@
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="32">
+        <v>44962</v>
+      </c>
       <c r="C32" s="33"/>
       <c r="D32" s="83"/>
-      <c r="E32" s="35"/>
+      <c r="E32" s="35">
+        <v>44962</v>
+      </c>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="H32" s="38">
+        <v>44962</v>
+      </c>
       <c r="I32" s="39"/>
       <c r="J32" s="84"/>
       <c r="K32" s="48"/>
@@ -4790,21 +4983,21 @@
       <c r="J49" s="76"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="294">
+      <c r="M49" s="313">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="294">
+        <v>146714</v>
+      </c>
+      <c r="N49" s="313">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>84984</v>
       </c>
       <c r="P49" s="114">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="319">
+        <v>270226</v>
+      </c>
+      <c r="Q49" s="289">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -4823,13 +5016,13 @@
       <c r="J50" s="90"/>
       <c r="K50" s="91"/>
       <c r="L50" s="92"/>
-      <c r="M50" s="295"/>
-      <c r="N50" s="295"/>
+      <c r="M50" s="314"/>
+      <c r="N50" s="314"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="320"/>
+      <c r="Q50" s="290"/>
       <c r="R50" s="115">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>31174</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4881,11 +5074,11 @@
       <c r="J53" s="76"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="321">
+      <c r="M53" s="291">
         <f>M49+N49</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="322"/>
+        <v>231698</v>
+      </c>
+      <c r="N53" s="292"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -5268,7 +5461,7 @@
       </c>
       <c r="C75" s="144">
         <f>SUM(C5:C68)</f>
-        <v>0</v>
+        <v>33986</v>
       </c>
       <c r="D75" s="145"/>
       <c r="E75" s="146" t="s">
@@ -5276,7 +5469,7 @@
       </c>
       <c r="F75" s="147">
         <f>SUM(F5:F68)</f>
-        <v>0</v>
+        <v>239051</v>
       </c>
       <c r="G75" s="148"/>
       <c r="H75" s="146" t="s">
@@ -5284,7 +5477,7 @@
       </c>
       <c r="I75" s="149">
         <f>SUM(I5:I68)</f>
-        <v>0</v>
+        <v>4542</v>
       </c>
       <c r="J75" s="150"/>
       <c r="K75" s="151" t="s">
@@ -5310,50 +5503,50 @@
       <c r="A77" s="155"/>
       <c r="B77" s="156"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="302" t="s">
+      <c r="H77" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="303"/>
+      <c r="I77" s="322"/>
       <c r="J77" s="157"/>
-      <c r="K77" s="304">
+      <c r="K77" s="323">
         <f>I75+L75</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="305"/>
+        <v>4542</v>
+      </c>
+      <c r="L77" s="324"/>
       <c r="M77" s="158"/>
       <c r="N77" s="158"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="296" t="s">
+      <c r="D78" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="296"/>
+      <c r="E78" s="315"/>
       <c r="F78" s="159">
         <f>F75-K77-C75</f>
-        <v>0</v>
+        <v>200523</v>
       </c>
       <c r="I78" s="160"/>
       <c r="J78" s="161"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="297" t="s">
+      <c r="D79" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="297"/>
+      <c r="E79" s="316"/>
       <c r="F79" s="104">
         <v>0</v>
       </c>
-      <c r="I79" s="298" t="s">
+      <c r="I79" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="299"/>
-      <c r="K79" s="300">
+      <c r="J79" s="318"/>
+      <c r="K79" s="319">
         <f>F81+F82+F83</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="300"/>
+        <v>200523</v>
+      </c>
+      <c r="L79" s="319"/>
       <c r="M79" s="162"/>
       <c r="N79" s="162"/>
       <c r="O79" s="163"/>
@@ -5387,18 +5580,18 @@
       </c>
       <c r="F81" s="153">
         <f>SUM(F78:F80)</f>
-        <v>0</v>
+        <v>200523</v>
       </c>
       <c r="H81" s="171"/>
       <c r="I81" s="172" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="173"/>
-      <c r="K81" s="301">
+      <c r="K81" s="320">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="300"/>
+      <c r="L81" s="319"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="174" t="s">
@@ -5413,22 +5606,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="175"/>
-      <c r="D83" s="289" t="s">
+      <c r="D83" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="290"/>
+      <c r="E83" s="309"/>
       <c r="F83" s="176">
         <v>0</v>
       </c>
-      <c r="I83" s="291" t="s">
+      <c r="I83" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="292"/>
-      <c r="K83" s="293">
+      <c r="J83" s="311"/>
+      <c r="K83" s="312">
         <f>K79+K81</f>
-        <v>-3445405.07</v>
-      </c>
-      <c r="L83" s="293"/>
+        <v>-3244882.07</v>
+      </c>
+      <c r="L83" s="312"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="177"/>
@@ -5572,13 +5765,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -5594,6 +5780,13 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5609,7 +5802,7 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -321,6 +321,42 @@
   </si>
   <si>
     <t>QUESOS-POLLO--CHORIZO-SALCHICHA</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-MAIZ-LOMOS-JAMON-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>PASTOR-ARABE-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>QUESO-SALCHICHA</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-POLLO-PAPA-PASTOR-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 03 Y Vac</t>
+  </si>
+  <si>
+    <t>nomina # 3 y vac</t>
+  </si>
+  <si>
+    <t>SALAMI--PEPERONI-LONGANIZA-CHORIZO</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-PATE-CHISTORRA-POSTRES-POLLO-PASTOR</t>
+  </si>
+  <si>
+    <t>CHORIZO-QUESOS-POLLO-SALMON</t>
+  </si>
+  <si>
+    <t>TURNOS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>QUESOS-ARABE-PASTOR-POLLO</t>
   </si>
 </sst>
 </file>
@@ -2386,114 +2422,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2538,9 +2577,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3308,8 +3344,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3335,23 +3371,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="295"/>
-      <c r="C1" s="297" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="296"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -3361,24 +3397,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="300"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="301" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="301"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="293" t="s">
+      <c r="P3" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="302" t="s">
+      <c r="R3" s="301" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3393,14 +3429,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="304"/>
+      <c r="H4" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="306"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -3410,11 +3446,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="294"/>
+      <c r="P4" s="293"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="303"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -3459,7 +3495,7 @@
       <c r="Q5" s="45">
         <v>0</v>
       </c>
-      <c r="R5" s="340">
+      <c r="R5" s="289">
         <v>31174</v>
       </c>
     </row>
@@ -3513,36 +3549,44 @@
       <c r="B7" s="32">
         <v>44937</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="33">
+        <v>29284.5</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="35">
         <v>44937</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <v>117562</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>44937</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39">
+        <v>1688</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="48"/>
       <c r="L7" s="49"/>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>26415.5+15000+11881</f>
+        <v>53296.5</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>34321</v>
       </c>
       <c r="P7" s="49">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>118590</v>
       </c>
       <c r="Q7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="289">
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3550,29 +3594,37 @@
       <c r="B8" s="32">
         <v>44938</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="33">
+        <v>7310</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>77</v>
+      </c>
       <c r="E8" s="35">
         <v>44938</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>99136</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>44938</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>0</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="48"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <v>51713</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>40113</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>99136</v>
       </c>
       <c r="Q8" s="45">
         <f t="shared" si="0"/>
@@ -3587,36 +3639,43 @@
       <c r="B9" s="32">
         <v>44939</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>4244</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>78</v>
+      </c>
       <c r="E9" s="35">
         <v>44939</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>150671</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>44939</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="39">
+        <v>2984</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="53"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <v>105552</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>39928</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>152708</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="289">
+        <v>2037</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3624,33 +3683,49 @@
       <c r="B10" s="32">
         <v>44940</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>24643</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>79</v>
+      </c>
       <c r="E10" s="35">
         <v>44940</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>160578</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>44940</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="I10" s="39">
+        <v>2088</v>
+      </c>
+      <c r="J10" s="40">
+        <v>44940</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="55">
+        <f>18409+3214+300</f>
+        <v>21923</v>
+      </c>
       <c r="M10" s="42">
-        <v>0</v>
+        <f>44100+4149</f>
+        <v>48249</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>63679</v>
       </c>
       <c r="P10" s="49">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>160582</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -3661,33 +3736,41 @@
       <c r="B11" s="32">
         <v>44941</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>17507</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="35">
         <v>44941</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>121026</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>44941</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>1500</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="56"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <v>41342</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>60674</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" ref="P11:P47" si="2">N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>121023</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R11" s="46">
         <v>0</v>
@@ -3698,30 +3781,39 @@
       <c r="B12" s="32">
         <v>44942</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>11293</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>83</v>
+      </c>
       <c r="E12" s="35">
         <v>44942</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>127155</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>44942</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>638</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="57"/>
       <c r="L12" s="49"/>
       <c r="M12" s="42">
-        <v>0</v>
+        <f>10000+55415+8396</f>
+        <v>73811</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>41413</v>
       </c>
       <c r="O12" s="195"/>
       <c r="P12" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127155</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="0"/>
@@ -3736,30 +3828,44 @@
       <c r="B13" s="32">
         <v>44943</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>18179</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="35">
         <v>44943</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>104143</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>44943</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="39">
+        <v>3349</v>
+      </c>
+      <c r="J13" s="40">
+        <v>44943</v>
+      </c>
+      <c r="K13" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="49">
+        <v>9547</v>
+      </c>
       <c r="M13" s="42">
-        <v>0</v>
+        <v>31220</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>41848</v>
       </c>
       <c r="O13" s="195"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>104143</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="0"/>
@@ -3774,30 +3880,39 @@
       <c r="B14" s="32">
         <v>44944</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>19316</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>86</v>
+      </c>
       <c r="E14" s="35">
         <v>44944</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>122772</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>44944</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>3399.5</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="48"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <f>44430.5+16295</f>
+        <v>60725.5</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>39331</v>
       </c>
       <c r="O14" s="196"/>
       <c r="P14" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>122772</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="0"/>
@@ -3812,29 +3927,38 @@
       <c r="B15" s="32">
         <v>44945</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>7955</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="E15" s="35">
         <v>44945</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>113415</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>44945</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>3059</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="48"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>39227+20000</f>
+        <v>59227</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>43174</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>113415</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="0"/>
@@ -4217,19 +4341,13 @@
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
-      <c r="B26" s="32">
-        <v>44956</v>
-      </c>
+      <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="35">
-        <v>44956</v>
-      </c>
+      <c r="E26" s="35"/>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="38">
-        <v>44956</v>
-      </c>
+      <c r="H26" s="38"/>
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
       <c r="K26" s="72"/>
@@ -4257,19 +4375,13 @@
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
-      <c r="B27" s="32">
-        <v>44957</v>
-      </c>
+      <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="35">
-        <v>44957</v>
-      </c>
+      <c r="E27" s="35"/>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="38">
-        <v>44957</v>
-      </c>
+      <c r="H27" s="38"/>
       <c r="I27" s="39"/>
       <c r="J27" s="74"/>
       <c r="K27" s="75"/>
@@ -4294,19 +4406,13 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
-      <c r="B28" s="32">
-        <v>44958</v>
-      </c>
+      <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="35">
-        <v>44958</v>
-      </c>
+      <c r="E28" s="35"/>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="38">
-        <v>44958</v>
-      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="39"/>
       <c r="J28" s="76"/>
       <c r="K28" s="77"/>
@@ -4331,19 +4437,13 @@
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
-      <c r="B29" s="32">
-        <v>44959</v>
-      </c>
+      <c r="B29" s="32"/>
       <c r="C29" s="33"/>
       <c r="D29" s="78"/>
-      <c r="E29" s="35">
-        <v>44959</v>
-      </c>
+      <c r="E29" s="35"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
-      <c r="H29" s="38">
-        <v>44959</v>
-      </c>
+      <c r="H29" s="38"/>
       <c r="I29" s="39"/>
       <c r="J29" s="79"/>
       <c r="K29" s="80"/>
@@ -4368,19 +4468,13 @@
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
-      <c r="B30" s="32">
-        <v>44960</v>
-      </c>
+      <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="78"/>
-      <c r="E30" s="35">
-        <v>44960</v>
-      </c>
+      <c r="E30" s="35"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="38">
-        <v>44960</v>
-      </c>
+      <c r="H30" s="38"/>
       <c r="I30" s="39"/>
       <c r="J30" s="76"/>
       <c r="K30" s="48"/>
@@ -4405,19 +4499,13 @@
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
-      <c r="B31" s="32">
-        <v>44961</v>
-      </c>
+      <c r="B31" s="32"/>
       <c r="C31" s="33"/>
       <c r="D31" s="81"/>
-      <c r="E31" s="35">
-        <v>44961</v>
-      </c>
+      <c r="E31" s="35"/>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
-      <c r="H31" s="38">
-        <v>44961</v>
-      </c>
+      <c r="H31" s="38"/>
       <c r="I31" s="39"/>
       <c r="J31" s="76"/>
       <c r="K31" s="82"/>
@@ -4442,19 +4530,13 @@
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
-      <c r="B32" s="32">
-        <v>44962</v>
-      </c>
+      <c r="B32" s="32"/>
       <c r="C32" s="33"/>
       <c r="D32" s="83"/>
-      <c r="E32" s="35">
-        <v>44962</v>
-      </c>
+      <c r="E32" s="35"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
-      <c r="H32" s="38">
-        <v>44962</v>
-      </c>
+      <c r="H32" s="38"/>
       <c r="I32" s="39"/>
       <c r="J32" s="84"/>
       <c r="K32" s="48"/>
@@ -4518,9 +4600,15 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="49"/>
+      <c r="J34" s="76">
+        <v>44940</v>
+      </c>
+      <c r="K34" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="49">
+        <v>23711</v>
+      </c>
       <c r="M34" s="42">
         <v>0</v>
       </c>
@@ -4529,11 +4617,11 @@
       </c>
       <c r="P34" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23711</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23711</v>
       </c>
       <c r="R34" s="46">
         <v>0</v>
@@ -4983,21 +5071,21 @@
       <c r="J49" s="76"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="313">
+      <c r="M49" s="312">
         <f>SUM(M5:M40)</f>
-        <v>146714</v>
-      </c>
-      <c r="N49" s="313">
+        <v>671850</v>
+      </c>
+      <c r="N49" s="312">
         <f>SUM(N5:N40)</f>
-        <v>84984</v>
+        <v>489465</v>
       </c>
       <c r="P49" s="114">
         <f>SUM(P5:P40)</f>
-        <v>270226</v>
-      </c>
-      <c r="Q49" s="289">
+        <v>1413461</v>
+      </c>
+      <c r="Q49" s="324">
         <f>SUM(Q5:Q40)</f>
-        <v>1</v>
+        <v>23713</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -5016,13 +5104,13 @@
       <c r="J50" s="90"/>
       <c r="K50" s="91"/>
       <c r="L50" s="92"/>
-      <c r="M50" s="314"/>
-      <c r="N50" s="314"/>
+      <c r="M50" s="313"/>
+      <c r="N50" s="313"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="290"/>
+      <c r="Q50" s="325"/>
       <c r="R50" s="115">
         <f>SUM(R5:R49)</f>
-        <v>31174</v>
+        <v>34239</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5074,11 +5162,11 @@
       <c r="J53" s="76"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="291">
+      <c r="M53" s="290">
         <f>M49+N49</f>
-        <v>231698</v>
-      </c>
-      <c r="N53" s="292"/>
+        <v>1161315</v>
+      </c>
+      <c r="N53" s="291"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -5461,7 +5549,7 @@
       </c>
       <c r="C75" s="144">
         <f>SUM(C5:C68)</f>
-        <v>33986</v>
+        <v>173717.5</v>
       </c>
       <c r="D75" s="145"/>
       <c r="E75" s="146" t="s">
@@ -5469,7 +5557,7 @@
       </c>
       <c r="F75" s="147">
         <f>SUM(F5:F68)</f>
-        <v>239051</v>
+        <v>1355509</v>
       </c>
       <c r="G75" s="148"/>
       <c r="H75" s="146" t="s">
@@ -5477,7 +5565,7 @@
       </c>
       <c r="I75" s="149">
         <f>SUM(I5:I68)</f>
-        <v>4542</v>
+        <v>23247.5</v>
       </c>
       <c r="J75" s="150"/>
       <c r="K75" s="151" t="s">
@@ -5485,7 +5573,7 @@
       </c>
       <c r="L75" s="152">
         <f>SUM(L5:L73)-L26</f>
-        <v>0</v>
+        <v>55181</v>
       </c>
       <c r="M75" s="153"/>
       <c r="N75" s="153"/>
@@ -5503,50 +5591,50 @@
       <c r="A77" s="155"/>
       <c r="B77" s="156"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="321" t="s">
+      <c r="H77" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="322"/>
+      <c r="I77" s="321"/>
       <c r="J77" s="157"/>
-      <c r="K77" s="323">
+      <c r="K77" s="322">
         <f>I75+L75</f>
-        <v>4542</v>
-      </c>
-      <c r="L77" s="324"/>
+        <v>78428.5</v>
+      </c>
+      <c r="L77" s="323"/>
       <c r="M77" s="158"/>
       <c r="N77" s="158"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="315" t="s">
+      <c r="D78" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="315"/>
+      <c r="E78" s="314"/>
       <c r="F78" s="159">
         <f>F75-K77-C75</f>
-        <v>200523</v>
+        <v>1103363</v>
       </c>
       <c r="I78" s="160"/>
       <c r="J78" s="161"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="316" t="s">
+      <c r="D79" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="316"/>
+      <c r="E79" s="315"/>
       <c r="F79" s="104">
-        <v>0</v>
-      </c>
-      <c r="I79" s="317" t="s">
+        <v>-1513561.68</v>
+      </c>
+      <c r="I79" s="316" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="318"/>
-      <c r="K79" s="319">
+      <c r="J79" s="317"/>
+      <c r="K79" s="318">
         <f>F81+F82+F83</f>
-        <v>200523</v>
-      </c>
-      <c r="L79" s="319"/>
+        <v>-410198.67999999993</v>
+      </c>
+      <c r="L79" s="318"/>
       <c r="M79" s="162"/>
       <c r="N79" s="162"/>
       <c r="O79" s="163"/>
@@ -5580,18 +5668,18 @@
       </c>
       <c r="F81" s="153">
         <f>SUM(F78:F80)</f>
-        <v>200523</v>
+        <v>-410198.67999999993</v>
       </c>
       <c r="H81" s="171"/>
       <c r="I81" s="172" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="173"/>
-      <c r="K81" s="320">
+      <c r="K81" s="319">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="319"/>
+      <c r="L81" s="318"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="174" t="s">
@@ -5605,23 +5693,25 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="175"/>
-      <c r="D83" s="308" t="s">
+      <c r="C83" s="175">
+        <v>44955</v>
+      </c>
+      <c r="D83" s="307" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="309"/>
+      <c r="E83" s="308"/>
       <c r="F83" s="176">
         <v>0</v>
       </c>
-      <c r="I83" s="310" t="s">
+      <c r="I83" s="309" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="311"/>
-      <c r="K83" s="312">
+      <c r="J83" s="310"/>
+      <c r="K83" s="311">
         <f>K79+K81</f>
-        <v>-3244882.07</v>
-      </c>
-      <c r="L83" s="312"/>
+        <v>-3855603.75</v>
+      </c>
+      <c r="L83" s="311"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="177"/>
@@ -6781,10 +6871,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="325"/>
-      <c r="J36" s="326"/>
-      <c r="K36" s="326"/>
-      <c r="L36" s="327"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="327"/>
+      <c r="K36" s="327"/>
+      <c r="L36" s="328"/>
       <c r="M36" s="104"/>
       <c r="N36" s="230">
         <f t="shared" si="1"/>
@@ -6807,10 +6897,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="325"/>
-      <c r="J37" s="326"/>
-      <c r="K37" s="326"/>
-      <c r="L37" s="327"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="327"/>
+      <c r="K37" s="327"/>
+      <c r="L37" s="328"/>
       <c r="M37" s="104"/>
       <c r="N37" s="230">
         <f t="shared" si="1"/>
@@ -6867,10 +6957,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="328" t="s">
+      <c r="I40" s="329" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="329"/>
+      <c r="J40" s="330"/>
       <c r="K40" s="87"/>
       <c r="L40" s="241"/>
       <c r="M40" s="87"/>
@@ -6889,8 +6979,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="330"/>
-      <c r="J41" s="331"/>
+      <c r="I41" s="331"/>
+      <c r="J41" s="332"/>
       <c r="K41" s="87"/>
       <c r="L41" s="241"/>
       <c r="M41" s="87"/>
@@ -6909,8 +6999,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="332"/>
-      <c r="J42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="334"/>
       <c r="K42" s="87"/>
       <c r="L42" s="241"/>
       <c r="M42" s="87"/>
@@ -7414,10 +7504,10 @@
         <f>SUM(G3:G66)</f>
         <v>1513561.68</v>
       </c>
-      <c r="I67" s="334" t="s">
+      <c r="I67" s="335" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="335"/>
+      <c r="J67" s="336"/>
       <c r="K67" s="267">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -7437,11 +7527,11 @@
       <c r="D68" s="271"/>
       <c r="E68" s="272"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="338" t="s">
+      <c r="G68" s="339" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="336"/>
-      <c r="J68" s="337"/>
+      <c r="I68" s="337"/>
+      <c r="J68" s="338"/>
       <c r="K68" s="1"/>
       <c r="L68" s="272"/>
       <c r="M68" s="5"/>
@@ -7452,7 +7542,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="272"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="339"/>
+      <c r="G69" s="340"/>
       <c r="K69" s="1"/>
       <c r="L69" s="272"/>
       <c r="M69" s="5"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -357,6 +357,36 @@
   </si>
   <si>
     <t>QUESOS-ARABE-PASTOR-POLLO</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>SALSAS-PAPAS-JAMON-RIB-EYE-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 04</t>
+  </si>
+  <si>
+    <t>QUESOS</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-MIXIOTES-LONGANIZA-POLLO</t>
+  </si>
+  <si>
+    <t>BONOS ANUALES 2022</t>
+  </si>
+  <si>
+    <t>ENCHILADA-LONGANIZA-QUESOS-POLLO-JAMON-CHISTORRA-CHORIZO</t>
+  </si>
+  <si>
+    <t>POLLO-RAJAS-SALCHICHA</t>
+  </si>
+  <si>
+    <t>PASTOR-MAIZ-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -730,7 +760,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="82">
     <border>
@@ -1962,18 +1998,12 @@
     <xf numFmtId="16" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2425,6 +2455,9 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2577,6 +2610,9 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2587,6 +2623,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
       <color rgb="FF800080"/>
     </mruColors>
@@ -3344,14 +3381,14 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="154" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="152" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="6"/>
@@ -3371,23 +3408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -3397,24 +3434,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="292" t="s">
+      <c r="P3" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="300" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3429,14 +3466,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="304"/>
-      <c r="H4" s="305" t="s">
+      <c r="F4" s="303"/>
+      <c r="H4" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="306"/>
+      <c r="I4" s="305"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -3446,11 +3483,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="293"/>
+      <c r="P4" s="292"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="302"/>
+      <c r="R4" s="301"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -3495,7 +3532,7 @@
       <c r="Q5" s="45">
         <v>0</v>
       </c>
-      <c r="R5" s="289">
+      <c r="R5" s="287">
         <v>31174</v>
       </c>
     </row>
@@ -3585,7 +3622,7 @@
       <c r="Q7" s="45">
         <v>0</v>
       </c>
-      <c r="R7" s="289">
+      <c r="R7" s="287">
         <v>1028</v>
       </c>
     </row>
@@ -3674,7 +3711,7 @@
       <c r="Q9" s="45">
         <v>0</v>
       </c>
-      <c r="R9" s="289">
+      <c r="R9" s="287">
         <v>2037</v>
       </c>
     </row>
@@ -3765,7 +3802,7 @@
         <v>60674</v>
       </c>
       <c r="P11" s="49">
-        <f t="shared" ref="P11:P47" si="2">N11+M11+L11+I11+C11</f>
+        <f t="shared" ref="P11:P32" si="2">N11+M11+L11+I11+C11</f>
         <v>121023</v>
       </c>
       <c r="Q11" s="45">
@@ -3810,7 +3847,7 @@
       <c r="N12" s="43">
         <v>41413</v>
       </c>
-      <c r="O12" s="195"/>
+      <c r="O12" s="193"/>
       <c r="P12" s="49">
         <f t="shared" si="2"/>
         <v>127155</v>
@@ -3850,7 +3887,7 @@
       <c r="J13" s="40">
         <v>44943</v>
       </c>
-      <c r="K13" s="124" t="s">
+      <c r="K13" s="122" t="s">
         <v>85</v>
       </c>
       <c r="L13" s="49">
@@ -3862,7 +3899,7 @@
       <c r="N13" s="43">
         <v>41848</v>
       </c>
-      <c r="O13" s="195"/>
+      <c r="O13" s="193"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
         <v>104143</v>
@@ -3909,7 +3946,7 @@
       <c r="N14" s="43">
         <v>39331</v>
       </c>
-      <c r="O14" s="196"/>
+      <c r="O14" s="194"/>
       <c r="P14" s="49">
         <f t="shared" si="2"/>
         <v>122772</v>
@@ -3973,29 +4010,38 @@
       <c r="B16" s="32">
         <v>44946</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="33">
+        <v>6095</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="E16" s="35">
         <v>44946</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>135526</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>44946</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>1637.5</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="57"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>61785.5+20000</f>
+        <v>81785.5</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>46008</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135526</v>
       </c>
       <c r="Q16" s="45">
         <f t="shared" si="0"/>
@@ -4010,29 +4056,43 @@
       <c r="B17" s="32">
         <v>44947</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="33">
+        <v>35969</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="E17" s="35">
         <v>44947</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>135562</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>44947</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="55"/>
+      <c r="I17" s="39">
+        <v>9870</v>
+      </c>
+      <c r="J17" s="40">
+        <v>44947</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="55">
+        <v>19262</v>
+      </c>
       <c r="M17" s="42">
-        <v>0</v>
+        <v>17784</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>52677</v>
       </c>
       <c r="P17" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135562</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" si="0"/>
@@ -4047,29 +4107,38 @@
       <c r="B18" s="32">
         <v>44948</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="33">
+        <v>650</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="E18" s="35">
         <v>44948</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>117598</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>44948</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>626</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>20000+52532</f>
+        <v>72532</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>43790</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>117598</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="0"/>
@@ -4079,38 +4148,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="32">
         <v>44949</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>20579</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>92</v>
+      </c>
       <c r="E19" s="35">
         <v>44949</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>116443</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>44949</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="60"/>
+      <c r="I19" s="39">
+        <v>2267</v>
+      </c>
+      <c r="J19" s="40">
+        <v>44949</v>
+      </c>
+      <c r="K19" s="288" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="59">
+        <v>46500</v>
+      </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <f>354+569+802</f>
+        <v>1725</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>45371</v>
       </c>
       <c r="P19" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116442</v>
       </c>
       <c r="Q19" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19" s="46">
         <v>0</v>
@@ -4121,29 +4205,38 @@
       <c r="B20" s="32">
         <v>44950</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <v>31592</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>94</v>
+      </c>
       <c r="E20" s="35">
         <v>44950</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>111687</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>44950</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>2245</v>
+      </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="61"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <f>38110+1286</f>
+        <v>39396</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>38454</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>111687</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="0"/>
@@ -4158,36 +4251,44 @@
       <c r="B21" s="32">
         <v>44951</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>5555</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>95</v>
+      </c>
       <c r="E21" s="35">
         <v>44951</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>109189</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>44951</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>1589</v>
+      </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="62"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>38970+12084+1916+45045+12249.5+10507.5+4172</f>
+        <v>124944</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>22148</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>154236</v>
       </c>
       <c r="Q21" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R21" s="287">
+        <v>45047</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4195,38 +4296,52 @@
       <c r="B22" s="32">
         <v>44952</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>23324</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>96</v>
+      </c>
       <c r="E22" s="35">
         <v>44952</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>231927</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>44952</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="I22" s="39">
+        <v>2738</v>
+      </c>
+      <c r="J22" s="40">
+        <v>44952</v>
+      </c>
+      <c r="K22" s="340" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="62">
+        <v>439311.46</v>
+      </c>
       <c r="M22" s="42">
-        <v>0</v>
+        <f>151000+36342+26928+15000</f>
+        <v>229270</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>29931</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>724574.46</v>
       </c>
       <c r="Q22" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="46">
-        <v>0</v>
-      </c>
-      <c r="S22" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="287">
+        <v>492648</v>
+      </c>
+      <c r="S22" s="63"/>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
@@ -4244,8 +4359,8 @@
         <v>44953</v>
       </c>
       <c r="I23" s="39"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
         <v>0</v>
@@ -4281,9 +4396,9 @@
         <v>44954</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="69"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="42">
         <v>0</v>
       </c>
@@ -4318,16 +4433,16 @@
         <v>44955</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="70"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="42">
         <v>0</v>
       </c>
       <c r="N25" s="43">
         <v>0</v>
       </c>
-      <c r="P25" s="71">
+      <c r="P25" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4350,15 +4465,15 @@
       <c r="H26" s="38"/>
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
       <c r="M26" s="42">
         <v>0</v>
       </c>
       <c r="N26" s="43">
         <v>0</v>
       </c>
-      <c r="P26" s="71">
+      <c r="P26" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4383,16 +4498,16 @@
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="70"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="42">
         <v>0</v>
       </c>
       <c r="N27" s="43">
         <v>0</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P27" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4414,16 +4529,16 @@
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="70"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="42">
         <v>0</v>
       </c>
       <c r="N28" s="43">
         <v>0</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4439,22 +4554,22 @@
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="70"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="68"/>
       <c r="M29" s="42">
         <v>0</v>
       </c>
       <c r="N29" s="43">
         <v>0</v>
       </c>
-      <c r="P29" s="71">
+      <c r="P29" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4470,13 +4585,13 @@
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="78"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="76"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
@@ -4485,7 +4600,7 @@
       <c r="N30" s="43">
         <v>0</v>
       </c>
-      <c r="P30" s="71">
+      <c r="P30" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4501,22 +4616,22 @@
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="81"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
       <c r="H31" s="38"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="70"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="42">
         <v>0</v>
       </c>
       <c r="N31" s="43">
         <v>0</v>
       </c>
-      <c r="P31" s="71">
+      <c r="P31" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4532,13 +4647,13 @@
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="83"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="35"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="84"/>
+      <c r="J32" s="82"/>
       <c r="K32" s="48"/>
       <c r="L32" s="49"/>
       <c r="M32" s="42">
@@ -4547,7 +4662,7 @@
       <c r="N32" s="43">
         <v>0</v>
       </c>
-      <c r="P32" s="85">
+      <c r="P32" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4563,23 +4678,22 @@
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="86"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="76"/>
+      <c r="J33" s="74"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="87"/>
+      <c r="L33" s="85"/>
       <c r="M33" s="42">
         <v>0</v>
       </c>
       <c r="N33" s="43">
         <v>0</v>
       </c>
-      <c r="P33" s="71">
-        <f t="shared" si="2"/>
+      <c r="P33" s="69">
         <v>0</v>
       </c>
       <c r="Q33" s="45">
@@ -4594,16 +4708,16 @@
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="86"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="76">
+      <c r="J34" s="74">
         <v>44940</v>
       </c>
-      <c r="K34" s="88" t="s">
+      <c r="K34" s="86" t="s">
         <v>81</v>
       </c>
       <c r="L34" s="49">
@@ -4615,13 +4729,12 @@
       <c r="N34" s="43">
         <v>0</v>
       </c>
-      <c r="P34" s="71">
-        <f t="shared" si="2"/>
-        <v>23711</v>
+      <c r="P34" s="69">
+        <v>0</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="0"/>
-        <v>23711</v>
+        <v>0</v>
       </c>
       <c r="R34" s="46">
         <v>0</v>
@@ -4633,24 +4746,29 @@
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92"/>
+      <c r="J35" s="88">
+        <v>44947</v>
+      </c>
+      <c r="K35" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" s="90">
+        <v>20083.5</v>
+      </c>
       <c r="M35" s="42">
         <v>0</v>
       </c>
       <c r="N35" s="43">
         <v>0</v>
       </c>
-      <c r="P35" s="71">
-        <f t="shared" si="2"/>
+      <c r="P35" s="69">
         <v>0</v>
       </c>
       <c r="Q35" s="45">
@@ -4664,15 +4782,17 @@
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="95"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="88"/>
+      <c r="J36" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="86"/>
       <c r="L36" s="49"/>
       <c r="M36" s="42">
         <v>0</v>
@@ -4680,8 +4800,7 @@
       <c r="N36" s="43">
         <v>0</v>
       </c>
-      <c r="P36" s="71">
-        <f t="shared" si="2"/>
+      <c r="P36" s="69">
         <v>0</v>
       </c>
       <c r="Q36" s="45">
@@ -4695,15 +4814,15 @@
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
-      <c r="G37" s="95"/>
+      <c r="G37" s="93"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="88"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="86"/>
       <c r="L37" s="49"/>
       <c r="M37" s="42">
         <v>0</v>
@@ -4711,8 +4830,7 @@
       <c r="N37" s="43">
         <v>0</v>
       </c>
-      <c r="P37" s="71">
-        <f t="shared" si="2"/>
+      <c r="P37" s="69">
         <v>0</v>
       </c>
       <c r="Q37" s="45">
@@ -4726,15 +4844,15 @@
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
-      <c r="G38" s="95"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="98"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="96"/>
       <c r="L38" s="49"/>
       <c r="M38" s="42">
         <v>0</v>
@@ -4742,8 +4860,7 @@
       <c r="N38" s="43">
         <v>0</v>
       </c>
-      <c r="P38" s="71">
-        <f t="shared" si="2"/>
+      <c r="P38" s="69">
         <v>0</v>
       </c>
       <c r="Q38" s="45">
@@ -4757,15 +4874,15 @@
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="99"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="95"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="93"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="98"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="96"/>
       <c r="L39" s="49"/>
       <c r="M39" s="42">
         <v>0</v>
@@ -4773,8 +4890,7 @@
       <c r="N39" s="43">
         <v>0</v>
       </c>
-      <c r="P39" s="85">
-        <f t="shared" si="2"/>
+      <c r="P39" s="69">
         <v>0</v>
       </c>
       <c r="Q39" s="45">
@@ -4788,14 +4904,14 @@
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="100"/>
+      <c r="F40" s="98"/>
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="76"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="74"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
       <c r="M40" s="42">
@@ -4804,8 +4920,7 @@
       <c r="N40" s="43">
         <v>0</v>
       </c>
-      <c r="P40" s="71">
-        <f t="shared" si="2"/>
+      <c r="P40" s="69">
         <v>0</v>
       </c>
       <c r="Q40" s="45">
@@ -4819,14 +4934,14 @@
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="105"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="100"/>
+      <c r="F41" s="98"/>
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="76"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="74"/>
       <c r="K41" s="48"/>
       <c r="L41" s="49"/>
       <c r="M41" s="42">
@@ -4835,8 +4950,7 @@
       <c r="N41" s="43">
         <v>0</v>
       </c>
-      <c r="P41" s="71">
-        <f t="shared" si="2"/>
+      <c r="P41" s="69">
         <v>0</v>
       </c>
       <c r="Q41" s="45">
@@ -4850,14 +4964,14 @@
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="105"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="35"/>
-      <c r="F42" s="100"/>
+      <c r="F42" s="98"/>
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="76"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="48"/>
       <c r="L42" s="49"/>
       <c r="M42" s="42">
@@ -4866,8 +4980,7 @@
       <c r="N42" s="43">
         <v>0</v>
       </c>
-      <c r="P42" s="71">
-        <f t="shared" si="2"/>
+      <c r="P42" s="69">
         <v>0</v>
       </c>
       <c r="Q42" s="45">
@@ -4881,14 +4994,14 @@
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="105"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="35"/>
-      <c r="F43" s="100"/>
+      <c r="F43" s="98"/>
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="76"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="74"/>
       <c r="K43" s="48"/>
       <c r="L43" s="49"/>
       <c r="M43" s="42">
@@ -4897,8 +5010,7 @@
       <c r="N43" s="43">
         <v>0</v>
       </c>
-      <c r="P43" s="71">
-        <f t="shared" si="2"/>
+      <c r="P43" s="69">
         <v>0</v>
       </c>
       <c r="Q43" s="45">
@@ -4912,14 +5024,14 @@
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="105"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="100"/>
+      <c r="F44" s="98"/>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="76"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="74"/>
       <c r="K44" s="48"/>
       <c r="L44" s="49"/>
       <c r="M44" s="42">
@@ -4928,8 +5040,7 @@
       <c r="N44" s="43">
         <v>0</v>
       </c>
-      <c r="P44" s="71">
-        <f t="shared" si="2"/>
+      <c r="P44" s="69">
         <v>0</v>
       </c>
       <c r="Q44" s="45">
@@ -4943,14 +5054,14 @@
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="32"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="105"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="103"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="100"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="76"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="74"/>
       <c r="K45" s="48"/>
       <c r="L45" s="49"/>
       <c r="M45" s="42">
@@ -4959,8 +5070,7 @@
       <c r="N45" s="43">
         <v>0</v>
       </c>
-      <c r="P45" s="71">
-        <f t="shared" si="2"/>
+      <c r="P45" s="69">
         <v>0</v>
       </c>
       <c r="Q45" s="45">
@@ -4974,14 +5084,14 @@
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="32"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="105"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="35"/>
-      <c r="F46" s="100"/>
+      <c r="F46" s="98"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="76"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="74"/>
       <c r="K46" s="48"/>
       <c r="L46" s="49"/>
       <c r="M46" s="42">
@@ -4990,8 +5100,7 @@
       <c r="N46" s="43">
         <v>0</v>
       </c>
-      <c r="P46" s="71">
-        <f t="shared" si="2"/>
+      <c r="P46" s="69">
         <v>0</v>
       </c>
       <c r="Q46" s="45">
@@ -5005,24 +5114,23 @@
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="32"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="37"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="76"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="74"/>
       <c r="K47" s="48"/>
       <c r="L47" s="49"/>
-      <c r="M47" s="102">
-        <v>0</v>
-      </c>
-      <c r="N47" s="103">
-        <v>0</v>
-      </c>
-      <c r="P47" s="71">
-        <f t="shared" si="2"/>
+      <c r="M47" s="100">
+        <v>0</v>
+      </c>
+      <c r="N47" s="101">
+        <v>0</v>
+      </c>
+      <c r="P47" s="69">
         <v>0</v>
       </c>
       <c r="Q47" s="45">
@@ -5036,22 +5144,22 @@
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="108"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="37"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="76"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="74"/>
       <c r="K48" s="48"/>
       <c r="L48" s="49"/>
-      <c r="M48" s="110"/>
+      <c r="M48" s="108"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
         <v>0</v>
       </c>
-      <c r="Q48" s="111">
+      <c r="Q48" s="109">
         <v>0</v>
       </c>
       <c r="R48" s="46">
@@ -5061,31 +5169,31 @@
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="32"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="113"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="111"/>
       <c r="G49" s="37"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="88"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="86"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="312">
+      <c r="M49" s="311">
         <f>SUM(M5:M40)</f>
-        <v>671850</v>
-      </c>
-      <c r="N49" s="312">
+        <v>1239286.5</v>
+      </c>
+      <c r="N49" s="311">
         <f>SUM(N5:N40)</f>
-        <v>489465</v>
-      </c>
-      <c r="P49" s="114">
+        <v>767844</v>
+      </c>
+      <c r="P49" s="112">
         <f>SUM(P5:P40)</f>
-        <v>1413461</v>
-      </c>
-      <c r="Q49" s="324">
+        <v>2885375.46</v>
+      </c>
+      <c r="Q49" s="323">
         <f>SUM(Q5:Q40)</f>
-        <v>23713</v>
+        <v>1</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -5094,259 +5202,259 @@
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="32"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="113"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="37"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="313"/>
-      <c r="N50" s="313"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="312"/>
+      <c r="N50" s="312"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="325"/>
-      <c r="R50" s="115">
+      <c r="Q50" s="324"/>
+      <c r="R50" s="113">
         <f>SUM(R5:R49)</f>
-        <v>34239</v>
+        <v>571934</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="32"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="113"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="37"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="88"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="86"/>
       <c r="L51" s="49"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
       <c r="P51" s="44"/>
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
       <c r="B52" s="32"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="113"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="76"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="74"/>
       <c r="K52" s="48"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
       <c r="P52" s="44"/>
       <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
       <c r="B53" s="32"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="113"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="37"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="76"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="290">
+      <c r="M53" s="289">
         <f>M49+N49</f>
-        <v>1161315</v>
-      </c>
-      <c r="N53" s="291"/>
+        <v>2007130.5</v>
+      </c>
+      <c r="N53" s="290"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="32"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="113"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="76"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="74"/>
       <c r="K54" s="48"/>
       <c r="L54" s="49"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
       <c r="P54" s="44"/>
       <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="113"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="111"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="116"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
       <c r="P55" s="44"/>
       <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
       <c r="B56" s="32"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="113"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="37"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="114"/>
       <c r="P56" s="44"/>
       <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
       <c r="B57" s="32"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="113"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="37"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="114"/>
       <c r="P57" s="44"/>
       <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="32"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="113"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="37"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="123"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
       <c r="B59" s="32"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="113"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="123"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
       <c r="P59" s="44"/>
       <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="113"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="111"/>
       <c r="G60" s="37"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="113"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="37"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="114"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="32"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="113"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="111"/>
       <c r="G62" s="37"/>
-      <c r="H62" s="109"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="32"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="113"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="111"/>
       <c r="G63" s="37"/>
-      <c r="H63" s="109"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="114"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="19"/>
     </row>
@@ -5354,17 +5462,17 @@
       <c r="A64" s="31"/>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="113"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="37"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="123"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="87"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
       <c r="P64" s="44"/>
       <c r="Q64" s="19"/>
     </row>
@@ -5372,17 +5480,17 @@
       <c r="A65" s="31"/>
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="113"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="123"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="85"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="114"/>
       <c r="P65" s="44"/>
       <c r="Q65" s="19"/>
     </row>
@@ -5390,17 +5498,17 @@
       <c r="A66" s="31"/>
       <c r="B66" s="32"/>
       <c r="C66" s="33"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="113"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="111"/>
       <c r="G66" s="37"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="87"/>
-      <c r="M66" s="116"/>
-      <c r="N66" s="116"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
       <c r="P66" s="44"/>
       <c r="Q66" s="19"/>
     </row>
@@ -5408,17 +5516,17 @@
       <c r="A67" s="31"/>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="113"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="111"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="123"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="116"/>
-      <c r="N67" s="116"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
       <c r="P67" s="44"/>
       <c r="Q67" s="19"/>
     </row>
@@ -5426,15 +5534,15 @@
       <c r="A68" s="31"/>
       <c r="B68" s="32"/>
       <c r="C68" s="33"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="130"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="128"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="87"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="85"/>
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
       <c r="P68" s="44"/>
@@ -5442,17 +5550,17 @@
     </row>
     <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="135"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="133"/>
       <c r="F69" s="44"/>
       <c r="G69" s="37"/>
-      <c r="H69" s="109"/>
+      <c r="H69" s="107"/>
       <c r="I69" s="44"/>
-      <c r="J69" s="136"/>
-      <c r="K69" s="128"/>
-      <c r="L69" s="87"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="85"/>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
       <c r="P69" s="44"/>
@@ -5460,16 +5568,16 @@
     </row>
     <row r="70" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31"/>
-      <c r="B70" s="137"/>
-      <c r="C70" s="134"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="139"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="137"/>
       <c r="F70" s="44"/>
-      <c r="H70" s="140"/>
+      <c r="H70" s="138"/>
       <c r="I70" s="44"/>
-      <c r="J70" s="136"/>
-      <c r="K70" s="128"/>
-      <c r="L70" s="87"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="85"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
       <c r="P70" s="44"/>
@@ -5477,16 +5585,16 @@
     </row>
     <row r="71" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
-      <c r="B71" s="137"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="139"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="137"/>
       <c r="F71" s="44"/>
-      <c r="H71" s="140"/>
+      <c r="H71" s="138"/>
       <c r="I71" s="44"/>
-      <c r="J71" s="136"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="87"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="85"/>
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
       <c r="P71" s="44"/>
@@ -5494,16 +5602,16 @@
     </row>
     <row r="72" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
-      <c r="B72" s="137"/>
-      <c r="C72" s="134"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="139"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="137"/>
       <c r="F72" s="44"/>
-      <c r="H72" s="140"/>
+      <c r="H72" s="138"/>
       <c r="I72" s="44"/>
-      <c r="J72" s="136"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="87"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="85"/>
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
       <c r="P72" s="44"/>
@@ -5511,16 +5619,16 @@
     </row>
     <row r="73" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="139"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="137"/>
       <c r="F73" s="44"/>
-      <c r="H73" s="140"/>
+      <c r="H73" s="138"/>
       <c r="I73" s="44"/>
-      <c r="J73" s="136"/>
-      <c r="K73" s="128"/>
-      <c r="L73" s="87"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="85"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
       <c r="P73" s="44"/>
@@ -5528,15 +5636,15 @@
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="139"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="137"/>
       <c r="F74" s="44"/>
-      <c r="H74" s="140"/>
+      <c r="H74" s="138"/>
       <c r="I74" s="44"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="142"/>
+      <c r="J74" s="139"/>
+      <c r="K74" s="140"/>
       <c r="L74" s="13"/>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
@@ -5544,39 +5652,39 @@
       <c r="Q74" s="19"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="144">
+      <c r="C75" s="142">
         <f>SUM(C5:C68)</f>
-        <v>173717.5</v>
-      </c>
-      <c r="D75" s="145"/>
-      <c r="E75" s="146" t="s">
+        <v>297481.5</v>
+      </c>
+      <c r="D75" s="143"/>
+      <c r="E75" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="147">
+      <c r="F75" s="145">
         <f>SUM(F5:F68)</f>
-        <v>1355509</v>
-      </c>
-      <c r="G75" s="148"/>
-      <c r="H75" s="146" t="s">
+        <v>2313441</v>
+      </c>
+      <c r="G75" s="146"/>
+      <c r="H75" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="149">
+      <c r="I75" s="147">
         <f>SUM(I5:I68)</f>
-        <v>23247.5</v>
-      </c>
-      <c r="J75" s="150"/>
-      <c r="K75" s="151" t="s">
+        <v>44220</v>
+      </c>
+      <c r="J75" s="148"/>
+      <c r="K75" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="152">
+      <c r="L75" s="150">
         <f>SUM(L5:L73)-L26</f>
-        <v>55181</v>
-      </c>
-      <c r="M75" s="153"/>
-      <c r="N75" s="153"/>
+        <v>580337.96</v>
+      </c>
+      <c r="M75" s="151"/>
+      <c r="N75" s="151"/>
       <c r="P75" s="44"/>
       <c r="Q75" s="19"/>
     </row>
@@ -5588,270 +5696,270 @@
       <c r="Q76" s="19"/>
     </row>
     <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="155"/>
-      <c r="B77" s="156"/>
+      <c r="A77" s="153"/>
+      <c r="B77" s="154"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="320" t="s">
+      <c r="H77" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="321"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="322">
+      <c r="I77" s="320"/>
+      <c r="J77" s="155"/>
+      <c r="K77" s="321">
         <f>I75+L75</f>
-        <v>78428.5</v>
-      </c>
-      <c r="L77" s="323"/>
-      <c r="M77" s="158"/>
-      <c r="N77" s="158"/>
+        <v>624557.96</v>
+      </c>
+      <c r="L77" s="322"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="156"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="314" t="s">
+      <c r="D78" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="314"/>
-      <c r="F78" s="159">
+      <c r="E78" s="313"/>
+      <c r="F78" s="157">
         <f>F75-K77-C75</f>
-        <v>1103363</v>
-      </c>
-      <c r="I78" s="160"/>
-      <c r="J78" s="161"/>
+        <v>1391401.54</v>
+      </c>
+      <c r="I78" s="158"/>
+      <c r="J78" s="159"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="315" t="s">
+      <c r="D79" s="314" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="315"/>
-      <c r="F79" s="104">
+      <c r="E79" s="314"/>
+      <c r="F79" s="102">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="316" t="s">
+      <c r="I79" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="317"/>
-      <c r="K79" s="318">
+      <c r="J79" s="316"/>
+      <c r="K79" s="317">
         <f>F81+F82+F83</f>
-        <v>-410198.67999999993</v>
-      </c>
-      <c r="L79" s="318"/>
-      <c r="M79" s="162"/>
-      <c r="N79" s="162"/>
-      <c r="O79" s="163"/>
-      <c r="P79" s="162"/>
-      <c r="Q79" s="162"/>
+        <v>3382017.9299999997</v>
+      </c>
+      <c r="L79" s="317"/>
+      <c r="M79" s="160"/>
+      <c r="N79" s="160"/>
+      <c r="O79" s="161"/>
+      <c r="P79" s="160"/>
+      <c r="Q79" s="160"/>
     </row>
     <row r="80" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="164" t="s">
+      <c r="D80" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="165"/>
-      <c r="F80" s="166">
-        <v>0</v>
-      </c>
-      <c r="I80" s="167"/>
-      <c r="J80" s="168"/>
-      <c r="K80" s="169"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="162"/>
-      <c r="N80" s="162"/>
-      <c r="O80" s="163"/>
-      <c r="P80" s="162"/>
-      <c r="Q80" s="162"/>
+      <c r="E80" s="163"/>
+      <c r="F80" s="164">
+        <v>0</v>
+      </c>
+      <c r="I80" s="165"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="167"/>
+      <c r="L80" s="168"/>
+      <c r="M80" s="160"/>
+      <c r="N80" s="160"/>
+      <c r="O80" s="161"/>
+      <c r="P80" s="160"/>
+      <c r="Q80" s="160"/>
     </row>
     <row r="81" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="155" t="s">
+      <c r="E81" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="153">
+      <c r="F81" s="151">
         <f>SUM(F78:F80)</f>
-        <v>-410198.67999999993</v>
-      </c>
-      <c r="H81" s="171"/>
-      <c r="I81" s="172" t="s">
+        <v>-122160.1399999999</v>
+      </c>
+      <c r="H81" s="169"/>
+      <c r="I81" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="173"/>
-      <c r="K81" s="319">
+      <c r="J81" s="171"/>
+      <c r="K81" s="318">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="318"/>
+      <c r="L81" s="317"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="174" t="s">
+      <c r="D82" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="155" t="s">
+      <c r="E82" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="104">
+      <c r="F82" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="175">
+      <c r="C83" s="173">
         <v>44955</v>
       </c>
-      <c r="D83" s="307" t="s">
+      <c r="D83" s="306" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="308"/>
-      <c r="F83" s="176">
-        <v>0</v>
-      </c>
-      <c r="I83" s="309" t="s">
+      <c r="E83" s="307"/>
+      <c r="F83" s="174">
+        <v>3504178.07</v>
+      </c>
+      <c r="I83" s="308" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="310"/>
-      <c r="K83" s="311">
+      <c r="J83" s="309"/>
+      <c r="K83" s="310">
         <f>K79+K81</f>
-        <v>-3855603.75</v>
-      </c>
-      <c r="L83" s="311"/>
+        <v>-63387.14000000013</v>
+      </c>
+      <c r="L83" s="310"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C84" s="177"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="155"/>
-      <c r="F84" s="179"/>
-      <c r="J84" s="180"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="153"/>
+      <c r="F84" s="177"/>
+      <c r="J84" s="178"/>
     </row>
     <row r="85" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="181"/>
-      <c r="J85" s="181"/>
-      <c r="K85" s="182"/>
-      <c r="L85" s="183"/>
+      <c r="I85" s="179"/>
+      <c r="J85" s="179"/>
+      <c r="K85" s="180"/>
+      <c r="L85" s="181"/>
     </row>
     <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="184"/>
-      <c r="C86" s="185"/>
-      <c r="D86" s="186"/>
+      <c r="B86" s="182"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="184"/>
       <c r="E86" s="44"/>
-      <c r="I86" s="181"/>
-      <c r="J86" s="181"/>
-      <c r="K86" s="182"/>
-      <c r="L86" s="183"/>
-      <c r="M86" s="187"/>
-      <c r="N86" s="155"/>
+      <c r="I86" s="179"/>
+      <c r="J86" s="179"/>
+      <c r="K86" s="180"/>
+      <c r="L86" s="181"/>
+      <c r="M86" s="185"/>
+      <c r="N86" s="153"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="184"/>
-      <c r="C87" s="188"/>
+      <c r="B87" s="182"/>
+      <c r="C87" s="186"/>
       <c r="E87" s="44"/>
-      <c r="M87" s="187"/>
-      <c r="N87" s="155"/>
+      <c r="M87" s="185"/>
+      <c r="N87" s="153"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="184"/>
-      <c r="C88" s="188"/>
+      <c r="B88" s="182"/>
+      <c r="C88" s="186"/>
       <c r="E88" s="44"/>
-      <c r="F88" s="189"/>
-      <c r="L88" s="190"/>
+      <c r="F88" s="187"/>
+      <c r="L88" s="188"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="184"/>
-      <c r="C89" s="188"/>
+      <c r="B89" s="182"/>
+      <c r="C89" s="186"/>
       <c r="E89" s="44"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="184"/>
-      <c r="C90" s="188"/>
-      <c r="D90" s="191"/>
+      <c r="B90" s="182"/>
+      <c r="C90" s="186"/>
+      <c r="D90" s="189"/>
       <c r="E90" s="44"/>
-      <c r="F90" s="192"/>
+      <c r="F90" s="190"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D91" s="191"/>
-      <c r="E91" s="193"/>
+      <c r="D91" s="189"/>
+      <c r="E91" s="191"/>
       <c r="F91" s="44"/>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D92" s="191"/>
-      <c r="E92" s="193"/>
+      <c r="D92" s="189"/>
+      <c r="E92" s="191"/>
       <c r="F92" s="44"/>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D93" s="191"/>
-      <c r="E93" s="193"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="191"/>
       <c r="F93" s="44"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D94" s="191"/>
-      <c r="E94" s="193"/>
+      <c r="D94" s="189"/>
+      <c r="E94" s="191"/>
       <c r="F94" s="44"/>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D95" s="191"/>
-      <c r="E95" s="193"/>
+      <c r="D95" s="189"/>
+      <c r="E95" s="191"/>
       <c r="F95" s="44"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D96" s="191"/>
-      <c r="E96" s="193"/>
+      <c r="D96" s="189"/>
+      <c r="E96" s="191"/>
       <c r="F96" s="44"/>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D97" s="191"/>
-      <c r="E97" s="193"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="191"/>
       <c r="F97" s="44"/>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D98" s="191"/>
-      <c r="E98" s="193"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="191"/>
       <c r="F98" s="44"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D99" s="191"/>
-      <c r="E99" s="193"/>
+      <c r="D99" s="189"/>
+      <c r="E99" s="191"/>
       <c r="F99" s="44"/>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D100" s="191"/>
-      <c r="E100" s="193"/>
+      <c r="D100" s="189"/>
+      <c r="E100" s="191"/>
       <c r="F100" s="44"/>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D101" s="191"/>
-      <c r="E101" s="193"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="191"/>
       <c r="F101" s="44"/>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D102" s="191"/>
-      <c r="E102" s="193"/>
+      <c r="D102" s="189"/>
+      <c r="E102" s="191"/>
       <c r="F102" s="44"/>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D103" s="191"/>
-      <c r="E103" s="194"/>
-      <c r="F103" s="192"/>
+      <c r="D103" s="189"/>
+      <c r="E103" s="192"/>
+      <c r="F103" s="190"/>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D104" s="191"/>
-      <c r="E104" s="194"/>
-      <c r="F104" s="192"/>
+      <c r="D104" s="189"/>
+      <c r="E104" s="192"/>
+      <c r="F104" s="190"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D105" s="191"/>
-      <c r="E105" s="194"/>
-      <c r="F105" s="192"/>
+      <c r="D105" s="189"/>
+      <c r="E105" s="192"/>
+      <c r="F105" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5893,901 +6001,901 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="261" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="286" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="259" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="284" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="277" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="275" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="155" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="274" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="153" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="272" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="277" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="275" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="201" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="202" t="s">
+      <c r="I1" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="203"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="206" t="s">
+      <c r="J1" s="201"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="204" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="212" t="s">
+      <c r="G2" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="213" t="s">
+      <c r="I2" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="214" t="s">
+      <c r="J2" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="215" t="s">
+      <c r="K2" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="216" t="s">
+      <c r="L2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="215" t="s">
+      <c r="M2" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="217" t="s">
+      <c r="N2" s="215" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="218">
+      <c r="B3" s="216">
         <v>44924</v>
       </c>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="220">
+      <c r="D3" s="218">
         <v>8208</v>
       </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="222">
+      <c r="E3" s="219"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="220">
         <f>D3-F3</f>
         <v>8208</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224">
+      <c r="L3" s="219"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222">
         <f>K3-M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="225">
+      <c r="B4" s="223">
         <v>44925</v>
       </c>
-      <c r="C4" s="226" t="s">
+      <c r="C4" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="102">
         <v>14274</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="228">
+      <c r="E4" s="225"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="226">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
         <v>14274</v>
       </c>
-      <c r="H4" s="229"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="236"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="234"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="230">
+      <c r="L4" s="219"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="228">
         <f>N3+K4-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="225">
+      <c r="B5" s="223">
         <v>44926</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="102">
         <v>53412.4</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="228">
+      <c r="E5" s="225"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="226">
         <f t="shared" si="0"/>
         <v>53412.4</v>
       </c>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="234"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="230">
+      <c r="L5" s="219"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="228">
         <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="225">
+      <c r="B6" s="223">
         <v>44928</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="102">
         <v>53055.3</v>
       </c>
-      <c r="E6" s="227"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="228">
+      <c r="E6" s="225"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="226">
         <f t="shared" si="0"/>
         <v>53055.3</v>
       </c>
-      <c r="I6" s="238"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="230">
+      <c r="I6" s="236"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="219"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="225">
+      <c r="B7" s="223">
         <v>44929</v>
       </c>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="102">
         <v>46137.599999999999</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="228">
+      <c r="E7" s="225"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="226">
         <f t="shared" si="0"/>
         <v>46137.599999999999</v>
       </c>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="230">
+      <c r="I7" s="236"/>
+      <c r="J7" s="237"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="219"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="225">
+      <c r="B8" s="223">
         <v>44929</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="102">
         <v>6800</v>
       </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="228">
+      <c r="E8" s="225"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="226">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="230">
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="225">
+      <c r="B9" s="223">
         <v>44931</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="102">
         <v>76020.600000000006</v>
       </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="228">
+      <c r="E9" s="225"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="226">
         <f t="shared" si="0"/>
         <v>76020.600000000006</v>
       </c>
-      <c r="I9" s="283"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="230">
+      <c r="I9" s="281"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="225">
+      <c r="B10" s="223">
         <v>44931</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="102">
         <v>13312</v>
       </c>
-      <c r="E10" s="227"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="228">
+      <c r="E10" s="225"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="226">
         <f t="shared" si="0"/>
         <v>13312</v>
       </c>
-      <c r="H10" s="229"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="230">
+      <c r="H10" s="227"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="286"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="225">
+      <c r="B11" s="223">
         <v>44932</v>
       </c>
-      <c r="C11" s="226" t="s">
+      <c r="C11" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="102">
         <v>73262.490000000005</v>
       </c>
-      <c r="E11" s="227"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="228">
+      <c r="E11" s="225"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="226">
         <f t="shared" si="0"/>
         <v>73262.490000000005</v>
       </c>
-      <c r="I11" s="283"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="223"/>
-      <c r="N11" s="230">
+      <c r="I11" s="281"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="225">
+      <c r="B12" s="223">
         <v>44933</v>
       </c>
-      <c r="C12" s="226" t="s">
+      <c r="C12" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="102">
         <v>16756.8</v>
       </c>
-      <c r="E12" s="227"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="228">
+      <c r="E12" s="225"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="226">
         <f t="shared" si="0"/>
         <v>16756.8</v>
       </c>
-      <c r="I12" s="283"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="230">
+      <c r="I12" s="281"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="225">
+      <c r="B13" s="223">
         <v>44933</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="102">
         <v>4893</v>
       </c>
-      <c r="E13" s="227"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="228">
+      <c r="E13" s="225"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="226">
         <f t="shared" si="0"/>
         <v>4893</v>
       </c>
-      <c r="I13" s="283"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="230">
+      <c r="I13" s="281"/>
+      <c r="J13" s="286"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="221"/>
+      <c r="N13" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="225">
+      <c r="B14" s="223">
         <v>44933</v>
       </c>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <v>10042.200000000001</v>
       </c>
-      <c r="E14" s="227"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="228">
+      <c r="E14" s="225"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="226">
         <f t="shared" si="0"/>
         <v>10042.200000000001</v>
       </c>
-      <c r="I14" s="283"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="223"/>
-      <c r="N14" s="230">
+      <c r="I14" s="281"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="225">
+      <c r="B15" s="223">
         <v>44935</v>
       </c>
-      <c r="C15" s="226" t="s">
+      <c r="C15" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <v>79966.960000000006</v>
       </c>
-      <c r="E15" s="227"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="228">
+      <c r="E15" s="225"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="226">
         <f t="shared" si="0"/>
         <v>79966.960000000006</v>
       </c>
-      <c r="I15" s="283"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="221"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="230">
+      <c r="I15" s="281"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="225">
+      <c r="B16" s="223">
         <v>44936</v>
       </c>
-      <c r="C16" s="226" t="s">
+      <c r="C16" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="102">
         <v>77309.399999999994</v>
       </c>
-      <c r="E16" s="227"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="228">
+      <c r="E16" s="225"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="226">
         <f t="shared" si="0"/>
         <v>77309.399999999994</v>
       </c>
-      <c r="I16" s="283"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="223"/>
-      <c r="N16" s="230">
+      <c r="I16" s="281"/>
+      <c r="J16" s="286"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="221"/>
+      <c r="N16" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="225">
+      <c r="B17" s="223">
         <v>44936</v>
       </c>
-      <c r="C17" s="226" t="s">
+      <c r="C17" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="102">
         <v>5629.6</v>
       </c>
-      <c r="E17" s="227"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="228">
+      <c r="E17" s="225"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="226">
         <f t="shared" si="0"/>
         <v>5629.6</v>
       </c>
-      <c r="I17" s="283"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="230">
+      <c r="I17" s="281"/>
+      <c r="J17" s="286"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="225">
+      <c r="B18" s="223">
         <v>44937</v>
       </c>
-      <c r="C18" s="226" t="s">
+      <c r="C18" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="102">
         <v>135787.84</v>
       </c>
-      <c r="E18" s="227"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="228">
+      <c r="E18" s="225"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="226">
         <f t="shared" si="0"/>
         <v>135787.84</v>
       </c>
-      <c r="I18" s="283"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="230">
+      <c r="I18" s="281"/>
+      <c r="J18" s="286"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="225">
+      <c r="B19" s="223">
         <v>44938</v>
       </c>
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="102">
         <v>19678.25</v>
       </c>
-      <c r="E19" s="227"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="228">
+      <c r="E19" s="225"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="226">
         <f t="shared" si="0"/>
         <v>19678.25</v>
       </c>
-      <c r="I19" s="283"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="240"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="223"/>
-      <c r="N19" s="230">
+      <c r="I19" s="281"/>
+      <c r="J19" s="286"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="225">
+      <c r="B20" s="223">
         <v>44939</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="102">
         <v>53428.12</v>
       </c>
-      <c r="E20" s="227"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="228">
+      <c r="E20" s="225"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="226">
         <f t="shared" si="0"/>
         <v>53428.12</v>
       </c>
-      <c r="I20" s="283"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="230">
+      <c r="I20" s="281"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="225">
+      <c r="B21" s="223">
         <v>44940</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="102">
         <v>58795.82</v>
       </c>
-      <c r="E21" s="227"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="228">
+      <c r="E21" s="225"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="226">
         <f t="shared" si="0"/>
         <v>58795.82</v>
       </c>
-      <c r="I21" s="283"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="230">
+      <c r="I21" s="281"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="225">
+      <c r="B22" s="223">
         <v>44940</v>
       </c>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="224" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="102">
         <v>5615.8</v>
       </c>
-      <c r="E22" s="227"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="228">
+      <c r="E22" s="225"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="226">
         <f t="shared" si="0"/>
         <v>5615.8</v>
       </c>
-      <c r="H22" s="235"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="221"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="230">
+      <c r="H22" s="233"/>
+      <c r="I22" s="281"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="225">
+      <c r="B23" s="223">
         <v>44940</v>
       </c>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="102">
         <v>6690</v>
       </c>
-      <c r="E23" s="227"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="228">
+      <c r="E23" s="225"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="226">
         <f t="shared" si="0"/>
         <v>6690</v>
       </c>
-      <c r="H23" s="236"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="230">
+      <c r="H23" s="234"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="286"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="225">
+      <c r="B24" s="223">
         <v>44942</v>
       </c>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="102">
         <v>22678.6</v>
       </c>
-      <c r="E24" s="227"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="228">
+      <c r="E24" s="225"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="226">
         <f t="shared" si="0"/>
         <v>22678.6</v>
       </c>
-      <c r="H24" s="236"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="240"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="230">
+      <c r="H24" s="234"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="286"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="225">
+      <c r="B25" s="223">
         <v>44943</v>
       </c>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="102">
         <v>3581.3</v>
       </c>
-      <c r="E25" s="227"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="228">
+      <c r="E25" s="225"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="226">
         <f t="shared" si="0"/>
         <v>3581.3</v>
       </c>
-      <c r="H25" s="237"/>
-      <c r="I25" s="283"/>
-      <c r="J25" s="288"/>
-      <c r="K25" s="240"/>
-      <c r="L25" s="227"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="230">
+      <c r="H25" s="235"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="225"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="225">
+      <c r="B26" s="223">
         <v>44944</v>
       </c>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="102">
         <v>102999.4</v>
       </c>
-      <c r="E26" s="227"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="228">
+      <c r="E26" s="225"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="226">
         <f t="shared" si="0"/>
         <v>102999.4</v>
       </c>
-      <c r="H26" s="237"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="288"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="230">
+      <c r="H26" s="235"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="286"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="225"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="225">
+      <c r="B27" s="223">
         <v>44945</v>
       </c>
-      <c r="C27" s="226" t="s">
+      <c r="C27" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="102">
         <v>64760.18</v>
       </c>
-      <c r="E27" s="227"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="228">
+      <c r="E27" s="225"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="226">
         <f t="shared" si="0"/>
         <v>64760.18</v>
       </c>
-      <c r="H27" s="237"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="227"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="230">
+      <c r="H27" s="235"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="286"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="225"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="225">
+      <c r="B28" s="223">
         <v>44946</v>
       </c>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="102">
         <v>59473.8</v>
       </c>
-      <c r="E28" s="227"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="228">
+      <c r="E28" s="225"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="226">
         <f t="shared" si="0"/>
         <v>59473.8</v>
       </c>
-      <c r="H28" s="237"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="288"/>
-      <c r="K28" s="240"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="230">
+      <c r="H28" s="235"/>
+      <c r="I28" s="281"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="225"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="225">
+      <c r="B29" s="223">
         <v>44947</v>
       </c>
-      <c r="C29" s="226" t="s">
+      <c r="C29" s="224" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="102">
         <v>110210.4</v>
       </c>
-      <c r="E29" s="227"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="228">
+      <c r="E29" s="225"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="226">
         <f t="shared" si="0"/>
         <v>110210.4</v>
       </c>
-      <c r="H29" s="237"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="288"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="227"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="230">
+      <c r="H29" s="235"/>
+      <c r="I29" s="281"/>
+      <c r="J29" s="286"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="225">
+      <c r="B30" s="223">
         <v>44947</v>
       </c>
-      <c r="C30" s="226" t="s">
+      <c r="C30" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="102">
         <v>40856.28</v>
       </c>
-      <c r="E30" s="227"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="228">
+      <c r="E30" s="225"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="226">
         <f t="shared" si="0"/>
         <v>40856.28</v>
       </c>
-      <c r="H30" s="237"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="288"/>
-      <c r="K30" s="240"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="230">
+      <c r="H30" s="235"/>
+      <c r="I30" s="281"/>
+      <c r="J30" s="286"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="225">
+      <c r="B31" s="223">
         <v>44949</v>
       </c>
-      <c r="C31" s="226" t="s">
+      <c r="C31" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="102">
         <v>109016.94</v>
       </c>
-      <c r="E31" s="227"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="228">
+      <c r="E31" s="225"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="226">
         <f t="shared" si="0"/>
         <v>109016.94</v>
       </c>
-      <c r="H31" s="236"/>
+      <c r="H31" s="234"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="5">
         <v>0</v>
       </c>
-      <c r="L31" s="227"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="230">
+      <c r="L31" s="225"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="225">
+      <c r="B32" s="223">
         <v>44949</v>
       </c>
-      <c r="C32" s="226" t="s">
+      <c r="C32" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="102">
         <v>40107.599999999999</v>
       </c>
-      <c r="E32" s="227"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="228">
+      <c r="E32" s="225"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="226">
         <f t="shared" si="0"/>
         <v>40107.599999999999</v>
       </c>
-      <c r="H32" s="236"/>
+      <c r="H32" s="234"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="5">
         <v>0</v>
       </c>
-      <c r="L32" s="227"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="230">
+      <c r="L32" s="225"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="225">
+      <c r="B33" s="223">
         <v>44950</v>
       </c>
-      <c r="C33" s="226" t="s">
+      <c r="C33" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="102">
         <v>20728.580000000002</v>
       </c>
-      <c r="E33" s="227"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="228">
+      <c r="E33" s="225"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="226">
         <f t="shared" si="0"/>
         <v>20728.580000000002</v>
       </c>
@@ -6796,843 +6904,843 @@
       <c r="K33" s="5">
         <v>0</v>
       </c>
-      <c r="L33" s="227"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="230">
+      <c r="L33" s="225"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="225">
+      <c r="B34" s="223">
         <v>44951</v>
       </c>
-      <c r="C34" s="226" t="s">
+      <c r="C34" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="102">
         <v>87951</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="228">
+      <c r="E34" s="225"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="226">
         <f t="shared" si="0"/>
         <v>87951</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="230">
+      <c r="K34" s="168"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="225">
+      <c r="B35" s="223">
         <v>44952</v>
       </c>
-      <c r="C35" s="226" t="s">
+      <c r="C35" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="102">
         <v>8081.8</v>
       </c>
-      <c r="E35" s="227"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="228">
+      <c r="E35" s="225"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="226">
         <f t="shared" si="0"/>
         <v>8081.8</v>
       </c>
-      <c r="I35" s="238"/>
-      <c r="J35" s="239"/>
-      <c r="K35" s="240"/>
-      <c r="L35" s="227"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="230">
+      <c r="I35" s="236"/>
+      <c r="J35" s="237"/>
+      <c r="K35" s="238"/>
+      <c r="L35" s="225"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="225">
+      <c r="B36" s="223">
         <v>44953</v>
       </c>
-      <c r="C36" s="226" t="s">
+      <c r="C36" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="102">
         <v>14253.22</v>
       </c>
-      <c r="E36" s="227"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="228">
+      <c r="E36" s="225"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="226">
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="326"/>
-      <c r="J36" s="327"/>
-      <c r="K36" s="327"/>
-      <c r="L36" s="328"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="230">
+      <c r="I36" s="325"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="327"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="225">
+      <c r="B37" s="223">
         <v>44954</v>
       </c>
-      <c r="C37" s="226" t="s">
+      <c r="C37" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="104">
+      <c r="D37" s="102">
         <v>9786.4</v>
       </c>
-      <c r="E37" s="227"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="228">
+      <c r="E37" s="225"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="226">
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="326"/>
-      <c r="J37" s="327"/>
-      <c r="K37" s="327"/>
-      <c r="L37" s="328"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="230">
+      <c r="I37" s="325"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="327"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="225"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="227"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="228">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
-      <c r="K38" s="233"/>
-      <c r="L38" s="227"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="230">
+      <c r="B38" s="223"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="229"/>
+      <c r="J38" s="230"/>
+      <c r="K38" s="231"/>
+      <c r="L38" s="225"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="225"/>
-      <c r="C39" s="226"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="241"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="242"/>
-      <c r="J39" s="243"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="241"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="230">
+      <c r="B39" s="223"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="239"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="240"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="239"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="225"/>
-      <c r="C40" s="226"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="241"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="329" t="s">
+      <c r="B40" s="223"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="239"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="330"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="241"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="230">
+      <c r="J40" s="329"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="239"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="244"/>
-      <c r="C41" s="245"/>
-      <c r="D41" s="246"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="331"/>
-      <c r="J41" s="332"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="241"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="230">
+      <c r="B41" s="242"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="330"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="239"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="244"/>
-      <c r="C42" s="245"/>
-      <c r="D42" s="246"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="333"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="241"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="230">
+      <c r="B42" s="242"/>
+      <c r="C42" s="243"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="239"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="332"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="239"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="247"/>
-      <c r="C43" s="248"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="242"/>
-      <c r="J43" s="243"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="241"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="230">
+      <c r="B43" s="245"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="239"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="240"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="239"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="249"/>
-      <c r="C44" s="248"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="242"/>
-      <c r="J44" s="243"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="241"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="230">
+      <c r="B44" s="247"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="249"/>
-      <c r="C45" s="248"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="241"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="242"/>
-      <c r="J45" s="243"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="241"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="230">
+      <c r="B45" s="247"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="240"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="250"/>
-      <c r="C46" s="251"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="241"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="242"/>
-      <c r="J46" s="243"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="241"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="230">
+      <c r="B46" s="248"/>
+      <c r="C46" s="249"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="240"/>
+      <c r="J46" s="241"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="239"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="242"/>
-      <c r="C47" s="251"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="241"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="242"/>
-      <c r="J47" s="243"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="241"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="230">
+      <c r="B47" s="240"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="240"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="239"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="242"/>
-      <c r="C48" s="251"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="241"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="242"/>
-      <c r="J48" s="243"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="241"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="230">
+      <c r="B48" s="240"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="239"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="240"/>
+      <c r="J48" s="241"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="239"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="242"/>
-      <c r="C49" s="252"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="241"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="242"/>
-      <c r="J49" s="243"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="241"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="230">
+      <c r="B49" s="240"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="239"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="240"/>
+      <c r="J49" s="241"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="239"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="242"/>
-      <c r="C50" s="243"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="253"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="254"/>
-      <c r="J50" s="255"/>
+      <c r="B50" s="240"/>
+      <c r="C50" s="241"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="251"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="252"/>
+      <c r="J50" s="253"/>
       <c r="K50" s="44"/>
-      <c r="L50" s="180"/>
+      <c r="L50" s="178"/>
       <c r="M50" s="44"/>
-      <c r="N50" s="230">
+      <c r="N50" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="242"/>
-      <c r="C51" s="243"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="253"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="254"/>
-      <c r="J51" s="255"/>
+      <c r="B51" s="240"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="251"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="252"/>
+      <c r="J51" s="253"/>
       <c r="K51" s="44"/>
-      <c r="L51" s="180"/>
+      <c r="L51" s="178"/>
       <c r="M51" s="44"/>
-      <c r="N51" s="230">
+      <c r="N51" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="242"/>
-      <c r="C52" s="243"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="253"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="254"/>
-      <c r="J52" s="255"/>
+      <c r="B52" s="240"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="252"/>
+      <c r="J52" s="253"/>
       <c r="K52" s="44"/>
-      <c r="L52" s="180"/>
+      <c r="L52" s="178"/>
       <c r="M52" s="44"/>
-      <c r="N52" s="230">
+      <c r="N52" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="242"/>
-      <c r="C53" s="243"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="253"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="254"/>
-      <c r="J53" s="255"/>
+      <c r="B53" s="240"/>
+      <c r="C53" s="241"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="251"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="252"/>
+      <c r="J53" s="253"/>
       <c r="K53" s="44"/>
-      <c r="L53" s="180"/>
+      <c r="L53" s="178"/>
       <c r="M53" s="44"/>
-      <c r="N53" s="230">
+      <c r="N53" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="242"/>
-      <c r="C54" s="243"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="253"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="254"/>
-      <c r="J54" s="255"/>
+      <c r="B54" s="240"/>
+      <c r="C54" s="241"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="251"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="252"/>
+      <c r="J54" s="253"/>
       <c r="K54" s="44"/>
-      <c r="L54" s="180"/>
+      <c r="L54" s="178"/>
       <c r="M54" s="44"/>
-      <c r="N54" s="230">
+      <c r="N54" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="254"/>
-      <c r="C55" s="255"/>
+      <c r="B55" s="252"/>
+      <c r="C55" s="253"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="180"/>
+      <c r="E55" s="178"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="254"/>
-      <c r="J55" s="255"/>
+      <c r="G55" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="252"/>
+      <c r="J55" s="253"/>
       <c r="K55" s="44"/>
-      <c r="L55" s="180"/>
+      <c r="L55" s="178"/>
       <c r="M55" s="44"/>
-      <c r="N55" s="230">
+      <c r="N55" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="242"/>
-      <c r="C56" s="243"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="253"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="242"/>
-      <c r="J56" s="243"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="253"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="230">
+      <c r="B56" s="240"/>
+      <c r="C56" s="241"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="240"/>
+      <c r="J56" s="241"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="251"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="242"/>
-      <c r="C57" s="243"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="253"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="242"/>
-      <c r="J57" s="243"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="253"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="230">
+      <c r="B57" s="240"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="251"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="240"/>
+      <c r="J57" s="241"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="251"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="242"/>
-      <c r="C58" s="243"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="242"/>
-      <c r="J58" s="243"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="253"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="230">
+      <c r="B58" s="240"/>
+      <c r="C58" s="241"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="251"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="240"/>
+      <c r="J58" s="241"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="251"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="242"/>
-      <c r="C59" s="243"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="253"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="242"/>
-      <c r="J59" s="243"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="253"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="230">
+      <c r="B59" s="240"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="240"/>
+      <c r="J59" s="241"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="251"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="242"/>
-      <c r="C60" s="243"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="253"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="242"/>
-      <c r="J60" s="243"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="253"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="230">
+      <c r="B60" s="240"/>
+      <c r="C60" s="241"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="251"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="240"/>
+      <c r="J60" s="241"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="251"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="242"/>
-      <c r="C61" s="243"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="253"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="242"/>
-      <c r="J61" s="243"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="253"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="230">
+      <c r="B61" s="240"/>
+      <c r="C61" s="241"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="240"/>
+      <c r="J61" s="241"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="251"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="242"/>
-      <c r="C62" s="243"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="242"/>
-      <c r="J62" s="243"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="253"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="230">
+      <c r="B62" s="240"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="251"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="240"/>
+      <c r="J62" s="241"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="251"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="242"/>
-      <c r="C63" s="243"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="253"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="242"/>
-      <c r="J63" s="243"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="253"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="230">
+      <c r="B63" s="240"/>
+      <c r="C63" s="241"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="251"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="240"/>
+      <c r="J63" s="241"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="251"/>
+      <c r="M63" s="85"/>
+      <c r="N63" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="242"/>
-      <c r="C64" s="243"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="253"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="242"/>
-      <c r="J64" s="243"/>
-      <c r="K64" s="87"/>
-      <c r="L64" s="253"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="230">
+      <c r="B64" s="240"/>
+      <c r="C64" s="241"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="251"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="240"/>
+      <c r="J64" s="241"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="251"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="242"/>
-      <c r="C65" s="243"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="253"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="242"/>
-      <c r="J65" s="243"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="253"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="230">
+      <c r="B65" s="240"/>
+      <c r="C65" s="241"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="251"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="240"/>
+      <c r="J65" s="241"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="251"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="256"/>
-      <c r="C66" s="257"/>
+      <c r="B66" s="254"/>
+      <c r="C66" s="255"/>
       <c r="D66" s="44">
         <v>0</v>
       </c>
-      <c r="E66" s="258"/>
-      <c r="F66" s="259"/>
-      <c r="G66" s="230">
-        <v>0</v>
-      </c>
-      <c r="I66" s="256"/>
-      <c r="J66" s="260"/>
-      <c r="K66" s="259">
-        <v>0</v>
-      </c>
-      <c r="L66" s="258"/>
-      <c r="M66" s="259"/>
-      <c r="N66" s="230"/>
+      <c r="E66" s="256"/>
+      <c r="F66" s="257"/>
+      <c r="G66" s="228">
+        <v>0</v>
+      </c>
+      <c r="I66" s="254"/>
+      <c r="J66" s="258"/>
+      <c r="K66" s="257">
+        <v>0</v>
+      </c>
+      <c r="L66" s="256"/>
+      <c r="M66" s="257"/>
+      <c r="N66" s="228"/>
     </row>
     <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="262"/>
-      <c r="D67" s="263">
+      <c r="C67" s="260"/>
+      <c r="D67" s="261">
         <f>SUM(D3:D66)</f>
         <v>1513561.68</v>
       </c>
-      <c r="E67" s="264"/>
-      <c r="F67" s="265">
+      <c r="E67" s="262"/>
+      <c r="F67" s="263">
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="266">
+      <c r="G67" s="264">
         <f>SUM(G3:G66)</f>
         <v>1513561.68</v>
       </c>
-      <c r="I67" s="335" t="s">
+      <c r="I67" s="334" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="336"/>
-      <c r="K67" s="267">
+      <c r="J67" s="335"/>
+      <c r="K67" s="265">
         <f>SUM(K3:K66)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="268"/>
-      <c r="M67" s="269">
+      <c r="L67" s="266"/>
+      <c r="M67" s="267">
         <f>SUM(M3:M66)</f>
         <v>0</v>
       </c>
-      <c r="N67" s="266">
+      <c r="N67" s="264">
         <f>N66</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="270"/>
-      <c r="D68" s="271"/>
-      <c r="E68" s="272"/>
+      <c r="C68" s="268"/>
+      <c r="D68" s="269"/>
+      <c r="E68" s="270"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="339" t="s">
+      <c r="G68" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="337"/>
-      <c r="J68" s="338"/>
+      <c r="I68" s="336"/>
+      <c r="J68" s="337"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="272"/>
+      <c r="L68" s="270"/>
       <c r="M68" s="5"/>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="273"/>
+      <c r="C69" s="271"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="272"/>
+      <c r="E69" s="270"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="340"/>
+      <c r="G69" s="339"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="272"/>
+      <c r="L69" s="270"/>
       <c r="M69" s="5"/>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="275"/>
-      <c r="C70" s="276"/>
-      <c r="D70" s="111"/>
+      <c r="B70" s="273"/>
+      <c r="C70" s="274"/>
+      <c r="D70" s="109"/>
       <c r="F70"/>
-      <c r="J70" s="278"/>
+      <c r="J70" s="276"/>
       <c r="M70"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="275"/>
-      <c r="C71" s="276"/>
-      <c r="D71" s="111"/>
+      <c r="B71" s="273"/>
+      <c r="C71" s="274"/>
+      <c r="D71" s="109"/>
       <c r="F71"/>
-      <c r="H71" s="236"/>
-      <c r="I71" s="279"/>
-      <c r="J71" s="280"/>
+      <c r="H71" s="234"/>
+      <c r="I71" s="277"/>
+      <c r="J71" s="278"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="281"/>
+      <c r="L71" s="279"/>
       <c r="M71"/>
     </row>
     <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="278"/>
-      <c r="E72" s="282"/>
+      <c r="C72" s="276"/>
+      <c r="E72" s="280"/>
       <c r="F72"/>
-      <c r="H72" s="236"/>
-      <c r="I72" s="283"/>
-      <c r="J72" s="284"/>
-      <c r="K72" s="285"/>
-      <c r="L72" s="285"/>
+      <c r="H72" s="234"/>
+      <c r="I72" s="281"/>
+      <c r="J72" s="282"/>
+      <c r="K72" s="283"/>
+      <c r="L72" s="283"/>
       <c r="M72"/>
       <c r="N72"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="278"/>
-      <c r="E73" s="282"/>
+      <c r="C73" s="276"/>
+      <c r="E73" s="280"/>
       <c r="F73"/>
-      <c r="H73" s="236"/>
-      <c r="I73" s="283"/>
-      <c r="J73" s="284"/>
-      <c r="K73" s="285"/>
-      <c r="L73" s="285"/>
+      <c r="H73" s="234"/>
+      <c r="I73" s="281"/>
+      <c r="J73" s="282"/>
+      <c r="K73" s="283"/>
+      <c r="L73" s="283"/>
       <c r="M73"/>
       <c r="N73"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="278"/>
-      <c r="D74" s="192"/>
-      <c r="E74" s="282"/>
+      <c r="C74" s="276"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="280"/>
       <c r="F74"/>
-      <c r="H74" s="236"/>
-      <c r="I74" s="283"/>
-      <c r="J74" s="284"/>
-      <c r="K74" s="285"/>
-      <c r="L74" s="285"/>
+      <c r="H74" s="234"/>
+      <c r="I74" s="281"/>
+      <c r="J74" s="282"/>
+      <c r="K74" s="283"/>
+      <c r="L74" s="283"/>
       <c r="M74"/>
       <c r="N74"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="278"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="282"/>
-      <c r="H75" s="236"/>
-      <c r="I75" s="236"/>
-      <c r="J75" s="236"/>
-      <c r="K75" s="236"/>
-      <c r="L75" s="281"/>
+      <c r="C75" s="276"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="280"/>
+      <c r="H75" s="234"/>
+      <c r="I75" s="234"/>
+      <c r="J75" s="234"/>
+      <c r="K75" s="234"/>
+      <c r="L75" s="279"/>
       <c r="M75"/>
       <c r="N75"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="278"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="282"/>
-      <c r="H76" s="236"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="236"/>
-      <c r="K76" s="236"/>
-      <c r="L76" s="281"/>
+      <c r="C76" s="276"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="280"/>
+      <c r="H76" s="234"/>
+      <c r="I76" s="234"/>
+      <c r="J76" s="234"/>
+      <c r="K76" s="234"/>
+      <c r="L76" s="279"/>
       <c r="M76"/>
       <c r="N76"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C77" s="278"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="282"/>
+      <c r="C77" s="276"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="280"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
@@ -7640,9 +7748,9 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="278"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="282"/>
+      <c r="C78" s="276"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="280"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
@@ -7650,9 +7758,9 @@
       <c r="N78"/>
     </row>
     <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C79" s="278"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="282"/>
+      <c r="C79" s="276"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="280"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
@@ -7660,9 +7768,9 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C80" s="278"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="282"/>
+      <c r="C80" s="276"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="280"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -7670,9 +7778,9 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="274"/>
-      <c r="D81" s="111"/>
-      <c r="E81" s="282"/>
+      <c r="C81" s="272"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="280"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -7680,9 +7788,9 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C82" s="274"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="282"/>
+      <c r="C82" s="272"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="280"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -7690,9 +7798,9 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C83" s="274"/>
-      <c r="D83" s="111"/>
-      <c r="E83" s="282"/>
+      <c r="C83" s="272"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="280"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -7700,9 +7808,9 @@
       <c r="N83"/>
     </row>
     <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C84" s="274"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="282"/>
+      <c r="C84" s="272"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="280"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
@@ -7710,9 +7818,9 @@
       <c r="N84"/>
     </row>
     <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C85" s="274"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="282"/>
+      <c r="C85" s="272"/>
+      <c r="D85" s="109"/>
+      <c r="E85" s="280"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
@@ -7720,9 +7828,9 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C86" s="274"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="282"/>
+      <c r="C86" s="272"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="280"/>
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
@@ -7730,9 +7838,9 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C87" s="274"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="282"/>
+      <c r="C87" s="272"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="280"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -7740,9 +7848,9 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C88" s="274"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="282"/>
+      <c r="C88" s="272"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="280"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
@@ -7750,9 +7858,9 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C89" s="274"/>
-      <c r="D89" s="111"/>
-      <c r="E89" s="282"/>
+      <c r="C89" s="272"/>
+      <c r="D89" s="109"/>
+      <c r="E89" s="280"/>
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
@@ -7760,9 +7868,9 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="274"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="282"/>
+      <c r="C90" s="272"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="280"/>
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
@@ -7770,9 +7878,9 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C91" s="274"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="282"/>
+      <c r="C91" s="272"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="280"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
@@ -7780,9 +7888,9 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C92" s="274"/>
-      <c r="D92" s="111"/>
-      <c r="E92" s="282"/>
+      <c r="C92" s="272"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="280"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
@@ -7790,9 +7898,9 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C93" s="274"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="282"/>
+      <c r="C93" s="272"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="280"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
@@ -7800,9 +7908,9 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C94" s="274"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="282"/>
+      <c r="C94" s="272"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="280"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
@@ -7810,9 +7918,9 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C95" s="274"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="282"/>
+      <c r="C95" s="272"/>
+      <c r="D95" s="109"/>
+      <c r="E95" s="280"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -7820,9 +7928,9 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C96" s="274"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="282"/>
+      <c r="C96" s="272"/>
+      <c r="D96" s="109"/>
+      <c r="E96" s="280"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
@@ -7830,9 +7938,9 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="274"/>
-      <c r="D97" s="192"/>
-      <c r="E97" s="282"/>
+      <c r="C97" s="272"/>
+      <c r="D97" s="190"/>
+      <c r="E97" s="280"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
@@ -7840,9 +7948,9 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="274"/>
-      <c r="D98" s="192"/>
-      <c r="E98" s="282"/>
+      <c r="C98" s="272"/>
+      <c r="D98" s="190"/>
+      <c r="E98" s="280"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
@@ -7850,9 +7958,9 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="274"/>
-      <c r="D99" s="192"/>
-      <c r="E99" s="282"/>
+      <c r="C99" s="272"/>
+      <c r="D99" s="190"/>
+      <c r="E99" s="280"/>
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
@@ -7860,9 +7968,9 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="274"/>
-      <c r="D100" s="192"/>
-      <c r="E100" s="282"/>
+      <c r="C100" s="272"/>
+      <c r="D100" s="190"/>
+      <c r="E100" s="280"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
@@ -7870,9 +7978,9 @@
       <c r="N100"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="274"/>
-      <c r="D101" s="192"/>
-      <c r="E101" s="282"/>
+      <c r="C101" s="272"/>
+      <c r="D101" s="190"/>
+      <c r="E101" s="280"/>
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
@@ -7880,8 +7988,8 @@
       <c r="N101"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="274"/>
-      <c r="E102" s="282"/>
+      <c r="C102" s="272"/>
+      <c r="E102" s="280"/>
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
@@ -7889,8 +7997,8 @@
       <c r="N102"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="274"/>
-      <c r="E103" s="282"/>
+      <c r="C103" s="272"/>
+      <c r="E103" s="280"/>
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
@@ -7898,8 +8006,8 @@
       <c r="N103"/>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="274"/>
-      <c r="E104" s="282"/>
+      <c r="C104" s="272"/>
+      <c r="E104" s="280"/>
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
@@ -7907,8 +8015,8 @@
       <c r="N104"/>
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="274"/>
-      <c r="E105" s="282"/>
+      <c r="C105" s="272"/>
+      <c r="E105" s="280"/>
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
@@ -7916,8 +8024,8 @@
       <c r="N105"/>
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="274"/>
-      <c r="E106" s="282"/>
+      <c r="C106" s="272"/>
+      <c r="E106" s="280"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
@@ -7925,8 +8033,8 @@
       <c r="N106"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="274"/>
-      <c r="E107" s="282"/>
+      <c r="C107" s="272"/>
+      <c r="E107" s="280"/>
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
@@ -7934,8 +8042,8 @@
       <c r="N107"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="274"/>
-      <c r="E108" s="282"/>
+      <c r="C108" s="272"/>
+      <c r="E108" s="280"/>
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
@@ -7943,8 +8051,8 @@
       <c r="N108"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="274"/>
-      <c r="E109" s="282"/>
+      <c r="C109" s="272"/>
+      <c r="E109" s="280"/>
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
@@ -7952,8 +8060,8 @@
       <c r="N109"/>
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C110" s="274"/>
-      <c r="E110" s="282"/>
+      <c r="C110" s="272"/>
+      <c r="E110" s="280"/>
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
@@ -7961,8 +8069,8 @@
       <c r="N110"/>
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="274"/>
-      <c r="E111" s="282"/>
+      <c r="C111" s="272"/>
+      <c r="E111" s="280"/>
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
@@ -7970,8 +8078,8 @@
       <c r="N111"/>
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="274"/>
-      <c r="E112" s="282"/>
+      <c r="C112" s="272"/>
+      <c r="E112" s="280"/>
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
@@ -7979,8 +8087,8 @@
       <c r="N112"/>
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C113" s="274"/>
-      <c r="E113" s="282"/>
+      <c r="C113" s="272"/>
+      <c r="E113" s="280"/>
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
@@ -7988,8 +8096,8 @@
       <c r="N113"/>
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C114" s="274"/>
-      <c r="E114" s="282"/>
+      <c r="C114" s="272"/>
+      <c r="E114" s="280"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
@@ -7997,8 +8105,8 @@
       <c r="N114"/>
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C115" s="274"/>
-      <c r="E115" s="282"/>
+      <c r="C115" s="272"/>
+      <c r="E115" s="280"/>
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
@@ -8006,8 +8114,8 @@
       <c r="N115"/>
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C116" s="274"/>
-      <c r="E116" s="282"/>
+      <c r="C116" s="272"/>
+      <c r="E116" s="280"/>
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
@@ -8015,8 +8123,8 @@
       <c r="N116"/>
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C117" s="274"/>
-      <c r="E117" s="282"/>
+      <c r="C117" s="272"/>
+      <c r="E117" s="280"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -8024,8 +8132,8 @@
       <c r="N117"/>
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C118" s="274"/>
-      <c r="E118" s="282"/>
+      <c r="C118" s="272"/>
+      <c r="E118" s="280"/>
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
@@ -8033,8 +8141,8 @@
       <c r="N118"/>
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C119" s="274"/>
-      <c r="E119" s="282"/>
+      <c r="C119" s="272"/>
+      <c r="E119" s="280"/>
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
@@ -8042,8 +8150,8 @@
       <c r="N119"/>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C120" s="274"/>
-      <c r="E120" s="282"/>
+      <c r="C120" s="272"/>
+      <c r="E120" s="280"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
@@ -8051,8 +8159,8 @@
       <c r="N120"/>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C121" s="274"/>
-      <c r="E121" s="282"/>
+      <c r="C121" s="272"/>
+      <c r="E121" s="280"/>
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
@@ -8060,8 +8168,8 @@
       <c r="N121"/>
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C122" s="274"/>
-      <c r="E122" s="282"/>
+      <c r="C122" s="272"/>
+      <c r="E122" s="280"/>
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
@@ -8069,8 +8177,8 @@
       <c r="N122"/>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C123" s="274"/>
-      <c r="E123" s="282"/>
+      <c r="C123" s="272"/>
+      <c r="E123" s="280"/>
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  ZAVALETA  ENERO  2023.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>POLLO-TOSTADAS</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-QUESOS-CREMA</t>
+  </si>
+  <si>
+    <t>NOMINA # 05</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-CHISTORRA</t>
   </si>
 </sst>
 </file>
@@ -799,12 +811,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -851,6 +857,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="82">
     <border>
@@ -2060,7 +2072,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2274,24 +2285,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="11" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="8" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2344,11 +2355,11 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="39" fillId="0" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="12" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2414,13 +2425,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="44" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2455,13 +2466,91 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2488,83 +2577,8 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="9" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2575,34 +2589,34 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="13" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="13" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="13" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="13" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="13" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2611,9 +2625,7 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="3" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3381,14 +3393,14 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="152" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="151" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="6"/>
@@ -3408,23 +3420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -3434,24 +3446,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="291" t="s">
+      <c r="P3" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="300" t="s">
+      <c r="R3" s="289" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3466,14 +3478,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="302" t="s">
+      <c r="E4" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="303"/>
-      <c r="H4" s="304" t="s">
+      <c r="F4" s="292"/>
+      <c r="H4" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="305"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -3483,11 +3495,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="292"/>
+      <c r="P4" s="317"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="301"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -3532,7 +3544,7 @@
       <c r="Q5" s="45">
         <v>0</v>
       </c>
-      <c r="R5" s="287">
+      <c r="R5" s="286">
         <v>31174</v>
       </c>
     </row>
@@ -3622,7 +3634,7 @@
       <c r="Q7" s="45">
         <v>0</v>
       </c>
-      <c r="R7" s="287">
+      <c r="R7" s="286">
         <v>1028</v>
       </c>
     </row>
@@ -3711,7 +3723,7 @@
       <c r="Q9" s="45">
         <v>0</v>
       </c>
-      <c r="R9" s="287">
+      <c r="R9" s="286">
         <v>2037</v>
       </c>
     </row>
@@ -3847,7 +3859,7 @@
       <c r="N12" s="43">
         <v>41413</v>
       </c>
-      <c r="O12" s="193"/>
+      <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="2"/>
         <v>127155</v>
@@ -3887,7 +3899,7 @@
       <c r="J13" s="40">
         <v>44943</v>
       </c>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="121" t="s">
         <v>85</v>
       </c>
       <c r="L13" s="49">
@@ -3899,7 +3911,7 @@
       <c r="N13" s="43">
         <v>41848</v>
       </c>
-      <c r="O13" s="193"/>
+      <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
         <v>104143</v>
@@ -3946,7 +3958,7 @@
       <c r="N14" s="43">
         <v>39331</v>
       </c>
-      <c r="O14" s="194"/>
+      <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="2"/>
         <v>122772</v>
@@ -4175,7 +4187,7 @@
       <c r="J19" s="40">
         <v>44949</v>
       </c>
-      <c r="K19" s="288" t="s">
+      <c r="K19" s="287" t="s">
         <v>93</v>
       </c>
       <c r="L19" s="59">
@@ -4287,7 +4299,7 @@
       <c r="Q21" s="45">
         <v>0</v>
       </c>
-      <c r="R21" s="287">
+      <c r="R21" s="286">
         <v>45047</v>
       </c>
     </row>
@@ -4318,7 +4330,7 @@
       <c r="J22" s="40">
         <v>44952</v>
       </c>
-      <c r="K22" s="340" t="s">
+      <c r="K22" s="288" t="s">
         <v>97</v>
       </c>
       <c r="L22" s="62">
@@ -4338,7 +4350,7 @@
       <c r="Q22" s="45">
         <v>0</v>
       </c>
-      <c r="R22" s="287">
+      <c r="R22" s="286">
         <v>492648</v>
       </c>
       <c r="S22" s="63"/>
@@ -4348,29 +4360,37 @@
       <c r="B23" s="32">
         <v>44953</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="33">
+        <v>2432</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>98</v>
+      </c>
       <c r="E23" s="35">
         <v>44953</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>97988</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>44953</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="39">
+        <v>3835</v>
+      </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <v>48348</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>43373</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>97988</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="0"/>
@@ -4385,33 +4405,47 @@
       <c r="B24" s="32">
         <v>44954</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>14943</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>99</v>
+      </c>
       <c r="E24" s="35">
         <v>44954</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>134301</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>44954</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="67"/>
+      <c r="I24" s="39">
+        <v>4836</v>
+      </c>
+      <c r="J24" s="66">
+        <v>44954</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="67">
+        <v>18691</v>
+      </c>
       <c r="M24" s="42">
-        <v>0</v>
+        <v>38323</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>57308</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134101</v>
+      </c>
+      <c r="Q24" s="340">
+        <f t="shared" si="0"/>
+        <v>-200</v>
       </c>
       <c r="R24" s="46">
         <v>0</v>
@@ -4422,29 +4456,37 @@
       <c r="B25" s="32">
         <v>44955</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>3370</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>101</v>
+      </c>
       <c r="E25" s="35">
         <v>44955</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>119517</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>44955</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>420</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="48"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <v>73652</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>42075</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>119517</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="0"/>
@@ -4662,7 +4704,7 @@
       <c r="N32" s="43">
         <v>0</v>
       </c>
-      <c r="P32" s="83">
+      <c r="P32" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4678,7 +4720,7 @@
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="84"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
@@ -4686,7 +4728,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="74"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="85"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="42">
         <v>0</v>
       </c>
@@ -4708,7 +4750,7 @@
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="84"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
@@ -4717,7 +4759,7 @@
       <c r="J34" s="74">
         <v>44940</v>
       </c>
-      <c r="K34" s="86" t="s">
+      <c r="K34" s="85" t="s">
         <v>81</v>
       </c>
       <c r="L34" s="49">
@@ -4746,20 +4788,20 @@
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="87"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="79"/>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="88">
+      <c r="J35" s="87">
         <v>44947</v>
       </c>
-      <c r="K35" s="89" t="s">
+      <c r="K35" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="90">
+      <c r="L35" s="89">
         <v>20083.5</v>
       </c>
       <c r="M35" s="42">
@@ -4782,18 +4824,22 @@
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="93"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="86"/>
-      <c r="L36" s="49"/>
+      <c r="J36" s="74">
+        <v>44954</v>
+      </c>
+      <c r="K36" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="49">
+        <v>19643.560000000001</v>
+      </c>
       <c r="M36" s="42">
         <v>0</v>
       </c>
@@ -4814,15 +4860,15 @@
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
-      <c r="G37" s="93"/>
+      <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
       <c r="J37" s="74"/>
-      <c r="K37" s="86"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="49"/>
       <c r="M37" s="42">
         <v>0</v>
@@ -4844,15 +4890,15 @@
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
-      <c r="G38" s="93"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
       <c r="J38" s="74"/>
-      <c r="K38" s="96"/>
+      <c r="K38" s="95"/>
       <c r="L38" s="49"/>
       <c r="M38" s="42">
         <v>0</v>
@@ -4874,15 +4920,15 @@
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="97"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="93"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="92"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="99"/>
+      <c r="I39" s="98"/>
       <c r="J39" s="82"/>
-      <c r="K39" s="96"/>
+      <c r="K39" s="95"/>
       <c r="L39" s="49"/>
       <c r="M39" s="42">
         <v>0</v>
@@ -4904,13 +4950,13 @@
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="35"/>
-      <c r="F40" s="98"/>
+      <c r="F40" s="97"/>
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="99"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="74"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
@@ -4934,13 +4980,13 @@
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="103"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="35"/>
-      <c r="F41" s="98"/>
+      <c r="F41" s="97"/>
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
-      <c r="I41" s="104"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="74"/>
       <c r="K41" s="48"/>
       <c r="L41" s="49"/>
@@ -4964,13 +5010,13 @@
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="103"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="35"/>
-      <c r="F42" s="98"/>
+      <c r="F42" s="97"/>
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
-      <c r="I42" s="104"/>
+      <c r="I42" s="103"/>
       <c r="J42" s="74"/>
       <c r="K42" s="48"/>
       <c r="L42" s="49"/>
@@ -4994,13 +5040,13 @@
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="103"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="35"/>
-      <c r="F43" s="98"/>
+      <c r="F43" s="97"/>
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="104"/>
+      <c r="I43" s="103"/>
       <c r="J43" s="74"/>
       <c r="K43" s="48"/>
       <c r="L43" s="49"/>
@@ -5024,13 +5070,13 @@
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="98"/>
+      <c r="F44" s="97"/>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="104"/>
+      <c r="I44" s="103"/>
       <c r="J44" s="74"/>
       <c r="K44" s="48"/>
       <c r="L44" s="49"/>
@@ -5054,13 +5100,13 @@
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="32"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="98"/>
+      <c r="F45" s="97"/>
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="104"/>
+      <c r="I45" s="103"/>
       <c r="J45" s="74"/>
       <c r="K45" s="48"/>
       <c r="L45" s="49"/>
@@ -5084,13 +5130,13 @@
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="32"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="35"/>
-      <c r="F46" s="98"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="104"/>
+      <c r="I46" s="103"/>
       <c r="J46" s="74"/>
       <c r="K46" s="48"/>
       <c r="L46" s="49"/>
@@ -5114,20 +5160,20 @@
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="32"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="105"/>
       <c r="G47" s="37"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="104"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="103"/>
       <c r="J47" s="74"/>
       <c r="K47" s="48"/>
       <c r="L47" s="49"/>
-      <c r="M47" s="100">
-        <v>0</v>
-      </c>
-      <c r="N47" s="101">
+      <c r="M47" s="99">
+        <v>0</v>
+      </c>
+      <c r="N47" s="100">
         <v>0</v>
       </c>
       <c r="P47" s="69">
@@ -5144,22 +5190,22 @@
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
       <c r="G48" s="37"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="104"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="103"/>
       <c r="J48" s="74"/>
       <c r="K48" s="48"/>
       <c r="L48" s="49"/>
-      <c r="M48" s="108"/>
+      <c r="M48" s="107"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
         <v>0</v>
       </c>
-      <c r="Q48" s="109">
+      <c r="Q48" s="108">
         <v>0</v>
       </c>
       <c r="R48" s="46">
@@ -5169,31 +5215,31 @@
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="32"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="111"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="110"/>
       <c r="G49" s="37"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="104"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="103"/>
       <c r="J49" s="74"/>
-      <c r="K49" s="86"/>
+      <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="311">
+      <c r="M49" s="300">
         <f>SUM(M5:M40)</f>
-        <v>1239286.5</v>
-      </c>
-      <c r="N49" s="311">
+        <v>1399609.5</v>
+      </c>
+      <c r="N49" s="300">
         <f>SUM(N5:N40)</f>
-        <v>767844</v>
-      </c>
-      <c r="P49" s="112">
+        <v>910600</v>
+      </c>
+      <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2885375.46</v>
-      </c>
-      <c r="Q49" s="323">
+        <v>3236981.46</v>
+      </c>
+      <c r="Q49" s="312">
         <f>SUM(Q5:Q40)</f>
-        <v>1</v>
+        <v>-199</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -5202,21 +5248,21 @@
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="32"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="111"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="110"/>
       <c r="G50" s="37"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="312"/>
-      <c r="N50" s="312"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="301"/>
+      <c r="N50" s="301"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="324"/>
-      <c r="R50" s="113">
+      <c r="Q50" s="313"/>
+      <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
       </c>
@@ -5224,237 +5270,237 @@
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="32"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="111"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="110"/>
       <c r="G51" s="37"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="104"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="103"/>
       <c r="J51" s="74"/>
-      <c r="K51" s="86"/>
+      <c r="K51" s="85"/>
       <c r="L51" s="49"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
       <c r="P51" s="44"/>
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
       <c r="B52" s="32"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="111"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="110"/>
       <c r="G52" s="37"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="104"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="103"/>
       <c r="J52" s="74"/>
       <c r="K52" s="48"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
       <c r="P52" s="44"/>
       <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
       <c r="B53" s="32"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="111"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="110"/>
       <c r="G53" s="37"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="104"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="103"/>
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="289">
+      <c r="M53" s="314">
         <f>M49+N49</f>
-        <v>2007130.5</v>
-      </c>
-      <c r="N53" s="290"/>
+        <v>2310209.5</v>
+      </c>
+      <c r="N53" s="315"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="32"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="111"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="110"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="104"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="103"/>
       <c r="J54" s="74"/>
       <c r="K54" s="48"/>
       <c r="L54" s="49"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
       <c r="P54" s="44"/>
       <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="111"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="110"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
       <c r="P55" s="44"/>
       <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
       <c r="B56" s="32"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="111"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="110"/>
       <c r="G56" s="37"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="120"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="119"/>
       <c r="L56" s="68"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
       <c r="P56" s="44"/>
       <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
       <c r="B57" s="32"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="111"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="110"/>
       <c r="G57" s="37"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="121"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="114"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="121"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="113"/>
       <c r="P57" s="44"/>
       <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="32"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="111"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="110"/>
       <c r="G58" s="37"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
       <c r="B59" s="32"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="111"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="110"/>
       <c r="G59" s="37"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
       <c r="P59" s="44"/>
       <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="111"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="110"/>
       <c r="G60" s="37"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="121"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="113"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="111"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="110"/>
       <c r="G61" s="37"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="121"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="121"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="32"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="111"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="110"/>
       <c r="G62" s="37"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="121"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="32"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="111"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="110"/>
       <c r="G63" s="37"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="121"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="19"/>
     </row>
@@ -5462,17 +5508,17 @@
       <c r="A64" s="31"/>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="111"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="110"/>
       <c r="G64" s="37"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="121"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="114"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
       <c r="P64" s="44"/>
       <c r="Q64" s="19"/>
     </row>
@@ -5480,17 +5526,17 @@
       <c r="A65" s="31"/>
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="111"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="110"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="104"/>
-      <c r="J65" s="121"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="85"/>
-      <c r="M65" s="114"/>
-      <c r="N65" s="114"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="120"/>
+      <c r="K65" s="121"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
       <c r="P65" s="44"/>
       <c r="Q65" s="19"/>
     </row>
@@ -5498,17 +5544,17 @@
       <c r="A66" s="31"/>
       <c r="B66" s="32"/>
       <c r="C66" s="33"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="111"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="110"/>
       <c r="G66" s="37"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="121"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="121"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
       <c r="P66" s="44"/>
       <c r="Q66" s="19"/>
     </row>
@@ -5516,17 +5562,17 @@
       <c r="A67" s="31"/>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="111"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="110"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="121"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
       <c r="P67" s="44"/>
       <c r="Q67" s="19"/>
     </row>
@@ -5534,15 +5580,15 @@
       <c r="A68" s="31"/>
       <c r="B68" s="32"/>
       <c r="C68" s="33"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="128"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="127"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="130"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="129"/>
       <c r="K68" s="73"/>
-      <c r="L68" s="85"/>
+      <c r="L68" s="84"/>
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
       <c r="P68" s="44"/>
@@ -5550,17 +5596,17 @@
     </row>
     <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31"/>
-      <c r="B69" s="131"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="133"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="132"/>
       <c r="F69" s="44"/>
       <c r="G69" s="37"/>
-      <c r="H69" s="107"/>
+      <c r="H69" s="106"/>
       <c r="I69" s="44"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="85"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="84"/>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
       <c r="P69" s="44"/>
@@ -5568,16 +5614,16 @@
     </row>
     <row r="70" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31"/>
-      <c r="B70" s="135"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="136"/>
-      <c r="E70" s="137"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="136"/>
       <c r="F70" s="44"/>
-      <c r="H70" s="138"/>
+      <c r="H70" s="137"/>
       <c r="I70" s="44"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="85"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="84"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
       <c r="P70" s="44"/>
@@ -5585,16 +5631,16 @@
     </row>
     <row r="71" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
-      <c r="B71" s="135"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="137"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="135"/>
+      <c r="E71" s="136"/>
       <c r="F71" s="44"/>
-      <c r="H71" s="138"/>
+      <c r="H71" s="137"/>
       <c r="I71" s="44"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="85"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="84"/>
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
       <c r="P71" s="44"/>
@@ -5602,16 +5648,16 @@
     </row>
     <row r="72" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
-      <c r="B72" s="135"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="137"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="136"/>
       <c r="F72" s="44"/>
-      <c r="H72" s="138"/>
+      <c r="H72" s="137"/>
       <c r="I72" s="44"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="85"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="125"/>
+      <c r="L72" s="84"/>
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
       <c r="P72" s="44"/>
@@ -5619,16 +5665,16 @@
     </row>
     <row r="73" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31"/>
-      <c r="B73" s="135"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="137"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="136"/>
       <c r="F73" s="44"/>
-      <c r="H73" s="138"/>
+      <c r="H73" s="137"/>
       <c r="I73" s="44"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="85"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="84"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
       <c r="P73" s="44"/>
@@ -5636,15 +5682,15 @@
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31"/>
-      <c r="B74" s="135"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="137"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="136"/>
       <c r="F74" s="44"/>
-      <c r="H74" s="138"/>
+      <c r="H74" s="137"/>
       <c r="I74" s="44"/>
-      <c r="J74" s="139"/>
-      <c r="K74" s="140"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="139"/>
       <c r="L74" s="13"/>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
@@ -5652,39 +5698,39 @@
       <c r="Q74" s="19"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="141" t="s">
+      <c r="B75" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="142">
+      <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>297481.5</v>
-      </c>
-      <c r="D75" s="143"/>
-      <c r="E75" s="144" t="s">
+        <v>318226.5</v>
+      </c>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="145">
+      <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2313441</v>
-      </c>
-      <c r="G75" s="146"/>
-      <c r="H75" s="144" t="s">
+        <v>2665247</v>
+      </c>
+      <c r="G75" s="145"/>
+      <c r="H75" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="147">
+      <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>44220</v>
-      </c>
-      <c r="J75" s="148"/>
-      <c r="K75" s="149" t="s">
+        <v>53311</v>
+      </c>
+      <c r="J75" s="147"/>
+      <c r="K75" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="150">
+      <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>580337.96</v>
-      </c>
-      <c r="M75" s="151"/>
-      <c r="N75" s="151"/>
+        <v>618672.52</v>
+      </c>
+      <c r="M75" s="150"/>
+      <c r="N75" s="150"/>
       <c r="P75" s="44"/>
       <c r="Q75" s="19"/>
     </row>
@@ -5696,273 +5742,279 @@
       <c r="Q76" s="19"/>
     </row>
     <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="153"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="152"/>
+      <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="319" t="s">
+      <c r="H77" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="320"/>
-      <c r="J77" s="155"/>
-      <c r="K77" s="321">
+      <c r="I77" s="309"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="310">
         <f>I75+L75</f>
-        <v>624557.96</v>
-      </c>
-      <c r="L77" s="322"/>
-      <c r="M77" s="156"/>
-      <c r="N77" s="156"/>
+        <v>671983.52</v>
+      </c>
+      <c r="L77" s="311"/>
+      <c r="M77" s="155"/>
+      <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="313" t="s">
+      <c r="D78" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="313"/>
-      <c r="F78" s="157">
+      <c r="E78" s="302"/>
+      <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1391401.54</v>
-      </c>
-      <c r="I78" s="158"/>
-      <c r="J78" s="159"/>
+        <v>1675036.98</v>
+      </c>
+      <c r="I78" s="157"/>
+      <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="314" t="s">
+      <c r="D79" s="303" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="314"/>
-      <c r="F79" s="102">
+      <c r="E79" s="303"/>
+      <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="315" t="s">
+      <c r="I79" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="316"/>
-      <c r="K79" s="317">
+      <c r="J79" s="305"/>
+      <c r="K79" s="306">
         <f>F81+F82+F83</f>
-        <v>3382017.9299999997</v>
-      </c>
-      <c r="L79" s="317"/>
-      <c r="M79" s="160"/>
-      <c r="N79" s="160"/>
-      <c r="O79" s="161"/>
-      <c r="P79" s="160"/>
-      <c r="Q79" s="160"/>
+        <v>3665653.37</v>
+      </c>
+      <c r="L79" s="306"/>
+      <c r="M79" s="159"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="160"/>
+      <c r="P79" s="159"/>
+      <c r="Q79" s="159"/>
     </row>
     <row r="80" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="162" t="s">
+      <c r="D80" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="163"/>
-      <c r="F80" s="164">
-        <v>0</v>
-      </c>
-      <c r="I80" s="165"/>
-      <c r="J80" s="166"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="168"/>
-      <c r="M80" s="160"/>
-      <c r="N80" s="160"/>
-      <c r="O80" s="161"/>
-      <c r="P80" s="160"/>
-      <c r="Q80" s="160"/>
+      <c r="E80" s="162"/>
+      <c r="F80" s="163">
+        <v>0</v>
+      </c>
+      <c r="I80" s="164"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="166"/>
+      <c r="L80" s="167"/>
+      <c r="M80" s="159"/>
+      <c r="N80" s="159"/>
+      <c r="O80" s="160"/>
+      <c r="P80" s="159"/>
+      <c r="Q80" s="159"/>
     </row>
     <row r="81" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="153" t="s">
+      <c r="E81" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="151">
+      <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-122160.1399999999</v>
-      </c>
-      <c r="H81" s="169"/>
-      <c r="I81" s="170" t="s">
+        <v>161475.30000000005</v>
+      </c>
+      <c r="H81" s="168"/>
+      <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="171"/>
-      <c r="K81" s="318">
+      <c r="J81" s="170"/>
+      <c r="K81" s="307">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="317"/>
+      <c r="L81" s="306"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="172" t="s">
+      <c r="D82" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="153" t="s">
+      <c r="E82" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="102">
+      <c r="F82" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="173">
+      <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="306" t="s">
+      <c r="D83" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="307"/>
-      <c r="F83" s="174">
+      <c r="E83" s="296"/>
+      <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="308" t="s">
+      <c r="I83" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="309"/>
-      <c r="K83" s="310">
+      <c r="J83" s="298"/>
+      <c r="K83" s="299">
         <f>K79+K81</f>
-        <v>-63387.14000000013</v>
-      </c>
-      <c r="L83" s="310"/>
+        <v>220248.30000000028</v>
+      </c>
+      <c r="L83" s="299"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C84" s="175"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="153"/>
-      <c r="F84" s="177"/>
-      <c r="J84" s="178"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="152"/>
+      <c r="F84" s="176"/>
+      <c r="J84" s="177"/>
     </row>
     <row r="85" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="179"/>
-      <c r="J85" s="179"/>
-      <c r="K85" s="180"/>
-      <c r="L85" s="181"/>
+      <c r="I85" s="178"/>
+      <c r="J85" s="178"/>
+      <c r="K85" s="179"/>
+      <c r="L85" s="180"/>
     </row>
     <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="182"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="184"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="182"/>
+      <c r="D86" s="183"/>
       <c r="E86" s="44"/>
-      <c r="I86" s="179"/>
-      <c r="J86" s="179"/>
-      <c r="K86" s="180"/>
-      <c r="L86" s="181"/>
-      <c r="M86" s="185"/>
-      <c r="N86" s="153"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="178"/>
+      <c r="K86" s="179"/>
+      <c r="L86" s="180"/>
+      <c r="M86" s="184"/>
+      <c r="N86" s="152"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="182"/>
-      <c r="C87" s="186"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="185"/>
       <c r="E87" s="44"/>
-      <c r="M87" s="185"/>
-      <c r="N87" s="153"/>
+      <c r="M87" s="184"/>
+      <c r="N87" s="152"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="182"/>
-      <c r="C88" s="186"/>
+      <c r="B88" s="181"/>
+      <c r="C88" s="185"/>
       <c r="E88" s="44"/>
-      <c r="F88" s="187"/>
-      <c r="L88" s="188"/>
+      <c r="F88" s="186"/>
+      <c r="L88" s="187"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="182"/>
-      <c r="C89" s="186"/>
+      <c r="B89" s="181"/>
+      <c r="C89" s="185"/>
       <c r="E89" s="44"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="182"/>
-      <c r="C90" s="186"/>
-      <c r="D90" s="189"/>
+      <c r="B90" s="181"/>
+      <c r="C90" s="185"/>
+      <c r="D90" s="188"/>
       <c r="E90" s="44"/>
-      <c r="F90" s="190"/>
+      <c r="F90" s="189"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D91" s="189"/>
-      <c r="E91" s="191"/>
+      <c r="D91" s="188"/>
+      <c r="E91" s="190"/>
       <c r="F91" s="44"/>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D92" s="189"/>
-      <c r="E92" s="191"/>
+      <c r="D92" s="188"/>
+      <c r="E92" s="190"/>
       <c r="F92" s="44"/>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D93" s="189"/>
-      <c r="E93" s="191"/>
+      <c r="D93" s="188"/>
+      <c r="E93" s="190"/>
       <c r="F93" s="44"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D94" s="189"/>
-      <c r="E94" s="191"/>
+      <c r="D94" s="188"/>
+      <c r="E94" s="190"/>
       <c r="F94" s="44"/>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D95" s="189"/>
-      <c r="E95" s="191"/>
+      <c r="D95" s="188"/>
+      <c r="E95" s="190"/>
       <c r="F95" s="44"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D96" s="189"/>
-      <c r="E96" s="191"/>
+      <c r="D96" s="188"/>
+      <c r="E96" s="190"/>
       <c r="F96" s="44"/>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D97" s="189"/>
-      <c r="E97" s="191"/>
+      <c r="D97" s="188"/>
+      <c r="E97" s="190"/>
       <c r="F97" s="44"/>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D98" s="189"/>
-      <c r="E98" s="191"/>
+      <c r="D98" s="188"/>
+      <c r="E98" s="190"/>
       <c r="F98" s="44"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D99" s="189"/>
-      <c r="E99" s="191"/>
+      <c r="D99" s="188"/>
+      <c r="E99" s="190"/>
       <c r="F99" s="44"/>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D100" s="189"/>
-      <c r="E100" s="191"/>
+      <c r="D100" s="188"/>
+      <c r="E100" s="190"/>
       <c r="F100" s="44"/>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D101" s="189"/>
-      <c r="E101" s="191"/>
+      <c r="D101" s="188"/>
+      <c r="E101" s="190"/>
       <c r="F101" s="44"/>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D102" s="189"/>
-      <c r="E102" s="191"/>
+      <c r="D102" s="188"/>
+      <c r="E102" s="190"/>
       <c r="F102" s="44"/>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D103" s="189"/>
-      <c r="E103" s="192"/>
-      <c r="F103" s="190"/>
+      <c r="D103" s="188"/>
+      <c r="E103" s="191"/>
+      <c r="F103" s="189"/>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D104" s="189"/>
-      <c r="E104" s="192"/>
-      <c r="F104" s="190"/>
+      <c r="D104" s="188"/>
+      <c r="E104" s="191"/>
+      <c r="F104" s="189"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D105" s="189"/>
-      <c r="E105" s="192"/>
-      <c r="F105" s="190"/>
+      <c r="D105" s="188"/>
+      <c r="E105" s="191"/>
+      <c r="F105" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -5979,12 +6031,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6010,892 +6056,892 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="259" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="284" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="258" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="283" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="275" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="153" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="272" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="271" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="275" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="199" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="200" t="s">
+      <c r="I1" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="204" t="s">
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="203" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="208" t="s">
+      <c r="E2" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="210" t="s">
+      <c r="G2" s="209" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="212" t="s">
+      <c r="J2" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="213" t="s">
+      <c r="K2" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="214" t="s">
+      <c r="L2" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="213" t="s">
+      <c r="M2" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="215" t="s">
+      <c r="N2" s="214" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="216">
+      <c r="B3" s="215">
         <v>44924</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="218">
+      <c r="D3" s="217">
         <v>8208</v>
       </c>
-      <c r="E3" s="219"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="220">
+      <c r="E3" s="218"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="219">
         <f>D3-F3</f>
         <v>8208</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="222">
+      <c r="L3" s="218"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221">
         <f>K3-M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="223">
+      <c r="B4" s="222">
         <v>44925</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D4" s="101">
         <v>14274</v>
       </c>
-      <c r="E4" s="225"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="226">
+      <c r="E4" s="224"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
         <v>14274</v>
       </c>
-      <c r="H4" s="227"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="234"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="233"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="228">
+      <c r="L4" s="218"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="227">
         <f>N3+K4-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="223">
+      <c r="B5" s="222">
         <v>44926</v>
       </c>
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="101">
         <v>53412.4</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="226">
+      <c r="E5" s="224"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="225">
         <f t="shared" si="0"/>
         <v>53412.4</v>
       </c>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="221"/>
-      <c r="N5" s="228">
+      <c r="L5" s="218"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="227">
         <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="223">
+      <c r="B6" s="222">
         <v>44928</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="101">
         <v>53055.3</v>
       </c>
-      <c r="E6" s="225"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="226">
+      <c r="E6" s="224"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="225">
         <f t="shared" si="0"/>
         <v>53055.3</v>
       </c>
-      <c r="I6" s="236"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="228">
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="223">
+      <c r="B7" s="222">
         <v>44929</v>
       </c>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="101">
         <v>46137.599999999999</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="226">
+      <c r="E7" s="224"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="225">
         <f t="shared" si="0"/>
         <v>46137.599999999999</v>
       </c>
-      <c r="I7" s="236"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="228">
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="223">
+      <c r="B8" s="222">
         <v>44929</v>
       </c>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="101">
         <v>6800</v>
       </c>
-      <c r="E8" s="225"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="226">
+      <c r="E8" s="224"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="225">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="221"/>
-      <c r="N8" s="228">
+      <c r="I8" s="235"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="223">
+      <c r="B9" s="222">
         <v>44931</v>
       </c>
-      <c r="C9" s="224" t="s">
+      <c r="C9" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <v>76020.600000000006</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="226">
+      <c r="E9" s="224"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="225">
         <f t="shared" si="0"/>
         <v>76020.600000000006</v>
       </c>
-      <c r="I9" s="281"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="228">
+      <c r="I9" s="280"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="223">
+      <c r="B10" s="222">
         <v>44931</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <v>13312</v>
       </c>
-      <c r="E10" s="225"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="226">
+      <c r="E10" s="224"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="225">
         <f t="shared" si="0"/>
         <v>13312</v>
       </c>
-      <c r="H10" s="227"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="228">
+      <c r="H10" s="226"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="285"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="223">
+      <c r="B11" s="222">
         <v>44932</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="101">
         <v>73262.490000000005</v>
       </c>
-      <c r="E11" s="225"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="226">
+      <c r="E11" s="224"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="225">
         <f t="shared" si="0"/>
         <v>73262.490000000005</v>
       </c>
-      <c r="I11" s="281"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="228">
+      <c r="I11" s="280"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="223">
+      <c r="B12" s="222">
         <v>44933</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="101">
         <v>16756.8</v>
       </c>
-      <c r="E12" s="225"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="226">
+      <c r="E12" s="224"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="225">
         <f t="shared" si="0"/>
         <v>16756.8</v>
       </c>
-      <c r="I12" s="281"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="228">
+      <c r="I12" s="280"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="223">
+      <c r="B13" s="222">
         <v>44933</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="101">
         <v>4893</v>
       </c>
-      <c r="E13" s="225"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="226">
+      <c r="E13" s="224"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="225">
         <f t="shared" si="0"/>
         <v>4893</v>
       </c>
-      <c r="I13" s="281"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="228">
+      <c r="I13" s="280"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="223">
+      <c r="B14" s="222">
         <v>44933</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="101">
         <v>10042.200000000001</v>
       </c>
-      <c r="E14" s="225"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="226">
+      <c r="E14" s="224"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="225">
         <f t="shared" si="0"/>
         <v>10042.200000000001</v>
       </c>
-      <c r="I14" s="281"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="228">
+      <c r="I14" s="280"/>
+      <c r="J14" s="285"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="223">
+      <c r="B15" s="222">
         <v>44935</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <v>79966.960000000006</v>
       </c>
-      <c r="E15" s="225"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="226">
+      <c r="E15" s="224"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="225">
         <f t="shared" si="0"/>
         <v>79966.960000000006</v>
       </c>
-      <c r="I15" s="281"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="228">
+      <c r="I15" s="280"/>
+      <c r="J15" s="285"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="223">
+      <c r="B16" s="222">
         <v>44936</v>
       </c>
-      <c r="C16" s="224" t="s">
+      <c r="C16" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="101">
         <v>77309.399999999994</v>
       </c>
-      <c r="E16" s="225"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="226">
+      <c r="E16" s="224"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="225">
         <f t="shared" si="0"/>
         <v>77309.399999999994</v>
       </c>
-      <c r="I16" s="281"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="228">
+      <c r="I16" s="280"/>
+      <c r="J16" s="285"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="223">
+      <c r="B17" s="222">
         <v>44936</v>
       </c>
-      <c r="C17" s="224" t="s">
+      <c r="C17" s="223" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <v>5629.6</v>
       </c>
-      <c r="E17" s="225"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="226">
+      <c r="E17" s="224"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="225">
         <f t="shared" si="0"/>
         <v>5629.6</v>
       </c>
-      <c r="I17" s="281"/>
-      <c r="J17" s="286"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="228">
+      <c r="I17" s="280"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="223">
+      <c r="B18" s="222">
         <v>44937</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="101">
         <v>135787.84</v>
       </c>
-      <c r="E18" s="225"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="226">
+      <c r="E18" s="224"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="225">
         <f t="shared" si="0"/>
         <v>135787.84</v>
       </c>
-      <c r="I18" s="281"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="228">
+      <c r="I18" s="280"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="223">
+      <c r="B19" s="222">
         <v>44938</v>
       </c>
-      <c r="C19" s="224" t="s">
+      <c r="C19" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="102">
+      <c r="D19" s="101">
         <v>19678.25</v>
       </c>
-      <c r="E19" s="225"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="226">
+      <c r="E19" s="224"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="225">
         <f t="shared" si="0"/>
         <v>19678.25</v>
       </c>
-      <c r="I19" s="281"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="228">
+      <c r="I19" s="280"/>
+      <c r="J19" s="285"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="223">
+      <c r="B20" s="222">
         <v>44939</v>
       </c>
-      <c r="C20" s="224" t="s">
+      <c r="C20" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="102">
+      <c r="D20" s="101">
         <v>53428.12</v>
       </c>
-      <c r="E20" s="225"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="226">
+      <c r="E20" s="224"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="225">
         <f t="shared" si="0"/>
         <v>53428.12</v>
       </c>
-      <c r="I20" s="281"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="228">
+      <c r="I20" s="280"/>
+      <c r="J20" s="285"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="223">
+      <c r="B21" s="222">
         <v>44940</v>
       </c>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="101">
         <v>58795.82</v>
       </c>
-      <c r="E21" s="225"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="226">
+      <c r="E21" s="224"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="225">
         <f t="shared" si="0"/>
         <v>58795.82</v>
       </c>
-      <c r="I21" s="281"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="228">
+      <c r="I21" s="280"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="223">
+      <c r="B22" s="222">
         <v>44940</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="223" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="102">
+      <c r="D22" s="101">
         <v>5615.8</v>
       </c>
-      <c r="E22" s="225"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="226">
+      <c r="E22" s="224"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="225">
         <f t="shared" si="0"/>
         <v>5615.8</v>
       </c>
-      <c r="H22" s="233"/>
-      <c r="I22" s="281"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="238"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="232"/>
-      <c r="N22" s="228">
+      <c r="H22" s="232"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="285"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="223">
+      <c r="B23" s="222">
         <v>44940</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="101">
         <v>6690</v>
       </c>
-      <c r="E23" s="225"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="226">
+      <c r="E23" s="224"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="225">
         <f t="shared" si="0"/>
         <v>6690</v>
       </c>
-      <c r="H23" s="234"/>
-      <c r="I23" s="281"/>
-      <c r="J23" s="286"/>
-      <c r="K23" s="238"/>
-      <c r="L23" s="225"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="228">
+      <c r="H23" s="233"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="285"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="223">
+      <c r="B24" s="222">
         <v>44942</v>
       </c>
-      <c r="C24" s="224" t="s">
+      <c r="C24" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="102">
+      <c r="D24" s="101">
         <v>22678.6</v>
       </c>
-      <c r="E24" s="225"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="226">
+      <c r="E24" s="224"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="225">
         <f t="shared" si="0"/>
         <v>22678.6</v>
       </c>
-      <c r="H24" s="234"/>
-      <c r="I24" s="281"/>
-      <c r="J24" s="286"/>
-      <c r="K24" s="238"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="228">
+      <c r="H24" s="233"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="285"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="223">
+      <c r="B25" s="222">
         <v>44943</v>
       </c>
-      <c r="C25" s="224" t="s">
+      <c r="C25" s="223" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="102">
+      <c r="D25" s="101">
         <v>3581.3</v>
       </c>
-      <c r="E25" s="225"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="226">
+      <c r="E25" s="224"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="225">
         <f t="shared" si="0"/>
         <v>3581.3</v>
       </c>
-      <c r="H25" s="235"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="225"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="228">
+      <c r="H25" s="234"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="285"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="223">
+      <c r="B26" s="222">
         <v>44944</v>
       </c>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="102">
+      <c r="D26" s="101">
         <v>102999.4</v>
       </c>
-      <c r="E26" s="225"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="226">
+      <c r="E26" s="224"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="225">
         <f t="shared" si="0"/>
         <v>102999.4</v>
       </c>
-      <c r="H26" s="235"/>
-      <c r="I26" s="281"/>
-      <c r="J26" s="286"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="225"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="228">
+      <c r="H26" s="234"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="285"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="223">
+      <c r="B27" s="222">
         <v>44945</v>
       </c>
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="102">
+      <c r="D27" s="101">
         <v>64760.18</v>
       </c>
-      <c r="E27" s="225"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="226">
+      <c r="E27" s="224"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="225">
         <f t="shared" si="0"/>
         <v>64760.18</v>
       </c>
-      <c r="H27" s="235"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="225"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="228">
+      <c r="H27" s="234"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="237"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="223">
+      <c r="B28" s="222">
         <v>44946</v>
       </c>
-      <c r="C28" s="224" t="s">
+      <c r="C28" s="223" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="102">
+      <c r="D28" s="101">
         <v>59473.8</v>
       </c>
-      <c r="E28" s="225"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="226">
+      <c r="E28" s="224"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="225">
         <f t="shared" si="0"/>
         <v>59473.8</v>
       </c>
-      <c r="H28" s="235"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="225"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="228">
+      <c r="H28" s="234"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="285"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="223">
+      <c r="B29" s="222">
         <v>44947</v>
       </c>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="223" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="102">
+      <c r="D29" s="101">
         <v>110210.4</v>
       </c>
-      <c r="E29" s="225"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="226">
+      <c r="E29" s="224"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="225">
         <f t="shared" si="0"/>
         <v>110210.4</v>
       </c>
-      <c r="H29" s="235"/>
-      <c r="I29" s="281"/>
-      <c r="J29" s="286"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="228">
+      <c r="H29" s="234"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="285"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="223">
+      <c r="B30" s="222">
         <v>44947</v>
       </c>
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="102">
+      <c r="D30" s="101">
         <v>40856.28</v>
       </c>
-      <c r="E30" s="225"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="226">
+      <c r="E30" s="224"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="225">
         <f t="shared" si="0"/>
         <v>40856.28</v>
       </c>
-      <c r="H30" s="235"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="286"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="225"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="228">
+      <c r="H30" s="234"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="285"/>
+      <c r="K30" s="237"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="223">
+      <c r="B31" s="222">
         <v>44949</v>
       </c>
-      <c r="C31" s="224" t="s">
+      <c r="C31" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="102">
+      <c r="D31" s="101">
         <v>109016.94</v>
       </c>
-      <c r="E31" s="225"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="226">
+      <c r="E31" s="224"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="225">
         <f t="shared" si="0"/>
         <v>109016.94</v>
       </c>
-      <c r="H31" s="234"/>
+      <c r="H31" s="233"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" s="5">
         <v>0</v>
       </c>
-      <c r="L31" s="225"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="228">
+      <c r="L31" s="224"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="223">
+      <c r="B32" s="222">
         <v>44949</v>
       </c>
-      <c r="C32" s="224" t="s">
+      <c r="C32" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="102">
+      <c r="D32" s="101">
         <v>40107.599999999999</v>
       </c>
-      <c r="E32" s="225"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="226">
+      <c r="E32" s="224"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="225">
         <f t="shared" si="0"/>
         <v>40107.599999999999</v>
       </c>
-      <c r="H32" s="234"/>
+      <c r="H32" s="233"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" s="5">
         <v>0</v>
       </c>
-      <c r="L32" s="225"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="228">
+      <c r="L32" s="224"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="223">
+      <c r="B33" s="222">
         <v>44950</v>
       </c>
-      <c r="C33" s="224" t="s">
+      <c r="C33" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="102">
+      <c r="D33" s="101">
         <v>20728.580000000002</v>
       </c>
-      <c r="E33" s="225"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="226">
+      <c r="E33" s="224"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="225">
         <f t="shared" si="0"/>
         <v>20728.580000000002</v>
       </c>
@@ -6904,78 +6950,78 @@
       <c r="K33" s="5">
         <v>0</v>
       </c>
-      <c r="L33" s="225"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="228">
+      <c r="L33" s="224"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="223">
+      <c r="B34" s="222">
         <v>44951</v>
       </c>
-      <c r="C34" s="224" t="s">
+      <c r="C34" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="102">
+      <c r="D34" s="101">
         <v>87951</v>
       </c>
-      <c r="E34" s="225"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="226">
+      <c r="E34" s="224"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="225">
         <f t="shared" si="0"/>
         <v>87951</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="228">
+      <c r="K34" s="167"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="223">
+      <c r="B35" s="222">
         <v>44952</v>
       </c>
-      <c r="C35" s="224" t="s">
+      <c r="C35" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="102">
+      <c r="D35" s="101">
         <v>8081.8</v>
       </c>
-      <c r="E35" s="225"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="226">
+      <c r="E35" s="224"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="225">
         <f t="shared" si="0"/>
         <v>8081.8</v>
       </c>
-      <c r="I35" s="236"/>
-      <c r="J35" s="237"/>
-      <c r="K35" s="238"/>
-      <c r="L35" s="225"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="228">
+      <c r="I35" s="235"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="237"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="223">
+      <c r="B36" s="222">
         <v>44953</v>
       </c>
-      <c r="C36" s="224" t="s">
+      <c r="C36" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="102">
+      <c r="D36" s="101">
         <v>14253.22</v>
       </c>
-      <c r="E36" s="225"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="226">
+      <c r="E36" s="224"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="225">
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
@@ -6983,25 +7029,25 @@
       <c r="J36" s="326"/>
       <c r="K36" s="326"/>
       <c r="L36" s="327"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="228">
+      <c r="M36" s="101"/>
+      <c r="N36" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="223">
+      <c r="B37" s="222">
         <v>44954</v>
       </c>
-      <c r="C37" s="224" t="s">
+      <c r="C37" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="102">
+      <c r="D37" s="101">
         <v>9786.4</v>
       </c>
-      <c r="E37" s="225"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="226">
+      <c r="E37" s="224"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="225">
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
@@ -7009,59 +7055,59 @@
       <c r="J37" s="326"/>
       <c r="K37" s="326"/>
       <c r="L37" s="327"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="228">
+      <c r="M37" s="101"/>
+      <c r="N37" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="223"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="226">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="229"/>
-      <c r="J38" s="230"/>
-      <c r="K38" s="231"/>
-      <c r="L38" s="225"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="228">
+      <c r="B38" s="222"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="228"/>
+      <c r="J38" s="229"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="223"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="239"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="240"/>
-      <c r="J39" s="241"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="239"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="228">
+      <c r="B39" s="222"/>
+      <c r="C39" s="223"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="239"/>
+      <c r="J39" s="240"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="223"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="239"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="102">
+      <c r="B40" s="222"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7069,546 +7115,546 @@
         <v>35</v>
       </c>
       <c r="J40" s="329"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="239"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="228">
+      <c r="K40" s="84"/>
+      <c r="L40" s="238"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="242"/>
-      <c r="C41" s="243"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="102">
+      <c r="B41" s="241"/>
+      <c r="C41" s="242"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="330"/>
       <c r="J41" s="331"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="239"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="228">
+      <c r="K41" s="84"/>
+      <c r="L41" s="238"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="242"/>
-      <c r="C42" s="243"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="102">
+      <c r="B42" s="241"/>
+      <c r="C42" s="242"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="332"/>
       <c r="J42" s="333"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="239"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="228">
+      <c r="K42" s="84"/>
+      <c r="L42" s="238"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="245"/>
-      <c r="C43" s="246"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="239"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="240"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="239"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="228">
+      <c r="B43" s="244"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="238"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="247"/>
-      <c r="C44" s="246"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="240"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="228">
+      <c r="B44" s="246"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="238"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="239"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="247"/>
-      <c r="C45" s="246"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="240"/>
-      <c r="J45" s="241"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="228">
+      <c r="B45" s="246"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="238"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="248"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="240"/>
-      <c r="J46" s="241"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="239"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="228">
+      <c r="B46" s="247"/>
+      <c r="C46" s="248"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="239"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="238"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="240"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="239"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="240"/>
-      <c r="J47" s="241"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="239"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="228">
+      <c r="B47" s="239"/>
+      <c r="C47" s="248"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="239"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="238"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="240"/>
-      <c r="C48" s="249"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="239"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="240"/>
-      <c r="J48" s="241"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="239"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="228">
+      <c r="B48" s="239"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="238"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="238"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="240"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="239"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="240"/>
-      <c r="J49" s="241"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="239"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="228">
+      <c r="B49" s="239"/>
+      <c r="C49" s="249"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="239"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="238"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="240"/>
-      <c r="C50" s="241"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="251"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="252"/>
-      <c r="J50" s="253"/>
+      <c r="B50" s="239"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="251"/>
+      <c r="J50" s="252"/>
       <c r="K50" s="44"/>
-      <c r="L50" s="178"/>
+      <c r="L50" s="177"/>
       <c r="M50" s="44"/>
-      <c r="N50" s="228">
+      <c r="N50" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="240"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="251"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="252"/>
-      <c r="J51" s="253"/>
+      <c r="B51" s="239"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="250"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="251"/>
+      <c r="J51" s="252"/>
       <c r="K51" s="44"/>
-      <c r="L51" s="178"/>
+      <c r="L51" s="177"/>
       <c r="M51" s="44"/>
-      <c r="N51" s="228">
+      <c r="N51" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="240"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="252"/>
-      <c r="J52" s="253"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="250"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="251"/>
+      <c r="J52" s="252"/>
       <c r="K52" s="44"/>
-      <c r="L52" s="178"/>
+      <c r="L52" s="177"/>
       <c r="M52" s="44"/>
-      <c r="N52" s="228">
+      <c r="N52" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="240"/>
-      <c r="C53" s="241"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="251"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="252"/>
-      <c r="J53" s="253"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="240"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="250"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="251"/>
+      <c r="J53" s="252"/>
       <c r="K53" s="44"/>
-      <c r="L53" s="178"/>
+      <c r="L53" s="177"/>
       <c r="M53" s="44"/>
-      <c r="N53" s="228">
+      <c r="N53" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="240"/>
-      <c r="C54" s="241"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="251"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="252"/>
-      <c r="J54" s="253"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="250"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="251"/>
+      <c r="J54" s="252"/>
       <c r="K54" s="44"/>
-      <c r="L54" s="178"/>
+      <c r="L54" s="177"/>
       <c r="M54" s="44"/>
-      <c r="N54" s="228">
+      <c r="N54" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="252"/>
-      <c r="C55" s="253"/>
+      <c r="B55" s="251"/>
+      <c r="C55" s="252"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="178"/>
+      <c r="E55" s="177"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="252"/>
-      <c r="J55" s="253"/>
+      <c r="G55" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="251"/>
+      <c r="J55" s="252"/>
       <c r="K55" s="44"/>
-      <c r="L55" s="178"/>
+      <c r="L55" s="177"/>
       <c r="M55" s="44"/>
-      <c r="N55" s="228">
+      <c r="N55" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="240"/>
-      <c r="C56" s="241"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="251"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="240"/>
-      <c r="J56" s="241"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="251"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="228">
+      <c r="B56" s="239"/>
+      <c r="C56" s="240"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="250"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="239"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="250"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="240"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="251"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="240"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="251"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="228">
+      <c r="B57" s="239"/>
+      <c r="C57" s="240"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="239"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="250"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="240"/>
-      <c r="C58" s="241"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="251"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="240"/>
-      <c r="J58" s="241"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="251"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="228">
+      <c r="B58" s="239"/>
+      <c r="C58" s="240"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="250"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="239"/>
+      <c r="J58" s="240"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="250"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="240"/>
-      <c r="C59" s="241"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="240"/>
-      <c r="J59" s="241"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="251"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="228">
+      <c r="B59" s="239"/>
+      <c r="C59" s="240"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="239"/>
+      <c r="J59" s="240"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="250"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="240"/>
-      <c r="C60" s="241"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="251"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="240"/>
-      <c r="J60" s="241"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="251"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="228">
+      <c r="B60" s="239"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="250"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="239"/>
+      <c r="J60" s="240"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="250"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="240"/>
-      <c r="C61" s="241"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="251"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="240"/>
-      <c r="J61" s="241"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="251"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="228">
+      <c r="B61" s="239"/>
+      <c r="C61" s="240"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="250"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="239"/>
+      <c r="J61" s="240"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="250"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="240"/>
-      <c r="C62" s="241"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="251"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="240"/>
-      <c r="J62" s="241"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="251"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="228">
+      <c r="B62" s="239"/>
+      <c r="C62" s="240"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="250"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="239"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="250"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="240"/>
-      <c r="C63" s="241"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="251"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="240"/>
-      <c r="J63" s="241"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="251"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="228">
+      <c r="B63" s="239"/>
+      <c r="C63" s="240"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="250"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="239"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="250"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="240"/>
-      <c r="C64" s="241"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="251"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="240"/>
-      <c r="J64" s="241"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="251"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="228">
+      <c r="B64" s="239"/>
+      <c r="C64" s="240"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="239"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="250"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="240"/>
-      <c r="C65" s="241"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="102">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="240"/>
-      <c r="J65" s="241"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="251"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="228">
+      <c r="B65" s="239"/>
+      <c r="C65" s="240"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="250"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="239"/>
+      <c r="J65" s="240"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="250"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="227">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="254"/>
-      <c r="C66" s="255"/>
+      <c r="B66" s="253"/>
+      <c r="C66" s="254"/>
       <c r="D66" s="44">
         <v>0</v>
       </c>
-      <c r="E66" s="256"/>
-      <c r="F66" s="257"/>
-      <c r="G66" s="228">
-        <v>0</v>
-      </c>
-      <c r="I66" s="254"/>
-      <c r="J66" s="258"/>
-      <c r="K66" s="257">
-        <v>0</v>
-      </c>
-      <c r="L66" s="256"/>
-      <c r="M66" s="257"/>
-      <c r="N66" s="228"/>
+      <c r="E66" s="255"/>
+      <c r="F66" s="256"/>
+      <c r="G66" s="227">
+        <v>0</v>
+      </c>
+      <c r="I66" s="253"/>
+      <c r="J66" s="257"/>
+      <c r="K66" s="256">
+        <v>0</v>
+      </c>
+      <c r="L66" s="255"/>
+      <c r="M66" s="256"/>
+      <c r="N66" s="227"/>
     </row>
     <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="260"/>
-      <c r="D67" s="261">
+      <c r="C67" s="259"/>
+      <c r="D67" s="260">
         <f>SUM(D3:D66)</f>
         <v>1513561.68</v>
       </c>
-      <c r="E67" s="262"/>
-      <c r="F67" s="263">
+      <c r="E67" s="261"/>
+      <c r="F67" s="262">
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="264">
+      <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
         <v>1513561.68</v>
       </c>
@@ -7616,24 +7662,24 @@
         <v>35</v>
       </c>
       <c r="J67" s="335"/>
-      <c r="K67" s="265">
+      <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="266"/>
-      <c r="M67" s="267">
+      <c r="L67" s="265"/>
+      <c r="M67" s="266">
         <f>SUM(M3:M66)</f>
         <v>0</v>
       </c>
-      <c r="N67" s="264">
+      <c r="N67" s="263">
         <f>N66</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="268"/>
-      <c r="D68" s="269"/>
-      <c r="E68" s="270"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="268"/>
+      <c r="E68" s="269"/>
       <c r="F68" s="5"/>
       <c r="G68" s="338" t="s">
         <v>36</v>
@@ -7641,106 +7687,106 @@
       <c r="I68" s="336"/>
       <c r="J68" s="337"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="270"/>
+      <c r="L68" s="269"/>
       <c r="M68" s="5"/>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="271"/>
+      <c r="C69" s="270"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="270"/>
+      <c r="E69" s="269"/>
       <c r="F69" s="5"/>
       <c r="G69" s="339"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="270"/>
+      <c r="L69" s="269"/>
       <c r="M69" s="5"/>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="273"/>
-      <c r="C70" s="274"/>
-      <c r="D70" s="109"/>
+      <c r="B70" s="272"/>
+      <c r="C70" s="273"/>
+      <c r="D70" s="108"/>
       <c r="F70"/>
-      <c r="J70" s="276"/>
+      <c r="J70" s="275"/>
       <c r="M70"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="273"/>
-      <c r="C71" s="274"/>
-      <c r="D71" s="109"/>
+      <c r="B71" s="272"/>
+      <c r="C71" s="273"/>
+      <c r="D71" s="108"/>
       <c r="F71"/>
-      <c r="H71" s="234"/>
-      <c r="I71" s="277"/>
-      <c r="J71" s="278"/>
+      <c r="H71" s="233"/>
+      <c r="I71" s="276"/>
+      <c r="J71" s="277"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="279"/>
+      <c r="L71" s="278"/>
       <c r="M71"/>
     </row>
     <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="276"/>
-      <c r="E72" s="280"/>
+      <c r="C72" s="275"/>
+      <c r="E72" s="279"/>
       <c r="F72"/>
-      <c r="H72" s="234"/>
-      <c r="I72" s="281"/>
-      <c r="J72" s="282"/>
-      <c r="K72" s="283"/>
-      <c r="L72" s="283"/>
+      <c r="H72" s="233"/>
+      <c r="I72" s="280"/>
+      <c r="J72" s="281"/>
+      <c r="K72" s="282"/>
+      <c r="L72" s="282"/>
       <c r="M72"/>
       <c r="N72"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="276"/>
-      <c r="E73" s="280"/>
+      <c r="C73" s="275"/>
+      <c r="E73" s="279"/>
       <c r="F73"/>
-      <c r="H73" s="234"/>
-      <c r="I73" s="281"/>
-      <c r="J73" s="282"/>
-      <c r="K73" s="283"/>
-      <c r="L73" s="283"/>
+      <c r="H73" s="233"/>
+      <c r="I73" s="280"/>
+      <c r="J73" s="281"/>
+      <c r="K73" s="282"/>
+      <c r="L73" s="282"/>
       <c r="M73"/>
       <c r="N73"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="276"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="280"/>
+      <c r="C74" s="275"/>
+      <c r="D74" s="189"/>
+      <c r="E74" s="279"/>
       <c r="F74"/>
-      <c r="H74" s="234"/>
-      <c r="I74" s="281"/>
-      <c r="J74" s="282"/>
-      <c r="K74" s="283"/>
-      <c r="L74" s="283"/>
+      <c r="H74" s="233"/>
+      <c r="I74" s="280"/>
+      <c r="J74" s="281"/>
+      <c r="K74" s="282"/>
+      <c r="L74" s="282"/>
       <c r="M74"/>
       <c r="N74"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="276"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="280"/>
-      <c r="H75" s="234"/>
-      <c r="I75" s="234"/>
-      <c r="J75" s="234"/>
-      <c r="K75" s="234"/>
-      <c r="L75" s="279"/>
+      <c r="C75" s="275"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="279"/>
+      <c r="H75" s="233"/>
+      <c r="I75" s="233"/>
+      <c r="J75" s="233"/>
+      <c r="K75" s="233"/>
+      <c r="L75" s="278"/>
       <c r="M75"/>
       <c r="N75"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="276"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="280"/>
-      <c r="H76" s="234"/>
-      <c r="I76" s="234"/>
-      <c r="J76" s="234"/>
-      <c r="K76" s="234"/>
-      <c r="L76" s="279"/>
+      <c r="C76" s="275"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="279"/>
+      <c r="H76" s="233"/>
+      <c r="I76" s="233"/>
+      <c r="J76" s="233"/>
+      <c r="K76" s="233"/>
+      <c r="L76" s="278"/>
       <c r="M76"/>
       <c r="N76"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C77" s="276"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="280"/>
+      <c r="C77" s="275"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="279"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
@@ -7748,9 +7794,9 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="276"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="280"/>
+      <c r="C78" s="275"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="279"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
@@ -7758,9 +7804,9 @@
       <c r="N78"/>
     </row>
     <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C79" s="276"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="280"/>
+      <c r="C79" s="275"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="279"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
@@ -7768,9 +7814,9 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C80" s="276"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="280"/>
+      <c r="C80" s="275"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="279"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -7778,9 +7824,9 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="272"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="280"/>
+      <c r="C81" s="271"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="279"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -7788,9 +7834,9 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C82" s="272"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="280"/>
+      <c r="C82" s="271"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="279"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -7798,9 +7844,9 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C83" s="272"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="280"/>
+      <c r="C83" s="271"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="279"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -7808,9 +7854,9 @@
       <c r="N83"/>
     </row>
     <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C84" s="272"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="280"/>
+      <c r="C84" s="271"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="279"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
@@ -7818,9 +7864,9 @@
       <c r="N84"/>
     </row>
     <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C85" s="272"/>
-      <c r="D85" s="109"/>
-      <c r="E85" s="280"/>
+      <c r="C85" s="271"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="279"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
@@ -7828,9 +7874,9 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C86" s="272"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="280"/>
+      <c r="C86" s="271"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="279"/>
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
@@ -7838,9 +7884,9 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C87" s="272"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="280"/>
+      <c r="C87" s="271"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="279"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -7848,9 +7894,9 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C88" s="272"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="280"/>
+      <c r="C88" s="271"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="279"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
@@ -7858,9 +7904,9 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C89" s="272"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="280"/>
+      <c r="C89" s="271"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="279"/>
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
@@ -7868,9 +7914,9 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="272"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="280"/>
+      <c r="C90" s="271"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="279"/>
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
@@ -7878,9 +7924,9 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C91" s="272"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="280"/>
+      <c r="C91" s="271"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="279"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
@@ -7888,9 +7934,9 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C92" s="272"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="280"/>
+      <c r="C92" s="271"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="279"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
@@ -7898,9 +7944,9 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C93" s="272"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="280"/>
+      <c r="C93" s="271"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="279"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
@@ -7908,9 +7954,9 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C94" s="272"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="280"/>
+      <c r="C94" s="271"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="279"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
@@ -7918,9 +7964,9 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C95" s="272"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="280"/>
+      <c r="C95" s="271"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="279"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -7928,9 +7974,9 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C96" s="272"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="280"/>
+      <c r="C96" s="271"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="279"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
@@ -7938,9 +7984,9 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C97" s="272"/>
-      <c r="D97" s="190"/>
-      <c r="E97" s="280"/>
+      <c r="C97" s="271"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="279"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
@@ -7948,9 +7994,9 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="272"/>
-      <c r="D98" s="190"/>
-      <c r="E98" s="280"/>
+      <c r="C98" s="271"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="279"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
@@ -7958,9 +8004,9 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="272"/>
-      <c r="D99" s="190"/>
-      <c r="E99" s="280"/>
+      <c r="C99" s="271"/>
+      <c r="D99" s="189"/>
+      <c r="E99" s="279"/>
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
@@ -7968,9 +8014,9 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="272"/>
-      <c r="D100" s="190"/>
-      <c r="E100" s="280"/>
+      <c r="C100" s="271"/>
+      <c r="D100" s="189"/>
+      <c r="E100" s="279"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
@@ -7978,9 +8024,9 @@
       <c r="N100"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="272"/>
-      <c r="D101" s="190"/>
-      <c r="E101" s="280"/>
+      <c r="C101" s="271"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="279"/>
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
@@ -7988,8 +8034,8 @@
       <c r="N101"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="272"/>
-      <c r="E102" s="280"/>
+      <c r="C102" s="271"/>
+      <c r="E102" s="279"/>
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
@@ -7997,8 +8043,8 @@
       <c r="N102"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="272"/>
-      <c r="E103" s="280"/>
+      <c r="C103" s="271"/>
+      <c r="E103" s="279"/>
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
@@ -8006,8 +8052,8 @@
       <c r="N103"/>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C104" s="272"/>
-      <c r="E104" s="280"/>
+      <c r="C104" s="271"/>
+      <c r="E104" s="279"/>
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
@@ -8015,8 +8061,8 @@
       <c r="N104"/>
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="272"/>
-      <c r="E105" s="280"/>
+      <c r="C105" s="271"/>
+      <c r="E105" s="279"/>
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
@@ -8024,8 +8070,8 @@
       <c r="N105"/>
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C106" s="272"/>
-      <c r="E106" s="280"/>
+      <c r="C106" s="271"/>
+      <c r="E106" s="279"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
@@ -8033,8 +8079,8 @@
       <c r="N106"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C107" s="272"/>
-      <c r="E107" s="280"/>
+      <c r="C107" s="271"/>
+      <c r="E107" s="279"/>
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
@@ -8042,8 +8088,8 @@
       <c r="N107"/>
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C108" s="272"/>
-      <c r="E108" s="280"/>
+      <c r="C108" s="271"/>
+      <c r="E108" s="279"/>
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
@@ -8051,8 +8097,8 @@
       <c r="N108"/>
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C109" s="272"/>
-      <c r="E109" s="280"/>
+      <c r="C109" s="271"/>
+      <c r="E109" s="279"/>
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
@@ -8060,8 +8106,8 @@
       <c r="N109"/>
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C110" s="272"/>
-      <c r="E110" s="280"/>
+      <c r="C110" s="271"/>
+      <c r="E110" s="279"/>
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
@@ -8069,8 +8115,8 @@
       <c r="N110"/>
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C111" s="272"/>
-      <c r="E111" s="280"/>
+      <c r="C111" s="271"/>
+      <c r="E111" s="279"/>
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
@@ -8078,8 +8124,8 @@
       <c r="N111"/>
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C112" s="272"/>
-      <c r="E112" s="280"/>
+      <c r="C112" s="271"/>
+      <c r="E112" s="279"/>
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
@@ -8087,8 +8133,8 @@
       <c r="N112"/>
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C113" s="272"/>
-      <c r="E113" s="280"/>
+      <c r="C113" s="271"/>
+      <c r="E113" s="279"/>
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
@@ -8096,8 +8142,8 @@
       <c r="N113"/>
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C114" s="272"/>
-      <c r="E114" s="280"/>
+      <c r="C114" s="271"/>
+      <c r="E114" s="279"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
@@ -8105,8 +8151,8 @@
       <c r="N114"/>
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C115" s="272"/>
-      <c r="E115" s="280"/>
+      <c r="C115" s="271"/>
+      <c r="E115" s="279"/>
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
@@ -8114,8 +8160,8 @@
       <c r="N115"/>
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C116" s="272"/>
-      <c r="E116" s="280"/>
+      <c r="C116" s="271"/>
+      <c r="E116" s="279"/>
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
@@ -8123,8 +8169,8 @@
       <c r="N116"/>
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C117" s="272"/>
-      <c r="E117" s="280"/>
+      <c r="C117" s="271"/>
+      <c r="E117" s="279"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -8132,8 +8178,8 @@
       <c r="N117"/>
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C118" s="272"/>
-      <c r="E118" s="280"/>
+      <c r="C118" s="271"/>
+      <c r="E118" s="279"/>
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
@@ -8141,8 +8187,8 @@
       <c r="N118"/>
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C119" s="272"/>
-      <c r="E119" s="280"/>
+      <c r="C119" s="271"/>
+      <c r="E119" s="279"/>
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
@@ -8150,8 +8196,8 @@
       <c r="N119"/>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C120" s="272"/>
-      <c r="E120" s="280"/>
+      <c r="C120" s="271"/>
+      <c r="E120" s="279"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
@@ -8159,8 +8205,8 @@
       <c r="N120"/>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C121" s="272"/>
-      <c r="E121" s="280"/>
+      <c r="C121" s="271"/>
+      <c r="E121" s="279"/>
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
@@ -8168,8 +8214,8 @@
       <c r="N121"/>
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C122" s="272"/>
-      <c r="E122" s="280"/>
+      <c r="C122" s="271"/>
+      <c r="E122" s="279"/>
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
@@ -8177,8 +8223,8 @@
       <c r="N122"/>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C123" s="272"/>
-      <c r="E123" s="280"/>
+      <c r="C123" s="271"/>
+      <c r="E123" s="279"/>
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
